--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="243">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1150,10 +1150,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>點選後，展開下拉式選單，提供部門代號/名稱查詢及選擇用，如圖二</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>按下確認按鈕後，在下方顯示依所設定的條件查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，提供系統管理者點選該角色可查詢組織的範圍。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1170,10 +1166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>此按鈕功是將頁面上已做的可查詢組織設定清除，所以必須很僅慎，系統會有確認提示，若選擇是，則依最近一次儲存後為本次初始狀態，恢復設定至本次初始狀態並清除本次初始狀態後的設定，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 46</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>查詢[部門代號]提供開窗選取功能，
 開窗後系統連結共通性主檔DB，
 顯示所有組織資訊，以供點選。</t>
@@ -1183,6 +1175,22 @@
     <t>系統依APF0203MA1_Query所設定的條件
 查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，供系統管理者點選該角色可查尋組織的範圍權限</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>點選後，展開下拉式選單，提供部門代號/名稱查詢及選擇，如圖二</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此按鈕功是將頁面上已做的可查詢組織設定清除，所以必須很僅慎，系統會有確認提示，若選擇是，則依最近一次儲存後為本次初始狀態，恢復設定至本次初始狀態，即清除本次初始狀態後的設定，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 46</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2088,6 +2096,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,6 +2111,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2109,33 +2141,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2145,41 +2192,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2190,10 +2297,58 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,199 +2386,55 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2432,9 +2443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3467,7 +3475,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6278,12 +6286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
@@ -6314,7 +6322,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="126" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -6325,7 +6333,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="125"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="31" t="s">
         <v>95</v>
       </c>
@@ -6335,7 +6343,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="127" t="s">
         <v>192</v>
       </c>
       <c r="B6" s="92" t="s">
@@ -6347,7 +6355,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="34" t="s">
         <v>216</v>
       </c>
@@ -6357,7 +6365,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="126" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -6368,7 +6376,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="125"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="31" t="s">
         <v>58</v>
       </c>
@@ -6675,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6691,15 +6699,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="M1" s="129" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="144"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="144"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6716,226 +6724,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="137" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="129" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="130"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="137" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="135"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="129" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="154" t="s">
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="154" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="135"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="129" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="130"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -6965,55 +6973,65 @@
     <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="149"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="141"/>
     </row>
     <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="130"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="138"/>
     </row>
     <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="128" t="s">
+      <c r="A64" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="129"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="130"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7029,16 +7047,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -7066,7 +7074,7 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>62</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7110,7 +7118,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -7141,7 +7149,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -7162,7 +7170,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="178"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -7175,7 +7183,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="178"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -7190,152 +7198,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -7344,16 +7352,16 @@
       <c r="B16" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -7362,16 +7370,16 @@
       <c r="B17" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="204" t="s">
+      <c r="C17" s="184" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -7380,16 +7388,16 @@
       <c r="B18" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="204" t="s">
+      <c r="C18" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -7398,42 +7406,42 @@
       <c r="B19" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="204" t="s">
+      <c r="C19" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="206"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="158"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="159"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -7442,16 +7450,16 @@
       <c r="B22" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="201" t="s">
+      <c r="C22" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="203"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -7460,16 +7468,16 @@
       <c r="B23" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="209" t="s">
+      <c r="C23" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -7478,16 +7486,16 @@
       <c r="B24" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -7496,16 +7504,16 @@
       <c r="B25" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="209" t="s">
+      <c r="C25" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -7514,56 +7522,56 @@
       <c r="B26" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="209" t="s">
+      <c r="C26" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="182"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="198" t="s">
+      <c r="A29" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -7572,16 +7580,16 @@
       <c r="B30" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="201" t="s">
+      <c r="C30" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -7590,16 +7598,16 @@
       <c r="B31" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -7608,14 +7616,14 @@
       <c r="B32" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -7624,42 +7632,42 @@
       <c r="B33" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="209" t="s">
+      <c r="C33" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="205"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="206"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="158"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="159"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="198" t="s">
+      <c r="A35" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -7668,16 +7676,16 @@
       <c r="B36" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="201" t="s">
+      <c r="C36" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="203"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="169"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -7686,16 +7694,16 @@
       <c r="B37" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="209" t="s">
+      <c r="C37" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -7704,16 +7712,16 @@
       <c r="B38" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -7722,16 +7730,16 @@
       <c r="B39" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="209" t="s">
+      <c r="C39" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -7740,42 +7748,42 @@
       <c r="B40" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="209" t="s">
+      <c r="C40" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="158"/>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="159"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="195" t="s">
+      <c r="A42" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="216"/>
-      <c r="C42" s="216"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="161"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -7790,14 +7798,14 @@
       <c r="D43" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="218" t="s">
+      <c r="E43" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -7810,40 +7818,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="168" t="s">
+      <c r="E44" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="159"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="166"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="191" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="181"/>
+      <c r="B46" s="192"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -7856,14 +7864,14 @@
         <v>126</v>
       </c>
       <c r="D47" s="103"/>
-      <c r="E47" s="168" t="s">
+      <c r="E47" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -7876,14 +7884,14 @@
         <v>126</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="155" t="s">
+      <c r="E48" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="157"/>
+      <c r="F48" s="189"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="189"/>
+      <c r="J48" s="190"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -7896,40 +7904,40 @@
         <v>126</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="155" t="s">
+      <c r="E49" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="157"/>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="190"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="175"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="159"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="166"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="169" t="s">
+      <c r="A51" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="171"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="219"/>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -7942,14 +7950,14 @@
         <v>126</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="168" t="s">
+      <c r="E52" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -7962,14 +7970,14 @@
         <v>126</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="172" t="s">
+      <c r="E53" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="173"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="174"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -7982,14 +7990,14 @@
         <v>126</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="172" t="s">
+      <c r="E54" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -8002,14 +8010,14 @@
         <v>126</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="172" t="s">
+      <c r="E55" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -8022,14 +8030,14 @@
         <v>126</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="155" t="s">
+      <c r="E56" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="130"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="138"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
@@ -8042,118 +8050,118 @@
         <v>126</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="172" t="s">
+      <c r="E57" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="174"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="175"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="175"/>
-      <c r="H58" s="175"/>
-      <c r="I58" s="175"/>
-      <c r="J58" s="159"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="166"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="165" t="s">
+      <c r="A59" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="167"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="216"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="212" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="164"/>
-      <c r="D60" s="155" t="s">
+      <c r="C60" s="213"/>
+      <c r="D60" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="130"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="160"/>
-      <c r="B61" s="161"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="162"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="210"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="211"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="158"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="157"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="189"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="189"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="190"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="157"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="190"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="160"/>
-      <c r="B64" s="161"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="161"/>
-      <c r="F64" s="161"/>
-      <c r="G64" s="161"/>
-      <c r="H64" s="161"/>
-      <c r="I64" s="161"/>
-      <c r="J64" s="162"/>
+      <c r="A64" s="209"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="211"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="158"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="157"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
+      <c r="J65" s="190"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -8176,14 +8184,14 @@
       <c r="B67" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="158"/>
-      <c r="D67" s="129"/>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129"/>
-      <c r="H67" s="129"/>
-      <c r="I67" s="129"/>
-      <c r="J67" s="130"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -8192,44 +8200,38 @@
       <c r="B68" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
-      <c r="E68" s="176"/>
-      <c r="F68" s="176"/>
-      <c r="G68" s="176"/>
-      <c r="H68" s="176"/>
-      <c r="I68" s="176"/>
-      <c r="J68" s="176"/>
+      <c r="C68" s="185"/>
+      <c r="D68" s="185"/>
+      <c r="E68" s="185"/>
+      <c r="F68" s="185"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="185"/>
+      <c r="I68" s="185"/>
+      <c r="J68" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -8246,27 +8248,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8319,7 +8327,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -8346,7 +8354,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="178"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -8364,7 +8372,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="178"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -8408,18 +8416,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="222"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -8486,18 +8494,18 @@
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="221" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -8618,18 +8626,18 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="221" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="222"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="223"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
@@ -8810,8 +8818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8840,7 +8848,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8861,7 +8869,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="178"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8874,7 +8882,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="178"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8889,152 +8897,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="206" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -9043,16 +9051,16 @@
       <c r="B16" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="203"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -9061,16 +9069,16 @@
       <c r="B17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="204" t="s">
+      <c r="C17" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
@@ -9079,30 +9087,30 @@
       <c r="B18" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="204" t="s">
+      <c r="C18" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -9111,16 +9119,16 @@
       <c r="B20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
@@ -9129,16 +9137,16 @@
       <c r="B21" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="229" t="s">
+      <c r="C21" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -9147,54 +9155,54 @@
       <c r="B22" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="233"/>
-      <c r="B23" s="234"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="235"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="217"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -9203,16 +9211,16 @@
       <c r="B26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="201" t="s">
+      <c r="C26" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="169"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
@@ -9221,16 +9229,16 @@
       <c r="B27" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="204" t="s">
+      <c r="C27" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
@@ -9239,30 +9247,30 @@
       <c r="B28" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="204" t="s">
+      <c r="C28" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="198" t="s">
+      <c r="A29" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -9271,16 +9279,16 @@
       <c r="B30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="201" t="s">
+      <c r="C30" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -9289,16 +9297,16 @@
       <c r="B31" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="204" t="s">
+      <c r="C31" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="224"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="229"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -9307,42 +9315,42 @@
       <c r="B32" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="204" t="s">
+      <c r="C32" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="224"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="229"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="182"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="237"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="234"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
@@ -9357,14 +9365,14 @@
       <c r="D35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="218" t="s">
+      <c r="E35" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -9377,28 +9385,28 @@
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="168" t="s">
+      <c r="E36" s="217" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="231"/>
-      <c r="C37" s="231"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="231"/>
-      <c r="F37" s="231"/>
-      <c r="G37" s="231"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="227"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
       <c r="A38" s="118">
@@ -9411,14 +9419,14 @@
         <v>49</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="194" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
-      <c r="J38" s="226"/>
+      <c r="E38" s="206" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
+      <c r="I38" s="237"/>
+      <c r="J38" s="238"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1" ht="69" customHeight="1">
       <c r="A39" s="65">
@@ -9431,14 +9439,14 @@
         <v>49</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="168" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
+      <c r="E39" s="217" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
@@ -9451,14 +9459,14 @@
         <v>50</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -9473,18 +9481,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="191" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="181"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -9499,34 +9507,34 @@
         <v>87</v>
       </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="168" t="s">
+      <c r="E43" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" s="82" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="172" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
+      <c r="E44" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
@@ -9539,106 +9547,106 @@
         <v>87</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="155" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="130"/>
+      <c r="E45" s="188" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="138"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="165" t="s">
+      <c r="A46" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="167"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="155" t="s">
+      <c r="C47" s="213"/>
+      <c r="D47" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="130"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="160"/>
-      <c r="B48" s="227"/>
-      <c r="C48" s="227"/>
-      <c r="D48" s="227"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="227"/>
-      <c r="G48" s="227"/>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="228"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="236"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="138"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="158"/>
-      <c r="C50" s="159"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="160"/>
-      <c r="B51" s="227"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="228"/>
+      <c r="A51" s="209"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="235"/>
+      <c r="D51" s="235"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="236"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="130"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -9661,14 +9669,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="158"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="130"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="138"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -9677,14 +9685,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
+      <c r="C55" s="185"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -9697,6 +9705,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C31:J31"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="K1:K3"/>
@@ -9713,40 +9755,6 @@
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9768,8 +9776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9799,7 +9807,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9826,7 +9834,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="178"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9844,7 +9852,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="178"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9888,18 +9896,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="222"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9966,18 +9974,18 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="221" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10108,22 +10116,22 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="221" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="222"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="223"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="39" t="s">
@@ -10167,11 +10175,13 @@
       <c r="C19" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>240</v>
+      </c>
       <c r="E19" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="241" t="s">
+      <c r="F19" s="124" t="s">
         <v>223</v>
       </c>
       <c r="G19" s="123" t="s">
@@ -10195,7 +10205,9 @@
       <c r="C20" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="42" t="s">
+        <v>241</v>
+      </c>
       <c r="E20" s="122" t="s">
         <v>228</v>
       </c>
@@ -10223,8 +10235,8 @@
       <c r="G21" s="109"/>
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
-      <c r="J21" s="238" t="s">
-        <v>240</v>
+      <c r="J21" s="239" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">
@@ -10237,7 +10249,7 @@
       <c r="G22" s="109"/>
       <c r="H22" s="115"/>
       <c r="I22" s="110"/>
-      <c r="J22" s="239"/>
+      <c r="J22" s="240"/>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1">
       <c r="A23" s="106"/>
@@ -10249,7 +10261,7 @@
       <c r="G23" s="109"/>
       <c r="H23" s="115"/>
       <c r="I23" s="110"/>
-      <c r="J23" s="240"/>
+      <c r="J23" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -1,48 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0203MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="欄位_APF0203MM1" sheetId="14" r:id="rId5"/>
-    <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId6"/>
-    <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId7"/>
+    <sheet name="IPO" sheetId="38" r:id="rId4"/>
+    <sheet name="畫面_APF0203MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0203MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">畫面_APF0202MA1!$A$1:$J$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">畫面_APF0203MM1!$A$1:$J$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">欄位_APF0202MA1!$A$1:$J$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0203MM1!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0202MA1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0203MM1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0202MA1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0203MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">畫面_APF0202MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">畫面_APF0203MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">欄位_APF0202MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0203MM1!$1:$5</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">畫面_APF0202MA1!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">畫面_APF0203MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0203MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0203MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0202MA1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0203MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="247">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1191,6 +1197,22 @@
   <si>
     <t>此按鈕功是將頁面上已做的可查詢組織設定清除，所以必須很僅慎，系統會有確認提示，若選擇是，則依最近一次儲存後為本次初始狀態，恢復設定至本次初始狀態，即清除本次初始狀態後的設定，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 46</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2111,6 +2133,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,24 +2190,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2150,12 +2199,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2166,31 +2209,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2201,9 +2274,129 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2215,181 +2408,28 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,12 +2442,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2422,18 +2456,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3488,7 +3510,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3496,6 +3518,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3529,7 +3562,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3537,6 +3570,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3548,6 +3592,1095 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34817" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s34817"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0203 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>組織查詢對應設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131021</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4141,7 +5274,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4663,7 +5796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5322,7 +6455,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6270,10 +7403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6322,79 +7455,88 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D5" s="77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="126"/>
+      <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="77" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="77" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="127" t="s">
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B7" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="34" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="128"/>
+      <c r="B8" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="95" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A8" s="126" t="s">
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D9" s="77" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="31" t="s">
+    <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A10" s="126"/>
+      <c r="B10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="77" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickTop="1">
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
@@ -6407,33 +7549,37 @@
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D7" location="欄位_APF0202MA1!A1" display="View"/>
-    <hyperlink ref="D6" location="畫面_APF0202MA1!A1" display="View"/>
-    <hyperlink ref="D9" location="欄位_APF0201MU1!A1" display="View"/>
-    <hyperlink ref="D8" location="畫面_APF0201MU1!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0203MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0203MM1!A1" display="View"/>
+    <hyperlink ref="D8" location="欄位_APF0202MA1!A1" display="View"/>
+    <hyperlink ref="D7" location="畫面_APF0202MA1!A1" display="View"/>
+    <hyperlink ref="D10" location="欄位_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D9" location="畫面_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0203MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0203MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6699,15 +7845,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="129" t="s">
+      <c r="M1" s="144" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="130"/>
+      <c r="M2" s="145"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="130"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6724,226 +7870,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="133" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="137" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133" t="s">
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="137" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="149" t="s">
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="149" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="137" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -6973,65 +8119,55 @@
     <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="141"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="150"/>
     </row>
     <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="136" t="s">
+      <c r="A62" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="138"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="131"/>
     </row>
     <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="136" t="s">
+      <c r="A64" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="137"/>
-      <c r="L64" s="138"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -7047,6 +8183,16 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -7114,6 +8260,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="145"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="145"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
@@ -7149,7 +8359,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="178" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -7170,7 +8380,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -7183,7 +8393,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -7198,152 +8408,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -7352,16 +8562,16 @@
       <c r="B16" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -7370,16 +8580,16 @@
       <c r="B17" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -7388,16 +8598,16 @@
       <c r="B18" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="205" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -7406,42 +8616,42 @@
       <c r="B19" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="184" t="s">
+      <c r="C19" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="199" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -7450,16 +8660,16 @@
       <c r="B22" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -7468,16 +8678,16 @@
       <c r="B23" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -7486,16 +8696,16 @@
       <c r="B24" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -7504,16 +8714,16 @@
       <c r="B25" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="170" t="s">
+      <c r="C25" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -7522,56 +8732,56 @@
       <c r="B26" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="170" t="s">
+      <c r="C26" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -7580,16 +8790,16 @@
       <c r="B30" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -7598,16 +8808,16 @@
       <c r="B31" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="211" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="213"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -7616,14 +8826,14 @@
       <c r="B32" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="216"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -7632,42 +8842,42 @@
       <c r="B33" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="170" t="s">
+      <c r="C33" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="199" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -7676,16 +8886,16 @@
       <c r="B36" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -7694,16 +8904,16 @@
       <c r="B37" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="170" t="s">
+      <c r="C37" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -7712,16 +8922,16 @@
       <c r="B38" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="170" t="s">
+      <c r="C38" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -7730,16 +8940,16 @@
       <c r="B39" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="C39" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -7748,42 +8958,42 @@
       <c r="B40" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="170" t="s">
+      <c r="C40" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="159" t="s">
+      <c r="A42" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="217"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="218"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -7798,14 +9008,14 @@
       <c r="D43" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="162" t="s">
+      <c r="E43" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -7818,40 +9028,40 @@
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="217" t="s">
+      <c r="E44" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="160"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -7864,14 +9074,14 @@
         <v>126</v>
       </c>
       <c r="D47" s="103"/>
-      <c r="E47" s="217" t="s">
+      <c r="E47" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -7884,14 +9094,14 @@
         <v>126</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="188" t="s">
+      <c r="E48" s="156" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="190"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="158"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -7904,40 +9114,40 @@
         <v>126</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="188" t="s">
+      <c r="E49" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="189"/>
-      <c r="J49" s="190"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="166"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="160"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="218" t="s">
+      <c r="A51" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="219"/>
-      <c r="J51" s="220"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="172"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -7950,14 +9160,14 @@
         <v>126</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="217" t="s">
+      <c r="E52" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -7970,14 +9180,14 @@
         <v>126</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="156" t="s">
+      <c r="E53" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="175"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -7990,14 +9200,14 @@
         <v>126</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="156" t="s">
+      <c r="E54" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="175"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -8010,14 +9220,14 @@
         <v>126</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="156" t="s">
+      <c r="E55" s="173" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="175"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -8030,14 +9240,14 @@
         <v>126</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="188" t="s">
+      <c r="E56" s="156" t="s">
         <v>191</v>
       </c>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="138"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
@@ -8050,118 +9260,118 @@
         <v>126</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="156" t="s">
+      <c r="E57" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
+      <c r="J57" s="175"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="166"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="160"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="214" t="s">
+      <c r="A59" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="215"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="215"/>
-      <c r="G59" s="215"/>
-      <c r="H59" s="215"/>
-      <c r="I59" s="215"/>
-      <c r="J59" s="216"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="168"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="212" t="s">
+      <c r="B60" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="213"/>
-      <c r="D60" s="188" t="s">
+      <c r="C60" s="165"/>
+      <c r="D60" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="138"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="131"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="209"/>
-      <c r="B61" s="210"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="210"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="211"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="163"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="164"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="190"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="158"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="190"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="209"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="211"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="162"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="163"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="188"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="189"/>
-      <c r="H65" s="189"/>
-      <c r="I65" s="189"/>
-      <c r="J65" s="190"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="158"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -8184,14 +9394,14 @@
       <c r="B67" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="131"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -8200,22 +9410,60 @@
       <c r="B68" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="185"/>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
+      <c r="C68" s="177"/>
+      <c r="D68" s="177"/>
+      <c r="E68" s="177"/>
+      <c r="F68" s="177"/>
+      <c r="G68" s="177"/>
+      <c r="H68" s="177"/>
+      <c r="I68" s="177"/>
+      <c r="J68" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -8232,49 +9480,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8292,7 +9502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -8327,7 +9537,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="178" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -8354,7 +9564,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -8372,7 +9582,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -8814,11 +10024,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
@@ -8848,7 +10058,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="178" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8869,7 +10079,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8882,7 +10092,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8897,152 +10107,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -9051,16 +10261,16 @@
       <c r="B16" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -9069,16 +10279,16 @@
       <c r="B17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
@@ -9087,30 +10297,30 @@
       <c r="B18" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="205" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="199" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -9119,16 +10329,16 @@
       <c r="B20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="167" t="s">
+      <c r="C20" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
@@ -9137,16 +10347,16 @@
       <c r="B21" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
@@ -9155,54 +10365,54 @@
       <c r="B22" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="230"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="236"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="199" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -9211,16 +10421,16 @@
       <c r="B26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="167" t="s">
+      <c r="C26" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
@@ -9229,16 +10439,16 @@
       <c r="B27" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="184" t="s">
+      <c r="C27" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
@@ -9247,30 +10457,30 @@
       <c r="B28" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -9279,16 +10489,16 @@
       <c r="B30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -9297,7 +10507,7 @@
       <c r="B31" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="184" t="s">
+      <c r="C31" s="205" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="228"/>
@@ -9315,7 +10525,7 @@
       <c r="B32" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="184" t="s">
+      <c r="C32" s="205" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="228"/>
@@ -9327,30 +10537,30 @@
       <c r="J32" s="229"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="194"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="234"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="238"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
@@ -9365,14 +10575,14 @@
       <c r="D35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="162" t="s">
+      <c r="E35" s="219" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -9385,28 +10595,28 @@
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="217" t="s">
+      <c r="E36" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="191" t="s">
+      <c r="A37" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="226"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="226"/>
-      <c r="G37" s="226"/>
-      <c r="H37" s="226"/>
-      <c r="I37" s="226"/>
-      <c r="J37" s="227"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="233"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
       <c r="A38" s="118">
@@ -9419,14 +10629,14 @@
         <v>49</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="206" t="s">
+      <c r="E38" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="238"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="227"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1" ht="69" customHeight="1">
       <c r="A39" s="65">
@@ -9439,14 +10649,14 @@
         <v>49</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="217" t="s">
+      <c r="E39" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
@@ -9459,14 +10669,14 @@
         <v>50</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -9481,18 +10691,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -9507,14 +10717,14 @@
         <v>87</v>
       </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
@@ -9527,14 +10737,14 @@
         <v>87</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="156" t="s">
+      <c r="E44" s="173" t="s">
         <v>235</v>
       </c>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="175"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
@@ -9547,106 +10757,106 @@
         <v>87</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="188" t="s">
+      <c r="E45" s="156" t="s">
         <v>242</v>
       </c>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="138"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="131"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="215"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="216"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="168"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="212" t="s">
+      <c r="B47" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="213"/>
-      <c r="D47" s="188" t="s">
+      <c r="C47" s="165"/>
+      <c r="D47" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="138"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="209"/>
-      <c r="B48" s="235"/>
-      <c r="C48" s="235"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="236"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="224"/>
+      <c r="H48" s="224"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="225"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="138"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="209"/>
-      <c r="B51" s="235"/>
-      <c r="C51" s="235"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="235"/>
-      <c r="H51" s="235"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="236"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="224"/>
+      <c r="F51" s="224"/>
+      <c r="G51" s="224"/>
+      <c r="H51" s="224"/>
+      <c r="I51" s="224"/>
+      <c r="J51" s="225"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -9669,14 +10879,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="164"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="138"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="131"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -9685,14 +10895,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="185"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="177"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -9705,28 +10915,20 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="C21:J22"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="B52:C52"/>
@@ -9741,20 +10943,28 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="C21:J22"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9772,7 +10982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
@@ -9807,7 +11017,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="178" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9834,7 +11044,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9852,7 +11062,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -18,25 +18,25 @@
     <sheet name="IPO" sheetId="38" r:id="rId4"/>
     <sheet name="畫面_APF0203MM1" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0203MM1" sheetId="14" r:id="rId6"/>
-    <sheet name="畫面_APF0202MA1" sheetId="33" r:id="rId7"/>
-    <sheet name="欄位_APF0202MA1" sheetId="34" r:id="rId8"/>
+    <sheet name="畫面_APF0203MA1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0203MA1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0202MA1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0203MA1!$A$1:$J$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0203MM1!$A$1:$J$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0202MA1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0203MA1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0203MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0203MA1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0203MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0202MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0203MA1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0203MM1!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0202MA1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0203MA1!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0203MM1!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
@@ -1063,14 +1063,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>畫面_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1213,6 +1205,14 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6810,7 +6810,7 @@
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>APF0202MA1  </a:t>
+              <a:t>APF0203MA1  </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
@@ -7405,7 +7405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7456,14 +7456,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -7492,7 +7492,7 @@
         <v>192</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
@@ -7502,7 +7502,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
@@ -7573,8 +7573,8 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D8" location="欄位_APF0202MA1!A1" display="View"/>
-    <hyperlink ref="D7" location="畫面_APF0202MA1!A1" display="View"/>
+    <hyperlink ref="D8" location="欄位_APF0203MA1!A1" display="View"/>
+    <hyperlink ref="D7" location="畫面_APF0203MA1!A1" display="View"/>
     <hyperlink ref="D10" location="欄位_APF0201MU1!A1" display="View"/>
     <hyperlink ref="D9" location="畫面_APF0201MU1!A1" display="View"/>
     <hyperlink ref="D6" location="欄位_APF0203MM1!A1" display="View"/>
@@ -7829,8 +7829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="64" spans="1:12" ht="16.5">
       <c r="A64" s="129" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B64" s="130"/>
       <c r="C64" s="130"/>
@@ -8243,7 +8243,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8271,7 +8271,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="144" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -8581,7 +8581,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="205" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="206"/>
       <c r="E17" s="206"/>
@@ -8809,7 +8809,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="211" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" s="212"/>
       <c r="E31" s="212"/>
@@ -10028,8 +10028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
       <c r="A11" s="195" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B11" s="130"/>
       <c r="C11" s="130"/>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="200"/>
       <c r="C19" s="200"/>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="D38" s="120"/>
       <c r="E38" s="195" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F38" s="226"/>
       <c r="G38" s="226"/>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="D39" s="86"/>
       <c r="E39" s="169" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F39" s="133"/>
       <c r="G39" s="133"/>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="D43" s="86"/>
       <c r="E43" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F43" s="133"/>
       <c r="G43" s="133"/>
@@ -10731,14 +10731,14 @@
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="82" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="83"/>
       <c r="E44" s="173" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F44" s="174"/>
       <c r="G44" s="174"/>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="156" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F45" s="130"/>
       <c r="G45" s="130"/>
@@ -10915,6 +10915,12 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E45:J45"/>
@@ -10928,19 +10934,6 @@
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C31:J31"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C55:J55"/>
@@ -10950,6 +10943,13 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:J50"/>
     <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A10:J10"/>
@@ -10986,8 +10986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11262,29 +11262,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>224</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11326,7 +11326,7 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11386,23 +11386,23 @@
         <v>199</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
         <v>203</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11416,23 +11416,23 @@
         <v>200</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="123" t="s">
         <v>229</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>231</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
         <v>202</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11446,7 +11446,7 @@
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
       <c r="J21" s="239" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -432,10 +432,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -757,10 +753,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>APF0202MM1_Query</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1213,6 +1205,9 @@
   <si>
     <t>欄位_APF0203MA1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -2133,6 +2128,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,33 +2158,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2178,41 +2209,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2223,10 +2314,58 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2264,198 +2403,54 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3496,8 +3491,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3547,7 +3542,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5299,7 +5294,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12039600" cy="523875"/>
+          <a:ext cx="12487275" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6480,7 +6475,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12153900" cy="609600"/>
+          <a:ext cx="12582525" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7420,7 +7415,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7456,22 +7451,22 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>94</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>60</v>
@@ -7480,7 +7475,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="126"/>
       <c r="B6" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="77" t="s">
@@ -7489,10 +7484,10 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
@@ -7502,7 +7497,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
@@ -7829,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7845,15 +7840,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="129" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="145"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="145"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7870,226 +7865,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="A6" s="153" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+    </row>
+    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="135"/>
+    </row>
+    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="140"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="135"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="130" t="s">
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
+    </row>
+    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
+    </row>
+    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
+      <c r="A16" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
-    </row>
-    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-    </row>
-    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -8119,55 +8114,65 @@
     <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="150"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="141"/>
     </row>
     <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="129" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="131"/>
+      <c r="A62" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="138"/>
     </row>
     <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="130"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="131"/>
+      <c r="A64" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -8183,16 +8188,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8219,8 +8214,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8270,15 +8265,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="144" t="s">
-        <v>241</v>
+      <c r="P1" s="129" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="145"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="145"/>
+      <c r="P3" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8359,7 +8354,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8380,7 +8375,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8393,7 +8388,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8408,614 +8403,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="195" t="s">
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="186" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="A15" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="C16" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="205" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+        <v>110</v>
+      </c>
+      <c r="C17" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="184" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="205" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="159"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="160"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="199" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
+      <c r="A21" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="C22" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+        <v>110</v>
+      </c>
+      <c r="C23" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+        <v>111</v>
+      </c>
+      <c r="C24" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="207"/>
+      <c r="C25" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="207"/>
+        <v>113</v>
+      </c>
+      <c r="C26" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="185"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
+      <c r="A28" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="200"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="A29" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="C30" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="211" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="213"/>
+        <v>110</v>
+      </c>
+      <c r="C31" s="176" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="216"/>
+        <v>111</v>
+      </c>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="210" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+        <v>113</v>
+      </c>
+      <c r="C33" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="159"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="160"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="199" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="C36" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="204"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="169"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
+        <v>110</v>
+      </c>
+      <c r="C37" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
+        <v>111</v>
+      </c>
+      <c r="C38" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
+      <c r="C39" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
+        <v>113</v>
+      </c>
+      <c r="C40" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="160"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="196" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="217"/>
-      <c r="I42" s="217"/>
-      <c r="J42" s="218"/>
+      <c r="A42" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="161"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="E43" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="219" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="220"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -9024,358 +9019,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="169" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
+      <c r="E44" s="217" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="160"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="166"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="180" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="182"/>
+      <c r="A46" s="191" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="192"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="D47" s="103"/>
+      <c r="E47" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="169" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="156" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="158"/>
+      <c r="E48" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="189"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="189"/>
+      <c r="J48" s="190"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="156" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="158"/>
+      <c r="E49" s="188" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="190"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="160"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="166"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
+      <c r="A51" s="218" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="219"/>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="103"/>
+      <c r="E52" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="169" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="99"/>
+      <c r="E53" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="173" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="175"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="99"/>
+      <c r="E54" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="175"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="99"/>
+      <c r="E55" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="156" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="131"/>
+      <c r="E56" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="138"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="174"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="175"/>
+      <c r="E57" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="160"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="166"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="166" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="168"/>
+      <c r="A59" s="214" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="216"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="164" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="212" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="213"/>
+      <c r="D60" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="156" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="131"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="161"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="163"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="210"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="211"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="158"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="189"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="189"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="190"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="190"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="161"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="162"/>
-      <c r="I64" s="162"/>
-      <c r="J64" s="163"/>
+      <c r="A64" s="209"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="211"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="159"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="158"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
+      <c r="J65" s="190"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -9392,62 +9387,56 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="159"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="131"/>
+        <v>143</v>
+      </c>
+      <c r="C67" s="164"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="177"/>
-      <c r="F68" s="177"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
+        <v>143</v>
+      </c>
+      <c r="C68" s="185"/>
+      <c r="D68" s="185"/>
+      <c r="E68" s="185"/>
+      <c r="F68" s="185"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="185"/>
+      <c r="I68" s="185"/>
+      <c r="J68" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -9464,27 +9453,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9507,7 +9502,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9520,7 +9515,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="38" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -9537,7 +9532,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9564,7 +9559,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9582,7 +9577,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9627,7 +9622,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="221" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="222"/>
       <c r="C6" s="222"/>
@@ -9647,19 +9642,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>148</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9668,10 +9663,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -9705,7 +9700,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="221" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="222"/>
@@ -9719,19 +9714,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>153</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -9740,10 +9735,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -9754,26 +9749,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="E12" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="G12" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -9782,26 +9777,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="E13" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="G13" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -9810,34 +9805,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="221" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" s="222"/>
       <c r="C16" s="222"/>
@@ -9851,19 +9846,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>153</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -9872,10 +9867,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -9886,24 +9881,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9912,24 +9907,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>168</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9938,24 +9933,24 @@
         <v>3</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>56</v>
@@ -9966,27 +9961,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10058,7 +10053,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -10079,7 +10074,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10092,7 +10087,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10107,152 +10102,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="195" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="A11" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="199" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="A15" s="173" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -10261,16 +10256,16 @@
       <c r="B16" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="202" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="C16" s="167" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -10279,48 +10274,48 @@
       <c r="B17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="205" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="C17" s="184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="205" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+        <v>194</v>
+      </c>
+      <c r="C18" s="184" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="199" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="201"/>
+      <c r="A19" s="173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -10329,26 +10324,26 @@
       <c r="B20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" s="230" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D21" s="231"/>
       <c r="E21" s="231"/>
@@ -10363,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="231"/>
       <c r="D22" s="231"/>
@@ -10387,32 +10382,32 @@
       <c r="J23" s="236"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="217"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="218"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="199" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="200"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="201"/>
+      <c r="A25" s="173" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -10421,16 +10416,16 @@
       <c r="B26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="202" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="204"/>
+      <c r="C26" s="167" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="169"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
@@ -10439,48 +10434,48 @@
       <c r="B27" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="C27" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+        <v>194</v>
+      </c>
+      <c r="C28" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="200"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="A29" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -10489,26 +10484,26 @@
       <c r="B30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="202" t="s">
+      <c r="C30" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="205" t="s">
-        <v>83</v>
+        <v>194</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="228"/>
       <c r="E31" s="228"/>
@@ -10523,10 +10518,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="205" t="s">
-        <v>83</v>
+        <v>199</v>
+      </c>
+      <c r="C32" s="184" t="s">
+        <v>82</v>
       </c>
       <c r="D32" s="228"/>
       <c r="E32" s="228"/>
@@ -10537,30 +10532,30 @@
       <c r="J32" s="229"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="183"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="238"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="225"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
@@ -10575,14 +10570,14 @@
       <c r="D35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="219" t="s">
+      <c r="E35" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="220"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -10591,22 +10586,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="169" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
+      <c r="E36" s="217" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="180" t="s">
-        <v>210</v>
+      <c r="A37" s="191" t="s">
+        <v>208</v>
       </c>
       <c r="B37" s="232"/>
       <c r="C37" s="232"/>
@@ -10623,14 +10618,14 @@
         <v>1</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="195" t="s">
-        <v>237</v>
+      <c r="E38" s="206" t="s">
+        <v>235</v>
       </c>
       <c r="F38" s="226"/>
       <c r="G38" s="226"/>
@@ -10643,20 +10638,20 @@
         <v>2</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="82" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="169" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
+      <c r="E39" s="217" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
@@ -10669,14 +10664,14 @@
         <v>50</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
+      <c r="E40" s="217" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -10691,18 +10686,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="180" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
+      <c r="A42" s="191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -10711,152 +10706,152 @@
         <v>1</v>
       </c>
       <c r="B43" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="82" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="169" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
+      <c r="E43" s="217" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="175"/>
+      <c r="E44" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
         <v>3</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="131"/>
+      <c r="E45" s="188" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="138"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="165"/>
-      <c r="D47" s="156" t="s">
+      <c r="C47" s="213"/>
+      <c r="D47" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="131"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="161"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="224"/>
-      <c r="G48" s="224"/>
-      <c r="H48" s="224"/>
-      <c r="I48" s="224"/>
-      <c r="J48" s="225"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="237"/>
+      <c r="J48" s="238"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="131"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="138"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="131"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="161"/>
-      <c r="B51" s="224"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="224"/>
-      <c r="E51" s="224"/>
-      <c r="F51" s="224"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="224"/>
-      <c r="J51" s="225"/>
+      <c r="A51" s="209"/>
+      <c r="B51" s="237"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="131"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -10879,14 +10874,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="131"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="138"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -10895,14 +10890,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="177"/>
+      <c r="C55" s="185"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -10915,12 +10910,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E45:J45"/>
@@ -10936,35 +10949,17 @@
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
     <mergeCell ref="A46:J46"/>
-    <mergeCell ref="E36:J36"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="C31:J31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10986,7 +10981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -11000,7 +10995,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="38" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -11017,7 +11012,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -11044,7 +11039,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11062,7 +11057,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11151,7 +11146,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -11185,7 +11180,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="221" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="222"/>
@@ -11223,7 +11218,7 @@
         <v>77</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -11237,24 +11232,24 @@
         <v>78</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
         <v>79</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11262,29 +11257,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>220</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>222</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11326,12 +11321,12 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="221" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="222"/>
       <c r="C17" s="222"/>
@@ -11369,7 +11364,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -11380,29 +11375,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11410,29 +11405,29 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="123" t="s">
         <v>227</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>229</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11446,7 +11441,7 @@
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
       <c r="J21" s="239" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,10 +194,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -535,21 +531,6 @@
     <t>1. 主檔已建立組織相關資料。
 2. 各模組依需求在APF已建立自訂角色。</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色
-2. 系統依查詢條件顯示資料於grid
-3. 使用者選取特定角色進行資料設定
-查詢組織資訊
-1. 輸入查詢條件篩選組織資訊
-2. 系統依查詢條件顯示資料(樹狀圖)
-維護Mapping設定
-1. 使用者選取適當可查詢組織
-2. 加入角色 or 移除後點選儲存按鈕
-3. 系統依設定資訊儲存並回應設定成功資訊
-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>其他</t>
@@ -1776,7 +1757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2128,6 +2109,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,24 +2166,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2167,47 +2175,59 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2218,9 +2238,129 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2232,181 +2372,43 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2417,39 +2419,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3485,13 +3454,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3537,13 +3506,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>80</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7415,7 +7384,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7423,106 +7392,106 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>93</v>
-      </c>
       <c r="D5" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="126"/>
       <c r="B6" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="126"/>
       <c r="B10" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -7688,10 +7657,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41565</v>
@@ -7822,10 +7791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7838,17 +7807,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="129" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="144" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="130"/>
+      <c r="M2" s="145"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="130"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7865,242 +7834,212 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="153" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
+      <c r="A6" s="141" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="133" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="137" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+    </row>
+    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
+    </row>
+    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="150" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="142" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="142" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="150" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-    </row>
-    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-    </row>
-    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-    </row>
-    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-    </row>
-    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+    </row>
+    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
+      <c r="A15" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
+    </row>
+    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
+    <row r="17" s="76" customFormat="1" ht="14.25"/>
+    <row r="18" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" s="76" customFormat="1" ht="14.25"/>
     <row r="33" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="34" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="35" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -8111,59 +8050,70 @@
     <row r="40" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="41" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="42" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="141"/>
-    </row>
-    <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="138"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="137"/>
-      <c r="L64" s="138"/>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A43" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="150"/>
+    </row>
+    <row r="60" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A60" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="131"/>
+    </row>
+    <row r="62" spans="1:12" ht="16.5">
+      <c r="A62" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="131"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A64:L64"/>
+  <mergeCells count="23">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
@@ -8172,22 +8122,7 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A60:L60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8208,13 +8143,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
@@ -8233,13 +8168,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -8265,15 +8200,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="129" t="s">
-        <v>239</v>
+      <c r="P1" s="144" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="130"/>
+      <c r="P2" s="145"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="130"/>
+      <c r="P3" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8354,8 +8289,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -8375,7 +8310,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8388,7 +8323,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8403,614 +8338,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="A5" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="182" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="206" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="195" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C17" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="184" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+        <v>109</v>
+      </c>
+      <c r="C18" s="201" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="184" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+        <v>111</v>
+      </c>
+      <c r="C19" s="201" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="A21" s="195" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C23" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+        <v>109</v>
+      </c>
+      <c r="C24" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+        <v>114</v>
+      </c>
+      <c r="C25" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="170" t="s">
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="159" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="173" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="195" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="176" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+        <v>108</v>
+      </c>
+      <c r="C31" s="207" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
+        <v>109</v>
+      </c>
+      <c r="C32" s="210"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="212"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+        <v>111</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="A35" s="195" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C37" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="203"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+        <v>109</v>
+      </c>
+      <c r="C38" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+        <v>114</v>
+      </c>
+      <c r="C39" s="206" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="202"/>
+      <c r="E39" s="202"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="203"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="159" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
+      <c r="A42" s="192" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="213"/>
+      <c r="J42" s="214"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="E43" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -9019,358 +8954,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="E44" s="165" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
+      <c r="A46" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="178"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="103"/>
+      <c r="E47" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="217" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="188" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="190"/>
+      <c r="E48" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="154"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="188" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="189"/>
-      <c r="J49" s="190"/>
+      <c r="E49" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="154"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="166"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="156"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="218" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="219"/>
-      <c r="J51" s="220"/>
+      <c r="A51" s="166" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="167"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="168"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="217" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
+      <c r="E52" s="165" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="156" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="E53" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="171"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="E54" s="169" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="171"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="156" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="E55" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="171"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="188" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="138"/>
+      <c r="E56" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="156" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="E57" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="171"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="166"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="156"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="214" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="215"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="215"/>
-      <c r="G59" s="215"/>
-      <c r="H59" s="215"/>
-      <c r="I59" s="215"/>
-      <c r="J59" s="216"/>
+      <c r="A59" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="164"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="212" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="213"/>
-      <c r="D60" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="138"/>
+        <v>105</v>
+      </c>
+      <c r="B60" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="161"/>
+      <c r="D60" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="131"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="209"/>
-      <c r="B61" s="210"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="210"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="211"/>
+      <c r="A61" s="157"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="159"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="164"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="190"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="154"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="190"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="154"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="209"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="211"/>
+      <c r="A64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="159"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="188"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="189"/>
-      <c r="H65" s="189"/>
-      <c r="I65" s="189"/>
-      <c r="J65" s="190"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="152"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="154"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -9387,40 +9322,78 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
+        <v>141</v>
+      </c>
+      <c r="C67" s="155"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="131"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="185"/>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
+        <v>141</v>
+      </c>
+      <c r="C68" s="173"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -9437,49 +9410,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9532,8 +9467,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -9559,7 +9494,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9577,7 +9512,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9621,18 +9556,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="221" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="A6" s="217" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9642,19 +9577,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>148</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9663,10 +9598,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -9699,34 +9634,34 @@
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="221" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="A10" s="217" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="218"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -9735,10 +9670,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -9749,26 +9684,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="E12" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="G12" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>159</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -9777,26 +9712,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="E13" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="G13" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -9805,60 +9740,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="98" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="223"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="D17" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -9867,10 +9802,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -9881,24 +9816,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>159</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9907,24 +9842,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>166</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9933,27 +9868,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9961,27 +9896,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10053,8 +9988,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10074,7 +10009,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10087,7 +10022,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10102,482 +10037,482 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="A5" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="206" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="A11" s="191" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="195" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="C16" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="184" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+        <v>192</v>
+      </c>
+      <c r="C18" s="201" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="173" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="A19" s="195" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="230" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
+        <v>192</v>
+      </c>
+      <c r="C21" s="222" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
+        <v>197</v>
+      </c>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="234"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="230"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="214"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="173" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="A25" s="195" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
+      <c r="C26" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="203"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+        <v>192</v>
+      </c>
+      <c r="C28" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="173" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="184" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="229"/>
+        <v>192</v>
+      </c>
+      <c r="C31" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="227"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="184" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="229"/>
+        <v>197</v>
+      </c>
+      <c r="C32" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="227"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="194"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="225"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="A34" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="D35" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="E35" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -10586,92 +10521,92 @@
         <v>1</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="217" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="165" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="191" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="232"/>
-      <c r="C37" s="232"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="232"/>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="233"/>
+      <c r="A37" s="176" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="225"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
       <c r="A38" s="118">
         <v>1</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="206" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="226"/>
-      <c r="G38" s="226"/>
-      <c r="H38" s="226"/>
-      <c r="I38" s="226"/>
-      <c r="J38" s="227"/>
+      <c r="E38" s="191" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1" ht="69" customHeight="1">
       <c r="A39" s="65">
         <v>2</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="217" t="s">
-        <v>230</v>
-      </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
         <v>3</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -10686,18 +10621,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="191" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
+      <c r="A42" s="176" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -10706,152 +10641,152 @@
         <v>1</v>
       </c>
       <c r="B43" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="82" t="s">
-        <v>86</v>
-      </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="217" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
+      <c r="E43" s="165" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="156" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
+      <c r="E44" s="169" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
         <v>3</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="188" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="138"/>
+      <c r="E45" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="131"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="215"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="216"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="164"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="212" t="s">
+      <c r="B47" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="213"/>
-      <c r="D47" s="188" t="s">
+      <c r="C47" s="161"/>
+      <c r="D47" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="138"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="209"/>
-      <c r="B48" s="237"/>
-      <c r="C48" s="237"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="237"/>
-      <c r="J48" s="238"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="221"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="138"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="209"/>
-      <c r="B51" s="237"/>
-      <c r="C51" s="237"/>
-      <c r="D51" s="237"/>
-      <c r="E51" s="237"/>
-      <c r="F51" s="237"/>
-      <c r="G51" s="237"/>
-      <c r="H51" s="237"/>
-      <c r="I51" s="237"/>
-      <c r="J51" s="238"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="220"/>
+      <c r="I51" s="220"/>
+      <c r="J51" s="221"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -10874,14 +10809,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="164"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="138"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="131"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -10890,14 +10825,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="185"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -10910,30 +10845,16 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C31:J31"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E45:J45"/>
@@ -10950,16 +10871,30 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10981,7 +10916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -11012,8 +10947,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -11039,7 +10974,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11057,7 +10992,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11101,18 +11036,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="221" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="A6" s="217" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -11122,19 +11057,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -11143,10 +11078,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -11179,34 +11114,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="221" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="A10" s="217" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="218"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -11215,10 +11150,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -11229,27 +11164,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11257,29 +11192,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>218</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>220</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11287,26 +11222,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="D14" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="E14" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="F14" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="G14" s="113" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="87"/>
     </row>
@@ -11321,38 +11256,38 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="221" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="223"/>
+      <c r="A17" s="217" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>17</v>
@@ -11361,10 +11296,10 @@
         <v>12</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -11375,29 +11310,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11405,29 +11340,29 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="123" t="s">
         <v>225</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>227</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11440,8 +11375,8 @@
       <c r="G21" s="109"/>
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
-      <c r="J21" s="239" t="s">
-        <v>234</v>
+      <c r="J21" s="235" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">
@@ -11454,7 +11389,7 @@
       <c r="G22" s="109"/>
       <c r="H22" s="115"/>
       <c r="I22" s="110"/>
-      <c r="J22" s="240"/>
+      <c r="J22" s="236"/>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1">
       <c r="A23" s="106"/>
@@ -11466,7 +11401,7 @@
       <c r="G23" s="109"/>
       <c r="H23" s="115"/>
       <c r="I23" s="110"/>
-      <c r="J23" s="241"/>
+      <c r="J23" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -43,12 +38,12 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,6 +189,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -428,6 +427,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>無</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -464,10 +467,6 @@
   </si>
   <si>
     <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -533,6 +532,21 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">查詢角色
+1. 使用者輸入查詢條件篩選欲選取的角色
+2. 系統依查詢條件顯示資料於grid
+3. 使用者選取特定角色進行資料設定
+查詢組織資訊
+1. 輸入查詢條件篩選組織資訊
+2. 系統依查詢條件顯示資料(樹狀圖)
+維護Mapping設定
+1. 使用者選取適當可查詢組織
+2. 加入角色 or 移除後點選儲存按鈕
+3. 系統依設定資訊儲存並回應設定成功資訊
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,18 +593,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)
-如先輸入角色代號，則角色名稱自動帶出且該欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色來源</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-如先輸入角色代號或角色名稱，則角色來源被自動帶出且該欄位是disable，不可點選</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -731,6 +734,10 @@
   </si>
   <si>
     <t>預設值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -961,22 +968,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">APF0203MA1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：各欄位輸入後</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">APF0203MA1_Tree
 </t>
     </r>
@@ -989,6 +980,188 @@
       </rPr>
       <t>檢查時機：按下『儲存』鈕時</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0203MA1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0203MA1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0203MA1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0203MA1_Tree</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色可查詢組織設定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>查詢</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部門代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp_d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通性 CMD DB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通性 CMD DB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前畫面:APF0202MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能新增/修改/權限
+1.3 如角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
+    所以APF0203MA1_Tree的相關 checkbox, button均是反灰 disable。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0203MA1_Tree
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：當 Checkbox 被點選時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>按下確認按鈕後，在下方顯示依所設定的條件查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，提供系統管理者點選該角色可查詢組織的範圍。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>查詢[部門代號]提供開窗選取功能，
+開窗後系統連結共通性主檔DB，
+顯示所有組織資訊，以供點選。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統依APF0203MA1_Query所設定的條件
+查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，供系統管理者點選該角色可查尋組織的範圍權限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>此按鈕是將頁面上資料重新載入，回復至未做設定前的初始狀態</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:英文10(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+最大長度限制:中文20(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
+</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1008,187 +1181,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>『APF0203MA1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0203MA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0203MA1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0203MA1_Tree</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色可查詢組織設定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如角色可查詢組織已設定好，但尚未儲存即點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做的設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消頁面已做的的設定，再以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如角色可查詢組織已設定好，且已儲存，點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部門代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-如先輸入角色名稱，則角色代號被自動帶出且該欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>emp_d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通性 CMD DB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通性 CMD DB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0202MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能新增/修改/權限
-1.3 如角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
-    所以APF0203MA1_Tree的相關 checkbox, button均是反灰 disable。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0203MA1_Tree
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：當 Checkbox 被點選時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>按下確認按鈕後，在下方顯示依所設定的條件查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，提供系統管理者點選該角色可查詢組織的範圍。</t>
+    <t>按下查詢按鈕，以跳窗方式查詢部門代號或名稱後，按下確認按鈕後帶回部門代號及名稱，如圖二</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存已選好的角色可查詢組織設定，若選擇否，則不做任何動作。
-儲存成功:
-1.原畫面顯示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-2.下方組織TreeView重新載入，並顯示更新的可查詢組織設定
+儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢[部門代號]提供開窗選取功能，
-開窗後系統連結共通性主檔DB，
-顯示所有組織資訊，以供點選。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統依APF0203MA1_Query所設定的條件
-查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，供系統管理者點選該角色可查尋組織的範圍權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選後，展開下拉式選單，提供部門代號/名稱查詢及選擇，如圖二</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此按鈕功是將頁面上已做的可查詢組織設定清除，所以必須很僅慎，系統會有確認提示，若選擇是，則依最近一次儲存後為本次初始狀態，恢復設定至本次初始狀態，即清除本次初始狀態後的設定，若選擇否，則不做任何動作，訊息內容請參考APF訊息表APF_NO 46</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,6 +2174,18 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3454,14 +3466,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3474,7 +3486,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3482,17 +3494,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3506,13 +3507,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3526,7 +3527,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3534,17 +3535,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4094,7 +4084,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4102,17 +4092,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4669,7 +4648,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="58016"/>
-          <a:ext cx="9466984" cy="584489"/>
+          <a:ext cx="9458325" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -5263,7 +5242,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12487275" cy="523875"/>
+          <a:ext cx="12039600" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6331,19 +6310,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>453271</xdr:colOff>
+      <xdr:colOff>523051</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1323975</xdr:rowOff>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="圖片 10"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6362,8 +6341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1057275"/>
-          <a:ext cx="4710946" cy="3552825"/>
+          <a:off x="57150" y="1057275"/>
+          <a:ext cx="4723576" cy="3562350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6375,19 +6354,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>738810</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1343025</xdr:rowOff>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="圖片 11"/>
+        <xdr:cNvPr id="13" name="圖片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6406,8 +6385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="1047750"/>
-          <a:ext cx="4748835" cy="3581400"/>
+          <a:off x="4933950" y="1057275"/>
+          <a:ext cx="4772025" cy="3598889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6444,7 +6423,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12582525" cy="609600"/>
+          <a:ext cx="12153900" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7384,7 +7363,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="125" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7392,106 +7371,106 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="126"/>
       <c r="B6" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="126"/>
       <c r="B10" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -7657,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41565</v>
@@ -7791,10 +7770,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7807,10 +7786,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7851,7 +7830,7 @@
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="142"/>
       <c r="C6" s="142"/>
@@ -7885,14 +7864,14 @@
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="132" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133"/>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="130"/>
@@ -7921,14 +7900,14 @@
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="132" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133"/>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="130"/>
       <c r="H10" s="130"/>
@@ -7945,7 +7924,7 @@
       <c r="C11" s="137"/>
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
-      <c r="F11" s="151" t="s">
+      <c r="F11" s="155" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="139"/>
@@ -7957,7 +7936,7 @@
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
       <c r="A12" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133"/>
@@ -7979,7 +7958,7 @@
       <c r="C13" s="137"/>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
-      <c r="F13" s="151" t="s">
+      <c r="F13" s="155" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="139"/>
@@ -7991,14 +7970,14 @@
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
       <c r="A14" s="132" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133"/>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
       <c r="F14" s="130" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="130"/>
       <c r="H14" s="130"/>
@@ -8007,39 +7986,69 @@
       <c r="K14" s="130"/>
       <c r="L14" s="131"/>
     </row>
-    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
+    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
-    </row>
-    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
-    <row r="17" s="76" customFormat="1" ht="14.25"/>
-    <row r="18" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" s="76" customFormat="1" ht="14.25"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+    </row>
+    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
+      <c r="A16" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="154"/>
+    </row>
+    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
+      <c r="A17" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
+    </row>
+    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="33" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="34" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="35" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -8050,41 +8059,27 @@
     <row r="40" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="41" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="42" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="43" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A43" s="148" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="150"/>
-    </row>
-    <row r="60" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A60" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="131"/>
-    </row>
-    <row r="62" spans="1:12" ht="16.5">
+    <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+    <row r="45" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A45" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="150"/>
+    </row>
+    <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
       <c r="A62" s="129" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="B62" s="130"/>
       <c r="C62" s="130"/>
@@ -8098,14 +8093,32 @@
       <c r="K62" s="130"/>
       <c r="L62" s="131"/>
     </row>
+    <row r="64" spans="1:12" ht="16.5">
+      <c r="A64" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="131"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -8113,7 +8126,7 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A64:L64"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
@@ -8122,7 +8135,7 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8143,14 +8156,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>62</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8168,13 +8181,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -8201,7 +8214,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="144" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -8258,8 +8271,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8289,8 +8302,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="178" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -8310,7 +8323,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8323,7 +8336,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8338,8 +8351,8 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="182" t="s">
-        <v>28</v>
+      <c r="A5" s="186" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
@@ -8352,7 +8365,7 @@
       <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="183"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="142"/>
       <c r="C6" s="142"/>
       <c r="D6" s="142"/>
@@ -8364,46 +8377,46 @@
       <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="182" t="s">
-        <v>100</v>
+      <c r="A10" s="186" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="139"/>
       <c r="C10" s="139"/>
@@ -8416,8 +8429,8 @@
       <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="191" t="s">
-        <v>101</v>
+      <c r="A11" s="195" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="130"/>
       <c r="C11" s="130"/>
@@ -8430,8 +8443,8 @@
       <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="182" t="s">
-        <v>102</v>
+      <c r="A12" s="186" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="139"/>
       <c r="C12" s="139"/>
@@ -8444,8 +8457,8 @@
       <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="191" t="s">
-        <v>103</v>
+      <c r="A13" s="195" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="130"/>
       <c r="C13" s="130"/>
@@ -8458,8 +8471,8 @@
       <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="182" t="s">
-        <v>104</v>
+      <c r="A14" s="186" t="s">
+        <v>106</v>
       </c>
       <c r="B14" s="139"/>
       <c r="C14" s="139"/>
@@ -8472,170 +8485,170 @@
       <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="195" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="A15" s="199" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="202" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="201" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>110</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>111</v>
+      </c>
+      <c r="C18" s="205" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="C19" s="205" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="195" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+      <c r="A21" s="199" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
+        <v>108</v>
+      </c>
+      <c r="C22" s="202" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="206" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="203"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -8644,224 +8657,224 @@
       <c r="B25" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="206" t="s">
+      <c r="C25" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="203"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="206" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="192" t="s">
+      <c r="A28" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="198"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="195" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="A29" s="199" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+        <v>108</v>
+      </c>
+      <c r="C30" s="202" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="207" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+        <v>110</v>
+      </c>
+      <c r="C31" s="211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="213"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="210"/>
-      <c r="D32" s="211"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="212"/>
+        <v>111</v>
+      </c>
+      <c r="C32" s="214"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="216"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="206" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="155"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="156"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="195" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
+      <c r="A35" s="199" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
+        <v>108</v>
+      </c>
+      <c r="C36" s="202" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="206" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -8870,64 +8883,64 @@
       <c r="B39" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="206" t="s">
+      <c r="C39" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="206" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="156"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="192" t="s">
+      <c r="A42" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="214"/>
+      <c r="B42" s="217"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="217"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="218"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>118</v>
@@ -8938,14 +8951,14 @@
       <c r="D43" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="215" t="s">
+      <c r="E43" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="216"/>
-      <c r="G43" s="216"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="216"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -8954,12 +8967,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="165" t="s">
-        <v>183</v>
+      <c r="E44" s="169" t="s">
+        <v>184</v>
       </c>
       <c r="F44" s="133"/>
       <c r="G44" s="133"/>
@@ -8969,29 +8982,29 @@
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="156"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="160"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="176" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="178"/>
+      <c r="A46" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -9004,7 +9017,7 @@
         <v>123</v>
       </c>
       <c r="D47" s="103"/>
-      <c r="E47" s="165" t="s">
+      <c r="E47" s="169" t="s">
         <v>124</v>
       </c>
       <c r="F47" s="133"/>
@@ -9024,14 +9037,14 @@
         <v>123</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="154"/>
+      <c r="E48" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="158"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -9044,40 +9057,40 @@
         <v>123</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="152" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="154"/>
+      <c r="E49" s="156" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="156"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="160"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="166" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="168"/>
+      <c r="A51" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="172"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -9090,7 +9103,7 @@
         <v>123</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="165" t="s">
+      <c r="E52" s="169" t="s">
         <v>128</v>
       </c>
       <c r="F52" s="133"/>
@@ -9110,14 +9123,14 @@
         <v>123</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="169" t="s">
+      <c r="E53" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="171"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="175"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -9130,14 +9143,14 @@
         <v>123</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="169" t="s">
+      <c r="E54" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="171"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="175"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -9150,14 +9163,14 @@
         <v>123</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="169" t="s">
+      <c r="E55" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="171"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="175"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -9170,8 +9183,8 @@
         <v>123</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="152" t="s">
-        <v>187</v>
+      <c r="E56" s="156" t="s">
+        <v>188</v>
       </c>
       <c r="F56" s="130"/>
       <c r="G56" s="130"/>
@@ -9190,50 +9203,50 @@
         <v>123</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="169" t="s">
+      <c r="E57" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="171"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
+      <c r="J57" s="175"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="172"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="156"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="160"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="162" t="s">
+      <c r="A59" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="164"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="168"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="161"/>
-      <c r="D60" s="152" t="s">
+      <c r="C60" s="165"/>
+      <c r="D60" s="156" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="130"/>
@@ -9244,64 +9257,64 @@
       <c r="J60" s="131"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="157"/>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="159"/>
+      <c r="A61" s="161"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="162"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="163"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="154"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="158"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="154"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="157"/>
+      <c r="J63" s="158"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="157"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="159"/>
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="162"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="163"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="154"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="158"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -9324,7 +9337,7 @@
       <c r="B67" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="155"/>
+      <c r="C67" s="159"/>
       <c r="D67" s="130"/>
       <c r="E67" s="130"/>
       <c r="F67" s="130"/>
@@ -9340,14 +9353,14 @@
       <c r="B68" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
-      <c r="J68" s="173"/>
+      <c r="C68" s="177"/>
+      <c r="D68" s="177"/>
+      <c r="E68" s="177"/>
+      <c r="F68" s="177"/>
+      <c r="G68" s="177"/>
+      <c r="H68" s="177"/>
+      <c r="I68" s="177"/>
+      <c r="J68" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -9437,7 +9450,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9450,7 +9463,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -9467,8 +9480,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="178" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -9494,7 +9507,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9512,7 +9525,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9556,18 +9569,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="219"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9586,7 +9599,7 @@
         <v>145</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>146</v>
@@ -9601,7 +9614,7 @@
         <v>147</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -9634,31 +9647,31 @@
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="217" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="A10" s="221" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>146</v>
@@ -9673,7 +9686,7 @@
         <v>147</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -9684,26 +9697,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -9712,26 +9725,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -9740,57 +9753,57 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="217" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="219"/>
+      <c r="A16" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="223"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>146</v>
@@ -9805,7 +9818,7 @@
         <v>147</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -9816,24 +9829,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9842,24 +9855,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9868,27 +9881,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9896,27 +9909,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9958,8 +9971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9988,8 +10001,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="178" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10009,7 +10022,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10022,7 +10035,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10037,8 +10050,8 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="182" t="s">
-        <v>28</v>
+      <c r="A5" s="186" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
@@ -10051,7 +10064,7 @@
       <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="183"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="142"/>
       <c r="C6" s="142"/>
       <c r="D6" s="142"/>
@@ -10063,45 +10076,45 @@
       <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="186" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="139"/>
@@ -10115,8 +10128,8 @@
       <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="191" t="s">
-        <v>226</v>
+      <c r="A11" s="195" t="s">
+        <v>223</v>
       </c>
       <c r="B11" s="130"/>
       <c r="C11" s="130"/>
@@ -10129,7 +10142,7 @@
       <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="186" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="139"/>
@@ -10143,7 +10156,7 @@
       <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="195" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="130"/>
@@ -10157,7 +10170,7 @@
       <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="186" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="139"/>
@@ -10171,348 +10184,348 @@
       <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="195" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="A15" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+        <v>71</v>
+      </c>
+      <c r="C16" s="202" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="201" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>78</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="201" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>193</v>
+      </c>
+      <c r="C18" s="205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="195" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="A19" s="199" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
+      <c r="C20" s="202" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="222" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+        <v>193</v>
+      </c>
+      <c r="C21" s="226" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="227"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+        <v>198</v>
+      </c>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="227"/>
+      <c r="J22" s="227"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="228"/>
-      <c r="B23" s="229"/>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="230"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="214"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="195" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+      <c r="A25" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="202" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="203"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="205" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+        <v>193</v>
+      </c>
+      <c r="C28" s="205" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+      <c r="C30" s="202" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="227"/>
+        <v>193</v>
+      </c>
+      <c r="C31" s="205" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="231"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="227"/>
+        <v>198</v>
+      </c>
+      <c r="C32" s="205" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="230"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="231"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="236"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="A34" s="196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="198"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
+      <c r="E35" s="219" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -10521,12 +10534,12 @@
         <v>1</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="165" t="s">
-        <v>205</v>
+      <c r="E36" s="169" t="s">
+        <v>204</v>
       </c>
       <c r="F36" s="133"/>
       <c r="G36" s="133"/>
@@ -10535,52 +10548,52 @@
       <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="176" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="224"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="224"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="225"/>
-    </row>
-    <row r="38" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A37" s="180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
+      <c r="J37" s="229"/>
+    </row>
+    <row r="38" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A38" s="118">
         <v>1</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="191" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
-    </row>
-    <row r="39" spans="1:12" s="52" customFormat="1" ht="69" customHeight="1">
+      <c r="E38" s="195" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="237"/>
+      <c r="G38" s="237"/>
+      <c r="H38" s="237"/>
+      <c r="I38" s="237"/>
+      <c r="J38" s="238"/>
+    </row>
+    <row r="39" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A39" s="65">
         <v>2</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="165" t="s">
-        <v>228</v>
+      <c r="E39" s="169" t="s">
+        <v>225</v>
       </c>
       <c r="F39" s="133"/>
       <c r="G39" s="133"/>
@@ -10593,14 +10606,14 @@
         <v>3</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="165" t="s">
-        <v>83</v>
+      <c r="E40" s="169" t="s">
+        <v>85</v>
       </c>
       <c r="F40" s="133"/>
       <c r="G40" s="133"/>
@@ -10621,34 +10634,34 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="176" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="A42" s="180" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
-    <row r="43" spans="1:12" s="52" customFormat="1" ht="120" customHeight="1">
+    <row r="43" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A43" s="55">
         <v>1</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="165" t="s">
-        <v>212</v>
+      <c r="E43" s="169" t="s">
+        <v>237</v>
       </c>
       <c r="F43" s="133"/>
       <c r="G43" s="133"/>
@@ -10661,34 +10674,34 @@
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="169" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
+      <c r="E44" s="173" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="175"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
         <v>3</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="152" t="s">
-        <v>236</v>
+      <c r="E45" s="156" t="s">
+        <v>239</v>
       </c>
       <c r="F45" s="130"/>
       <c r="G45" s="130"/>
@@ -10697,28 +10710,28 @@
       <c r="J45" s="131"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="162" t="s">
+      <c r="A46" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="164"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="168"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="152" t="s">
+      <c r="C47" s="165"/>
+      <c r="D47" s="156" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="130"/>
@@ -10729,22 +10742,22 @@
       <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="157"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="220"/>
-      <c r="G48" s="220"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="221"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="224"/>
+      <c r="H48" s="224"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="225"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="152"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="156"/>
       <c r="E49" s="130"/>
       <c r="F49" s="130"/>
       <c r="G49" s="130"/>
@@ -10754,9 +10767,9 @@
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="152"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="156"/>
       <c r="E50" s="130"/>
       <c r="F50" s="130"/>
       <c r="G50" s="130"/>
@@ -10765,22 +10778,22 @@
       <c r="J50" s="131"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="157"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
-      <c r="H51" s="220"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="221"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="224"/>
+      <c r="F51" s="224"/>
+      <c r="G51" s="224"/>
+      <c r="H51" s="224"/>
+      <c r="I51" s="224"/>
+      <c r="J51" s="225"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="152"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="156"/>
       <c r="E52" s="130"/>
       <c r="F52" s="130"/>
       <c r="G52" s="130"/>
@@ -10809,7 +10822,7 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="155"/>
+      <c r="C54" s="159"/>
       <c r="D54" s="130"/>
       <c r="E54" s="130"/>
       <c r="F54" s="130"/>
@@ -10825,14 +10838,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="173"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="177"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -10930,7 +10943,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -10947,8 +10960,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="178" t="s">
+        <v>46</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10974,7 +10987,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="179"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10992,7 +11005,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="179"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11036,18 +11049,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="217" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="219"/>
+      <c r="A6" s="221" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -11057,19 +11070,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -11078,10 +11091,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -11114,34 +11127,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="217" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="A10" s="221" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="222"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>71</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -11150,10 +11163,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -11164,27 +11177,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11192,29 +11205,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>216</v>
-      </c>
       <c r="F13" s="121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11222,26 +11235,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" s="87"/>
     </row>
@@ -11256,38 +11269,38 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="217" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="219"/>
+      <c r="A17" s="221" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="223"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>17</v>
@@ -11296,10 +11309,10 @@
         <v>12</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -11310,29 +11323,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11340,29 +11353,29 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="96" t="s">
-        <v>196</v>
-      </c>
       <c r="D20" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E20" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="123" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>225</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11375,8 +11388,8 @@
       <c r="G21" s="109"/>
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
-      <c r="J21" s="235" t="s">
-        <v>232</v>
+      <c r="J21" s="239" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">
@@ -11389,7 +11402,7 @@
       <c r="G22" s="109"/>
       <c r="H22" s="115"/>
       <c r="I22" s="110"/>
-      <c r="J22" s="236"/>
+      <c r="J22" s="240"/>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1">
       <c r="A23" s="106"/>
@@ -11401,7 +11414,7 @@
       <c r="G23" s="109"/>
       <c r="H23" s="115"/>
       <c r="I23" s="110"/>
-      <c r="J23" s="237"/>
+      <c r="J23" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -38,7 +43,7 @@
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -829,10 +834,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>APF0202MM1_Grid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1189,6 +1190,9 @@
 儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
   </si>
 </sst>
 </file>
@@ -2109,6 +2113,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2118,33 +2143,48 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2154,41 +2194,101 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2199,10 +2299,58 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,197 +2388,53 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3486,7 +3490,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3494,6 +3498,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3513,8 +3528,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3527,7 +3542,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3535,6 +3550,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4084,7 +4110,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4092,6 +4118,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -7399,14 +7436,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -7432,10 +7469,10 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
@@ -7445,7 +7482,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
@@ -7772,8 +7809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7788,15 +7825,15 @@
       <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="129" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="145"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="145"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7813,226 +7850,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="141" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="A6" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="130" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="138" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="140"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="135"/>
     </row>
     <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="130" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="155" t="s">
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="155" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="135"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="130" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
     </row>
     <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -8062,55 +8099,65 @@
     <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="150"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="141"/>
     </row>
     <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="129" t="s">
+      <c r="A62" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="131"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="138"/>
     </row>
     <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="129" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="130"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="131"/>
+      <c r="A64" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -8126,16 +8173,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8187,8 +8224,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8213,15 +8250,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="144" t="s">
-        <v>231</v>
+      <c r="P1" s="129" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="145"/>
+      <c r="P2" s="130"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="145"/>
+      <c r="P3" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8271,7 +8308,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:J19"/>
     </sheetView>
   </sheetViews>
@@ -8302,7 +8339,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -8323,7 +8360,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8336,7 +8373,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8351,152 +8388,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="199" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="A15" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -8505,16 +8542,16 @@
       <c r="B16" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="202" t="s">
+      <c r="C16" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -8523,16 +8560,16 @@
       <c r="B17" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="C17" s="184" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -8541,16 +8578,16 @@
       <c r="B18" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="205" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+      <c r="C18" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -8559,42 +8596,42 @@
       <c r="B19" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="205" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="C19" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="159"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="160"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="199" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
+      <c r="A21" s="173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -8603,16 +8640,16 @@
       <c r="B22" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -8621,16 +8658,16 @@
       <c r="B23" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="210" t="s">
+      <c r="C23" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -8639,16 +8676,16 @@
       <c r="B24" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="210" t="s">
+      <c r="C24" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -8657,16 +8694,16 @@
       <c r="B25" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="207"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -8675,56 +8712,56 @@
       <c r="B26" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="210" t="s">
+      <c r="C26" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="207"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="185"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="200"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="A29" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -8733,16 +8770,16 @@
       <c r="B30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="202" t="s">
+      <c r="C30" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
@@ -8751,16 +8788,16 @@
       <c r="B31" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="211" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="213"/>
+      <c r="C31" s="176" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -8769,14 +8806,14 @@
       <c r="B32" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="216"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -8785,42 +8822,42 @@
       <c r="B33" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="210" t="s">
+      <c r="C33" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="159"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="160"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="199" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -8829,16 +8866,16 @@
       <c r="B36" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="202" t="s">
+      <c r="C36" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="204"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="169"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -8847,16 +8884,16 @@
       <c r="B37" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="210" t="s">
+      <c r="C37" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -8865,16 +8902,16 @@
       <c r="B38" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="210" t="s">
+      <c r="C38" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -8883,16 +8920,16 @@
       <c r="B39" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="210" t="s">
+      <c r="C39" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -8901,42 +8938,42 @@
       <c r="B40" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="210" t="s">
+      <c r="C40" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="160"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="196" t="s">
+      <c r="A42" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="217"/>
-      <c r="I42" s="217"/>
-      <c r="J42" s="218"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="161"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -8951,14 +8988,14 @@
       <c r="D43" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="219" t="s">
+      <c r="E43" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="220"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -8967,44 +9004,44 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="169" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
+      <c r="E44" s="217" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="160"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="166"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="182"/>
+      <c r="A46" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="192"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
@@ -9017,14 +9054,14 @@
         <v>123</v>
       </c>
       <c r="D47" s="103"/>
-      <c r="E47" s="169" t="s">
+      <c r="E47" s="217" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
@@ -9037,14 +9074,14 @@
         <v>123</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="158"/>
+      <c r="E48" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="189"/>
+      <c r="G48" s="189"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="189"/>
+      <c r="J48" s="190"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
@@ -9057,40 +9094,40 @@
         <v>123</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="156" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="158"/>
+      <c r="E49" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="190"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="160"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="166"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
+      <c r="A51" s="218" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="219"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="219"/>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
@@ -9103,14 +9140,14 @@
         <v>123</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="169" t="s">
+      <c r="E52" s="217" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
@@ -9123,14 +9160,14 @@
         <v>123</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="173" t="s">
+      <c r="E53" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="175"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
@@ -9143,14 +9180,14 @@
         <v>123</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="173" t="s">
+      <c r="E54" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="175"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="158"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
@@ -9163,14 +9200,14 @@
         <v>123</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="173" t="s">
+      <c r="E55" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
@@ -9183,14 +9220,14 @@
         <v>123</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="131"/>
+      <c r="E56" s="188" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="138"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
@@ -9203,118 +9240,118 @@
         <v>123</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="173" t="s">
+      <c r="E57" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="174"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="175"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="160"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="166"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="166" t="s">
+      <c r="A59" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="167"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="168"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="216"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="156" t="s">
+      <c r="C60" s="213"/>
+      <c r="D60" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="131"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="138"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="161"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="163"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="210"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="210"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="210"/>
+      <c r="H61" s="210"/>
+      <c r="I61" s="210"/>
+      <c r="J61" s="211"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="158"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="189"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="189"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
+      <c r="J62" s="190"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="158"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="190"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="161"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="162"/>
-      <c r="I64" s="162"/>
-      <c r="J64" s="163"/>
+      <c r="A64" s="209"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="211"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="159"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="158"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="189"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
+      <c r="J65" s="190"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
@@ -9337,14 +9374,14 @@
       <c r="B67" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="159"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="131"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
@@ -9353,44 +9390,38 @@
       <c r="B68" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="177"/>
-      <c r="E68" s="177"/>
-      <c r="F68" s="177"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
+      <c r="C68" s="185"/>
+      <c r="D68" s="185"/>
+      <c r="E68" s="185"/>
+      <c r="F68" s="185"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="185"/>
+      <c r="I68" s="185"/>
+      <c r="J68" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -9407,27 +9438,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9480,7 +9517,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -9507,7 +9544,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9525,7 +9562,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9775,12 +9812,12 @@
         <v>170</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="221" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="222"/>
       <c r="C16" s="222"/>
@@ -9832,7 +9869,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
@@ -9846,7 +9883,7 @@
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9858,7 +9895,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
@@ -9872,7 +9909,7 @@
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9881,24 +9918,24 @@
         <v>3</v>
       </c>
       <c r="B20" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="96" t="s">
         <v>177</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>178</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>56</v>
@@ -9912,7 +9949,7 @@
         <v>166</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
@@ -9926,10 +9963,10 @@
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9971,7 +10008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:J44"/>
     </sheetView>
   </sheetViews>
@@ -10001,7 +10038,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="50"/>
@@ -10022,7 +10059,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10035,7 +10072,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10050,152 +10087,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="195" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="A11" s="206" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="A15" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -10204,16 +10241,16 @@
       <c r="B16" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="202" t="s">
+      <c r="C16" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -10222,48 +10259,48 @@
       <c r="B17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="205" t="s">
+      <c r="C17" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="205" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+        <v>192</v>
+      </c>
+      <c r="C18" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="199" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="201"/>
+      <c r="A19" s="173" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -10272,90 +10309,90 @@
       <c r="B20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="202" t="s">
+      <c r="C20" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="226" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
+        <v>192</v>
+      </c>
+      <c r="C21" s="230" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
+        <v>197</v>
+      </c>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="232"/>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="236"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="217"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="218"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="200"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="201"/>
+      <c r="A25" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -10364,16 +10401,16 @@
       <c r="B26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="204"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="169"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
@@ -10382,48 +10419,48 @@
       <c r="B27" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="205" t="s">
+      <c r="C27" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="205" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="199" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="200"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="A29" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -10432,78 +10469,78 @@
       <c r="B30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="202" t="s">
+      <c r="C30" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="205" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="231"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="229"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="231"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
+      <c r="J32" s="229"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="183"/>
-      <c r="B33" s="235"/>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="236"/>
+      <c r="A33" s="194"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="225"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="196" t="s">
+      <c r="A34" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="198"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
@@ -10518,14 +10555,14 @@
       <c r="D35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="219" t="s">
+      <c r="E35" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="220"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -10534,52 +10571,52 @@
         <v>1</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="169" t="s">
+      <c r="E36" s="217" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+    </row>
+    <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A37" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-    </row>
-    <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="180" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" s="228"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="228"/>
-      <c r="I37" s="228"/>
-      <c r="J37" s="229"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="233"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A38" s="118">
         <v>1</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" s="119" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="195" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="237"/>
-      <c r="G38" s="237"/>
-      <c r="H38" s="237"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="238"/>
+      <c r="E38" s="206" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="227"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A39" s="65">
@@ -10592,14 +10629,14 @@
         <v>49</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="169" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
+      <c r="E39" s="217" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
@@ -10612,14 +10649,14 @@
         <v>50</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="169" t="s">
+      <c r="E40" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -10634,18 +10671,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="180" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
+      <c r="A42" s="191" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -10660,146 +10697,146 @@
         <v>87</v>
       </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
+      <c r="E43" s="217" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" s="82" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="173" t="s">
-        <v>245</v>
-      </c>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="175"/>
+      <c r="E44" s="156" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="158"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
         <v>3</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="82" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="156" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="131"/>
+      <c r="E45" s="188" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="138"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="215"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="165"/>
-      <c r="D47" s="156" t="s">
+      <c r="C47" s="213"/>
+      <c r="D47" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="131"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="161"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="224"/>
-      <c r="G48" s="224"/>
-      <c r="H48" s="224"/>
-      <c r="I48" s="224"/>
-      <c r="J48" s="225"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="237"/>
+      <c r="J48" s="238"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="131"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="138"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="131"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="161"/>
-      <c r="B51" s="224"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="224"/>
-      <c r="E51" s="224"/>
-      <c r="F51" s="224"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="224"/>
-      <c r="J51" s="225"/>
+      <c r="A51" s="209"/>
+      <c r="B51" s="237"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="131"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -10822,14 +10859,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="131"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="138"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -10838,14 +10875,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="177"/>
+      <c r="C55" s="185"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="185"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -10858,16 +10895,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E45:J45"/>
@@ -10884,30 +10935,16 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C31:J31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10929,7 +10966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -10960,7 +10997,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="178" t="s">
+      <c r="K1" s="186" t="s">
         <v>46</v>
       </c>
       <c r="L1" s="36"/>
@@ -10987,7 +11024,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="179"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11005,7 +11042,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="179"/>
+      <c r="K3" s="187"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11128,7 +11165,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="222"/>
@@ -11197,7 +11234,7 @@
         <v>79</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11205,29 +11242,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="G13" s="46" t="s">
         <v>214</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>215</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11269,12 +11306,12 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="221" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="222"/>
       <c r="C17" s="222"/>
@@ -11323,29 +11360,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="124" t="s">
-        <v>214</v>
-      </c>
       <c r="G19" s="123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11353,29 +11390,29 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>220</v>
-      </c>
       <c r="G20" s="123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11389,7 +11426,7 @@
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
       <c r="J21" s="239" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -194,10 +194,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -535,21 +531,6 @@
     <t>1. 主檔已建立組織相關資料。
 2. 各模組依需求在APF已建立自訂角色。</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢角色
-1. 使用者輸入查詢條件篩選欲選取的角色
-2. 系統依查詢條件顯示資料於grid
-3. 使用者選取特定角色進行資料設定
-查詢組織資訊
-1. 輸入查詢條件篩選組織資訊
-2. 系統依查詢條件顯示資料(樹狀圖)
-維護Mapping設定
-1. 使用者選取適當可查詢組織
-2. 加入角色 or 移除後點選儲存按鈕
-3. 系統依設定資訊儲存並回應設定成功資訊
-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>其他</t>
@@ -1761,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2113,6 +2094,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2125,24 +2151,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2152,47 +2160,59 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2203,9 +2223,129 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,181 +2357,43 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,39 +2404,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3470,14 +3439,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3522,13 +3491,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7400,7 +7369,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="125" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -7408,106 +7377,106 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>93</v>
-      </c>
       <c r="D5" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="126"/>
       <c r="B6" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="128"/>
       <c r="B8" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A9" s="126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
       <c r="A10" s="126"/>
       <c r="B10" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -7673,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="20">
         <v>41565</v>
@@ -7807,10 +7776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7823,17 +7792,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="129" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="144" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="130"/>
+      <c r="M2" s="145"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="130"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7850,242 +7819,212 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="153" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
+      <c r="A6" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="133" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="137" t="s">
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="131"/>
+    </row>
+    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
+    </row>
+    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="150" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="131"/>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A14" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="142" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-    </row>
-    <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="142" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="150" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="138"/>
-    </row>
-    <row r="15" spans="1:13" s="74" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-    </row>
-    <row r="16" spans="1:13" s="74" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A16" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-    </row>
-    <row r="17" spans="1:12" s="76" customFormat="1" ht="16.5">
-      <c r="A17" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-    </row>
-    <row r="18" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="76" customFormat="1" ht="14.25"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+    </row>
+    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
+      <c r="A15" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="131"/>
+    </row>
+    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
+    <row r="17" s="76" customFormat="1" ht="14.25"/>
+    <row r="18" s="76" customFormat="1" ht="14.25"/>
+    <row r="19" s="76" customFormat="1" ht="14.25"/>
+    <row r="20" s="76" customFormat="1" ht="14.25"/>
+    <row r="21" s="76" customFormat="1" ht="14.25"/>
+    <row r="22" s="76" customFormat="1" ht="14.25"/>
+    <row r="23" s="76" customFormat="1" ht="14.25"/>
+    <row r="24" s="76" customFormat="1" ht="14.25"/>
+    <row r="25" s="76" customFormat="1" ht="14.25"/>
+    <row r="26" s="76" customFormat="1" ht="14.25"/>
+    <row r="27" s="76" customFormat="1" ht="14.25"/>
+    <row r="28" s="76" customFormat="1" ht="14.25"/>
+    <row r="29" s="76" customFormat="1" ht="14.25"/>
+    <row r="30" s="76" customFormat="1" ht="14.25"/>
+    <row r="31" s="76" customFormat="1" ht="14.25"/>
+    <row r="32" s="76" customFormat="1" ht="14.25"/>
     <row r="33" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="34" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="35" spans="1:12" s="76" customFormat="1" ht="14.25"/>
@@ -8096,59 +8035,70 @@
     <row r="40" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="41" spans="1:12" s="76" customFormat="1" ht="14.25"/>
     <row r="42" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="43" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="44" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="45" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A45" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="141"/>
-    </row>
-    <row r="62" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A62" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="138"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5">
-      <c r="A64" s="136" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="137"/>
-      <c r="L64" s="138"/>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A43" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="150"/>
+    </row>
+    <row r="60" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A60" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="131"/>
+    </row>
+    <row r="62" spans="1:12" ht="16.5">
+      <c r="A62" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="131"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A64:L64"/>
+  <mergeCells count="23">
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A62:L62"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
@@ -8157,22 +8107,7 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A60:L60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8188,19 +8123,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8218,13 +8153,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -8250,15 +8185,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="129" t="s">
-        <v>230</v>
+      <c r="P1" s="144" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="130"/>
+      <c r="P2" s="145"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="130"/>
+      <c r="P3" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8339,8 +8274,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -8360,7 +8295,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8373,7 +8308,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8388,614 +8323,614 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="A5" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="182" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="206" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="195" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C17" s="201" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="184" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+        <v>109</v>
+      </c>
+      <c r="C18" s="201" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="184" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+        <v>110</v>
+      </c>
+      <c r="C19" s="201" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="166"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="A21" s="195" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C23" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+        <v>112</v>
+      </c>
+      <c r="C25" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="195" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="176" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+        <v>108</v>
+      </c>
+      <c r="C31" s="207" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
+        <v>109</v>
+      </c>
+      <c r="C32" s="210"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="212"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="170" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+        <v>110</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="203"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="166"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="A35" s="195" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+        <v>108</v>
+      </c>
+      <c r="C37" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="203"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="203"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+        <v>112</v>
+      </c>
+      <c r="C39" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="202"/>
+      <c r="E39" s="202"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="203"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+        <v>110</v>
+      </c>
+      <c r="C40" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="203"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="166"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="159" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
+      <c r="A42" s="192" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="213"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="213"/>
+      <c r="H42" s="213"/>
+      <c r="I42" s="213"/>
+      <c r="J42" s="214"/>
     </row>
     <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="E43" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
     </row>
@@ -9004,358 +8939,358 @@
         <v>1</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
-      <c r="E44" s="217" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="E44" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1">
       <c r="A45" s="62"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="191" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
+      <c r="A46" s="176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="178"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="103"/>
+      <c r="E47" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="217" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="63">
         <v>2</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D48" s="99"/>
-      <c r="E48" s="188" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="190"/>
+      <c r="E48" s="152" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="154"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="65">
         <v>3</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D49" s="101"/>
-      <c r="E49" s="188" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="189"/>
-      <c r="G49" s="189"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="189"/>
-      <c r="J49" s="190"/>
+      <c r="E49" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="154"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="166"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="156"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="218" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="219"/>
-      <c r="J51" s="220"/>
+      <c r="A51" s="166" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="167"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="168"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D52" s="103"/>
-      <c r="E52" s="217" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
+      <c r="E52" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A53" s="55">
         <v>2</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C53" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="99"/>
-      <c r="E53" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="158"/>
+      <c r="E53" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="171"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
       <c r="A54" s="55">
         <v>3</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D54" s="99"/>
-      <c r="E54" s="156" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="158"/>
+      <c r="E54" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="171"/>
     </row>
     <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="55">
         <v>4</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="99"/>
-      <c r="E55" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="158"/>
+      <c r="E55" s="169" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="171"/>
     </row>
     <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
       <c r="A56" s="55">
         <v>1</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D56" s="101"/>
-      <c r="E56" s="188" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="138"/>
+      <c r="E56" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A57" s="55">
         <v>2</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D57" s="99"/>
-      <c r="E57" s="156" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="158"/>
+      <c r="E57" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="171"/>
     </row>
     <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="67"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="166"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="156"/>
     </row>
     <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="214" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="215"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="215"/>
-      <c r="G59" s="215"/>
-      <c r="H59" s="215"/>
-      <c r="I59" s="215"/>
-      <c r="J59" s="216"/>
+      <c r="A59" s="162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="164"/>
     </row>
     <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="212" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="213"/>
-      <c r="D60" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="138"/>
+        <v>105</v>
+      </c>
+      <c r="B60" s="160" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="161"/>
+      <c r="D60" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="131"/>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="209"/>
-      <c r="B61" s="210"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="210"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="211"/>
+      <c r="A61" s="157"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="158"/>
+      <c r="G61" s="158"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="159"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="65"/>
-      <c r="B62" s="164"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="190"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="154"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="65"/>
-      <c r="B63" s="164"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="190"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="154"/>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="209"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="211"/>
+      <c r="A64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="159"/>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="65"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="188"/>
-      <c r="E65" s="189"/>
-      <c r="F65" s="189"/>
-      <c r="G65" s="189"/>
-      <c r="H65" s="189"/>
-      <c r="I65" s="189"/>
-      <c r="J65" s="190"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="152"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="154"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="70"/>
@@ -9372,40 +9307,78 @@
         <v>1</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="164"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
+        <v>139</v>
+      </c>
+      <c r="C67" s="155"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="131"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="65">
         <v>2</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="185"/>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
+        <v>139</v>
+      </c>
+      <c r="C68" s="173"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A59:J59"/>
@@ -9422,49 +9395,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B58:J58"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9517,8 +9452,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -9544,7 +9479,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9562,7 +9497,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9606,18 +9541,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="221" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="A6" s="217" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9627,19 +9562,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>146</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9648,10 +9583,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -9684,34 +9619,34 @@
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="221" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="A10" s="217" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="218"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>152</v>
-      </c>
       <c r="D11" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -9720,10 +9655,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -9734,26 +9669,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="E12" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="G12" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -9762,26 +9697,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="E13" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="G13" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -9790,60 +9725,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="221" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="223"/>
+      <c r="A16" s="217" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>152</v>
-      </c>
       <c r="D17" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -9852,10 +9787,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -9866,24 +9801,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9892,24 +9827,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9918,27 +9853,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9946,27 +9881,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10008,7 +9943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:J44"/>
     </sheetView>
   </sheetViews>
@@ -10038,8 +9973,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -10059,7 +9994,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10072,7 +10007,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10087,482 +10022,482 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="197" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
+      <c r="A5" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="206" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="A11" s="191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="A15" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="C16" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="184" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+        <v>190</v>
+      </c>
+      <c r="C18" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="A19" s="195" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="230" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="222" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
+        <v>195</v>
+      </c>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="234"/>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="230"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="214"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="173" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="A25" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="167" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
+      <c r="C26" s="198" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="203"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+        <v>190</v>
+      </c>
+      <c r="C28" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="173" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="A29" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="229"/>
+        <v>190</v>
+      </c>
+      <c r="C31" s="201" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="227"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="229"/>
+        <v>195</v>
+      </c>
+      <c r="C32" s="201" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="227"/>
     </row>
     <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="194"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="225"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
     </row>
     <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="A34" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="D35" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="E35" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
     </row>
@@ -10571,92 +10506,92 @@
         <v>1</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="217" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="165" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
     </row>
     <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="191" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="232"/>
-      <c r="C37" s="232"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="232"/>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="233"/>
+      <c r="A37" s="176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="225"/>
     </row>
     <row r="38" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A38" s="118">
         <v>1</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="120"/>
-      <c r="E38" s="206" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="226"/>
-      <c r="G38" s="226"/>
-      <c r="H38" s="226"/>
-      <c r="I38" s="226"/>
-      <c r="J38" s="227"/>
+      <c r="E38" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
     </row>
     <row r="39" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A39" s="65">
         <v>2</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="217" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="165" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
     </row>
     <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="65">
         <v>3</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="86"/>
-      <c r="E40" s="217" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="165" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
     </row>
     <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="91"/>
@@ -10671,18 +10606,18 @@
       <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
+      <c r="A42" s="176" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
     </row>
@@ -10691,152 +10626,152 @@
         <v>1</v>
       </c>
       <c r="B43" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="82" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" s="86"/>
-      <c r="E43" s="217" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
+      <c r="E43" s="165" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
     </row>
     <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
       <c r="A44" s="63">
         <v>2</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="83"/>
-      <c r="E44" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
+      <c r="E44" s="169" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="171"/>
     </row>
     <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
       <c r="A45" s="65">
         <v>3</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="188" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="138"/>
+      <c r="E45" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="131"/>
     </row>
     <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="214" t="s">
+      <c r="A46" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="215"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="216"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="163"/>
+      <c r="J46" s="164"/>
     </row>
     <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="212" t="s">
+      <c r="B47" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="213"/>
-      <c r="D47" s="188" t="s">
+      <c r="C47" s="161"/>
+      <c r="D47" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="138"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="209"/>
-      <c r="B48" s="237"/>
-      <c r="C48" s="237"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="237"/>
-      <c r="J48" s="238"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="221"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="65"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="138"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="131"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="65"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="209"/>
-      <c r="B51" s="237"/>
-      <c r="C51" s="237"/>
-      <c r="D51" s="237"/>
-      <c r="E51" s="237"/>
-      <c r="F51" s="237"/>
-      <c r="G51" s="237"/>
-      <c r="H51" s="237"/>
-      <c r="I51" s="237"/>
-      <c r="J51" s="238"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="220"/>
+      <c r="I51" s="220"/>
+      <c r="J51" s="221"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="68" t="s">
@@ -10859,14 +10794,14 @@
       <c r="B54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="164"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="138"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="131"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="65">
@@ -10875,14 +10810,14 @@
       <c r="B55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="185"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="185"/>
-      <c r="I55" s="185"/>
-      <c r="J55" s="185"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="50"/>
@@ -10895,30 +10830,16 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C31:J31"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="E45:J45"/>
@@ -10935,16 +10856,30 @@
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10966,7 +10901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -10997,8 +10932,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="186" t="s">
-        <v>46</v>
+      <c r="K1" s="174" t="s">
+        <v>45</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -11024,7 +10959,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="187"/>
+      <c r="K2" s="175"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11042,7 +10977,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="187"/>
+      <c r="K3" s="175"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11086,18 +11021,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="221" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="A6" s="217" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -11107,19 +11042,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -11128,10 +11063,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -11164,34 +11099,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="221" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="222"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="A10" s="217" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="218"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -11200,10 +11135,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -11214,27 +11149,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -11242,29 +11177,29 @@
         <v>3</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="46" t="s">
+      <c r="F13" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
@@ -11272,26 +11207,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="D14" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="E14" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="F14" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="G14" s="113" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="87"/>
     </row>
@@ -11306,38 +11241,38 @@
       <c r="H15" s="115"/>
       <c r="I15" s="110"/>
       <c r="J15" s="90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="223"/>
+      <c r="A17" s="217" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>17</v>
@@ -11346,10 +11281,10 @@
         <v>12</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -11360,29 +11295,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -11390,29 +11325,29 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="123" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>221</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29.25" customHeight="1">
@@ -11425,8 +11360,8 @@
       <c r="G21" s="109"/>
       <c r="H21" s="115"/>
       <c r="I21" s="110"/>
-      <c r="J21" s="239" t="s">
-        <v>227</v>
+      <c r="J21" s="235" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1">
@@ -11439,7 +11374,7 @@
       <c r="G22" s="109"/>
       <c r="H22" s="115"/>
       <c r="I22" s="110"/>
-      <c r="J22" s="240"/>
+      <c r="J22" s="236"/>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1">
       <c r="A23" s="106"/>
@@ -11451,7 +11386,7 @@
       <c r="G23" s="109"/>
       <c r="H23" s="115"/>
       <c r="I23" s="110"/>
-      <c r="J23" s="241"/>
+      <c r="J23" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0203MA1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0203MA1!$A$1:$J$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0203MM1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0203MA1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0203MM1!$A$1:$J$14</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="298">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -234,10 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>用途分類</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -294,10 +290,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項目名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -343,30 +335,6 @@
   <si>
     <t>系統部</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>功能名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_FUNCTION_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_root</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
@@ -432,55 +400,28 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回上一頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色欄位由前一頁角色明細帶入組成，格式為「角色代號-角色名稱」，且為唯讀顯示(Label欄位)。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>無</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顯示用。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>點選清除重填按鈕，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>則清除所有欄位。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色欄位由前一頁角色明細帶入組成，格式為「角色代號-角色名稱」，且為唯讀顯示(Label欄位)。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>lblROLE_NO_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -533,10 +474,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前檢核</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -595,50 +532,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新增</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以導頁方式開啟APF0102MA1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>全選</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -672,10 +573,6 @@
   </si>
   <si>
     <t>明細</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>系統將角色功能清單對應查詢結果匯出成Excel檔案，附檔名為xls，檔名為RolePermissionExport_yyyyMMdd.xls。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -883,27 +780,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開啟APF0203MM1_Grid，並將查詢角色結果置於APF0203MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0203MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>導頁方式開啟APF0203MA1，並將本頁的角色明細組成一欄，格式為「角色代號-角色名稱」，帶入將開啟的APF0203MA1角色欄位，此欄是唯讀顯示(Label欄位)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色可查詢組織設定新增頁面</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>自APF0203MM1_Grid帶入，
-角色代號-角色名稱的組合，唯讀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>APF0203MA1_Query</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -912,18 +792,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部門代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_DEPT_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPT_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -932,21 +800,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>部門名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.勾選上層部門則下層所有部門均全數選取。EX:勾選北一營業所，則下一層南港營業所及其所有子部門將一併被勾選。
-2.如將任一下層組織勾選取消，則上層組織同樣會自動取消勾選。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -985,10 +844,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>查詢</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -997,58 +852,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>部門代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>emp_d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>org_id</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通性 CMD DB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通性 CMD DB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0202MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能新增/修改/權限
-1.3 如角色來源是選擇職稱角色，此角色所含的功能及權限，已事先於其他系統定義好，於APF 中，僅能查詢，
-    所以APF0203MA1_Tree的相關 checkbox, button均是反灰 disable。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1067,23 +879,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>按下確認按鈕後，在下方顯示依所設定的條件查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，提供系統管理者點選該角色可查詢組織的範圍。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>儲存</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢[部門代號]提供開窗選取功能，
-開窗後系統連結共通性主檔DB，
-顯示所有組織資訊，以供點選。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統依APF0203MA1_Query所設定的條件
-查詢後端共通性主檔DB並依組織樹狀結構，展開及顯示各階部門組織(含深度)，組織名稱前設checkbox，供系統管理者點選該角色可查尋組織的範圍權限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string 10</t>
@@ -1116,30 +913,6 @@
   <si>
     <t>欄位_APF0203MA1</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重新載入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>此按鈕是將頁面上資料重新載入，回復至未做設定前的初始狀態</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入型態:string
-最大長度限制:英文10(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入型態:string
-最大長度限制:中文20(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
@@ -1163,17 +936,443 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>按下查詢按鈕，以跳窗方式查詢部門代號或名稱後，按下確認按鈕後帶回部門代號及名稱，如圖二</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 ，若選擇是，則進行儲存已選好的角色可查詢組織設定，若選擇否，則不做任何動作。
-儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+  </si>
+  <si>
+    <t>單位代號</t>
+  </si>
+  <si>
+    <t>單位名稱</t>
+  </si>
+  <si>
+    <t>1.勾選上層單位則下層所有單位均全數選取。EX:勾選北一營業所，則下一層南港營業所及其所有子單位將一併被勾選。
+2.如將任一下層組織勾選取消，則上層組織同樣會自動取消勾選。</t>
+  </si>
+  <si>
+    <t>3.10 查詢「單位代號/單位名稱」開窗選取功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號-單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id + '-' + vw_org_unique.org_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtRID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtGROUP_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由APF0203MM1帶過來</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_DEPT_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此欄位為跳窗選擇後帶回，或輸入單位代號時自動帶回</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.前畫面:APF0202MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能修改權限 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:數字
+最大長度限制:數字10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Attribute名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Base Class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIPermissionHelper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUDA3G.APF.WEB.Utils</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActionFilterAttribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OnActionExecuting()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI按鈕權限檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Button</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogAction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _Load</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.QueryScopeController.RoleQuery()</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.RoleQuery()</t>
+  </si>
+  <si>
+    <t>[LogAction]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.GetRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.GetRole()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0203MM1_Grid，並回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於APF0203MM1_Grid中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0203MM1_Query畫面所有欄位
+1.txtINPUT_GROUP_ID=""
+  txtINPUT_NAME=""
+  rbtINPUT_SOURCE_TYPE =(value="2" checked)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[QueryScopeController.Setting()]</t>
+  </si>
+  <si>
+    <t>A.1 
+QueryScopeController.Setting()[HttpGet]</t>
+  </si>
+  <si>
+    <t>1.以導頁方式開啟APF0203MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0203MA_Grid 右半部(角色帳號區)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫QueryScopeController.Setting()</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Setting()</t>
+  </si>
+  <si>
+    <t>apfModel</t>
+  </si>
+  <si>
+    <t>A. _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫ShowDialog() Javascrip
+查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
+呼叫 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 ShowDialog()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btnID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>傳入buttonID，依buttonID跳出查詢視窗</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫QueryScopeController.GetQueryScope()
+</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.GetQueryScope()</t>
+  </si>
+  <si>
+    <t>txtINPUT_DEPT_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0203MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0203MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選清除重填按鈕，則清除所有欄位。
+1.txtINPUT_DEPT_ID=""</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 47") JavaScript
+2.呼叫 APFRoleRelationController.RoleQuery()
+如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+QueryScopeController.Setting()[HttpPost]</t>
+  </si>
+  <si>
+    <t>1.點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 14") JavaScript
+2.呼叫 QueryScopeController.Save()
+點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Save()</t>
+  </si>
+  <si>
+    <t>Rid, List&lt;string&gt; SelectDepid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
 儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+    <t>重新載入</t>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫QueryScopeControllerr.Setting()
+</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Setting()[HttpPost]</t>
+  </si>
+  <si>
+    <t>apfModel,Depid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.載入APF0203MA1_Query畫面原始資料並執行APF0203MA1_Query的查詢條件
+</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1183,7 +1382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1351,21 +1550,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1382,20 +1568,19 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1443,7 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,7 +1913,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1738,11 +1923,12 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1896,24 +2082,12 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,7 +2112,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1949,13 +2122,81 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1964,310 +2205,195 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2332,19 +2458,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2400,25 +2535,218 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="5"/>
     <cellStyle name="一般_12312" xfId="4"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
@@ -3445,8 +3773,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3491,13 +3819,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7368,115 +7696,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="A1" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="126" t="s">
-        <v>91</v>
+      <c r="A5" s="107" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="77" t="s">
-        <v>53</v>
+      <c r="D6" s="72" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
+      <c r="A9" s="107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="B9" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>53</v>
+      <c r="D9" s="72" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="126"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="77" t="s">
-        <v>41</v>
+      <c r="D10" s="72" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" hidden="1" customHeight="1" thickBot="1">
@@ -7776,10 +8104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7792,17 +8120,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="144" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="M1" s="125" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="145"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="145"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -7818,278 +8146,245 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="129" t="s">
+    <row r="5" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
-    </row>
-    <row r="6" spans="1:13" s="74" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="141" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
-    </row>
-    <row r="7" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="136" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
+    </row>
+    <row r="6" spans="1:13" s="69" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
-    </row>
-    <row r="8" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-    </row>
-    <row r="9" spans="1:13" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121"/>
+    </row>
+    <row r="8" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
+    </row>
+    <row r="9" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="138" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="140"/>
-    </row>
-    <row r="10" spans="1:13" s="75" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="131"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
+    </row>
+    <row r="10" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="151" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="131"/>
+      <c r="A12" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="151" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
-    </row>
-    <row r="15" spans="1:13" s="76" customFormat="1" ht="16.5">
-      <c r="A15" s="129" t="s">
+      <c r="A14" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+    </row>
+    <row r="15" spans="1:13" s="71" customFormat="1" ht="16.5">
+      <c r="A15" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131"/>
-    </row>
-    <row r="16" spans="1:13" s="76" customFormat="1" ht="14.25"/>
-    <row r="17" s="76" customFormat="1" ht="14.25"/>
-    <row r="18" s="76" customFormat="1" ht="14.25"/>
-    <row r="19" s="76" customFormat="1" ht="14.25"/>
-    <row r="20" s="76" customFormat="1" ht="14.25"/>
-    <row r="21" s="76" customFormat="1" ht="14.25"/>
-    <row r="22" s="76" customFormat="1" ht="14.25"/>
-    <row r="23" s="76" customFormat="1" ht="14.25"/>
-    <row r="24" s="76" customFormat="1" ht="14.25"/>
-    <row r="25" s="76" customFormat="1" ht="14.25"/>
-    <row r="26" s="76" customFormat="1" ht="14.25"/>
-    <row r="27" s="76" customFormat="1" ht="14.25"/>
-    <row r="28" s="76" customFormat="1" ht="14.25"/>
-    <row r="29" s="76" customFormat="1" ht="14.25"/>
-    <row r="30" s="76" customFormat="1" ht="14.25"/>
-    <row r="31" s="76" customFormat="1" ht="14.25"/>
-    <row r="32" s="76" customFormat="1" ht="14.25"/>
-    <row r="33" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="34" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="35" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="36" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="37" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="38" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="39" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="40" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="41" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="42" spans="1:12" s="76" customFormat="1" ht="14.25"/>
-    <row r="43" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A43" s="148" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="150"/>
-    </row>
-    <row r="60" spans="1:12" s="76" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A60" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="131"/>
-    </row>
-    <row r="62" spans="1:12" ht="16.5">
-      <c r="A62" s="129" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="131"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="112"/>
+    </row>
+    <row r="16" spans="1:13" s="71" customFormat="1" ht="14.25"/>
+    <row r="17" s="71" customFormat="1" ht="14.25"/>
+    <row r="18" s="71" customFormat="1" ht="14.25"/>
+    <row r="19" s="71" customFormat="1" ht="14.25"/>
+    <row r="20" s="71" customFormat="1" ht="14.25"/>
+    <row r="21" s="71" customFormat="1" ht="14.25"/>
+    <row r="22" s="71" customFormat="1" ht="14.25"/>
+    <row r="23" s="71" customFormat="1" ht="14.25"/>
+    <row r="24" s="71" customFormat="1" ht="14.25"/>
+    <row r="25" s="71" customFormat="1" ht="14.25"/>
+    <row r="26" s="71" customFormat="1" ht="14.25"/>
+    <row r="27" s="71" customFormat="1" ht="14.25"/>
+    <row r="28" s="71" customFormat="1" ht="14.25"/>
+    <row r="29" s="71" customFormat="1" ht="14.25"/>
+    <row r="30" s="71" customFormat="1" ht="14.25"/>
+    <row r="31" s="71" customFormat="1" ht="14.25"/>
+    <row r="32" s="71" customFormat="1" ht="14.25"/>
+    <row r="33" s="71" customFormat="1" ht="14.25"/>
+    <row r="34" s="71" customFormat="1" ht="14.25"/>
+    <row r="35" s="71" customFormat="1" ht="14.25"/>
+    <row r="36" s="71" customFormat="1" ht="14.25"/>
+    <row r="37" s="71" customFormat="1" ht="14.25"/>
+    <row r="38" s="71" customFormat="1" ht="14.25"/>
+    <row r="39" s="71" customFormat="1" ht="14.25"/>
+    <row r="40" s="71" customFormat="1" ht="14.25"/>
+    <row r="41" s="71" customFormat="1" ht="14.25"/>
+    <row r="42" s="71" customFormat="1" ht="14.25"/>
+    <row r="59" spans="1:12" ht="16.5">
+      <c r="A59" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A43:L43"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -8098,7 +8393,7 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A59:L59"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
@@ -8107,7 +8402,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A60:L60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8123,7 +8417,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -8134,8 +8428,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8153,13 +8447,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -8185,15 +8479,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="144" t="s">
-        <v>228</v>
+      <c r="P1" s="125" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="145"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="145"/>
+      <c r="P3" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8241,10 +8535,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:J19"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8274,8 +8568,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="152" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -8295,7 +8589,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8308,7 +8602,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8323,1023 +8617,1271 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="183"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="182" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="A10" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="191" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="A11" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="182" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="A12" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="191" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="A13" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="A14" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="195" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="A15" s="173" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+        <v>93</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
         <v>1</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="201" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="181"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="201" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>96</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="181"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="201" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+        <v>97</v>
+      </c>
+      <c r="C19" s="179" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="181"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="134"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="195" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+      <c r="A21" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
+        <v>93</v>
+      </c>
+      <c r="C22" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
         <v>1</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="203"/>
+        <v>95</v>
+      </c>
+      <c r="C23" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>2</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="203"/>
+        <v>96</v>
+      </c>
+      <c r="C24" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="181"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
         <v>3</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="203"/>
+        <v>99</v>
+      </c>
+      <c r="C25" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
         <v>4</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="203"/>
+        <v>97</v>
+      </c>
+      <c r="C26" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="A28" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="195" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="A29" s="173" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-    </row>
-    <row r="31" spans="1:10" s="52" customFormat="1">
+        <v>93</v>
+      </c>
+      <c r="C30" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
+    </row>
+    <row r="31" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="207" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+        <v>95</v>
+      </c>
+      <c r="C31" s="185" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="210"/>
-      <c r="D32" s="211"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="212"/>
-    </row>
-    <row r="33" spans="1:12" s="52" customFormat="1">
+        <v>96</v>
+      </c>
+      <c r="C32" s="188"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="190"/>
+    </row>
+    <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="55">
         <v>3</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="206" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="203"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1">
-      <c r="A34" s="155"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="156"/>
-    </row>
-    <row r="35" spans="1:12" s="52" customFormat="1">
-      <c r="A35" s="195" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
-    </row>
-    <row r="36" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
+    </row>
+    <row r="34" spans="1:10" s="52" customFormat="1">
+      <c r="A34" s="133"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="134"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1">
+      <c r="A35" s="173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
+    </row>
+    <row r="36" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-    </row>
-    <row r="37" spans="1:12" s="52" customFormat="1">
+        <v>93</v>
+      </c>
+      <c r="C36" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="55">
         <v>1</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
-    </row>
-    <row r="38" spans="1:12" s="52" customFormat="1">
+        <v>95</v>
+      </c>
+      <c r="C37" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="181"/>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="55">
         <v>2</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="203"/>
-    </row>
-    <row r="39" spans="1:12" s="52" customFormat="1">
+        <v>96</v>
+      </c>
+      <c r="C38" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="181"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="55">
         <v>3</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="203"/>
-    </row>
-    <row r="40" spans="1:12" s="52" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="C39" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="181"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1">
       <c r="A40" s="55">
         <v>4</v>
       </c>
       <c r="B40" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="181"/>
+    </row>
+    <row r="41" spans="1:10" s="52" customFormat="1">
+      <c r="A41" s="63"/>
+      <c r="B41" s="239"/>
+      <c r="C41" s="240"/>
+      <c r="D41" s="240"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="240"/>
+      <c r="H41" s="240"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="241"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1">
+      <c r="A42" s="214" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="215"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="216"/>
+    </row>
+    <row r="43" spans="1:10" s="52" customFormat="1">
+      <c r="A43" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="183"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="217" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="220"/>
+    </row>
+    <row r="45" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="55">
+        <v>1</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="221" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="221" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="221" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" s="223"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="224"/>
+    </row>
+    <row r="46" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="104"/>
+      <c r="B46" s="225"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="227"/>
+    </row>
+    <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="214" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="215"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="216"/>
+    </row>
+    <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="173" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="183"/>
+    </row>
+    <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="217" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" s="219"/>
+      <c r="H49" s="219"/>
+      <c r="I49" s="219"/>
+      <c r="J49" s="220"/>
+    </row>
+    <row r="50" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="55">
+        <v>1</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="221" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="221" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="221" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="222" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" s="223"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="223"/>
+      <c r="J50" s="224"/>
+    </row>
+    <row r="51" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="133"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="134"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A52" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="195"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A53" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="228" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="196" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="197"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="197"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A54" s="229">
+        <v>1</v>
+      </c>
+      <c r="B54" s="229" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="130" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="132"/>
+    </row>
+    <row r="55" spans="1:10" ht="49.5">
+      <c r="A55" s="230"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="59"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="134"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="155"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="156"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="55">
+        <v>1</v>
+      </c>
+      <c r="B58" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="105"/>
+      <c r="E58" s="143" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="60">
+        <v>1</v>
+      </c>
+      <c r="B59" s="231" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="232"/>
+      <c r="E59" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="149"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="60"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="234" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" s="232"/>
+      <c r="E60" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="149"/>
+    </row>
+    <row r="61" spans="1:10" ht="49.5">
+      <c r="A61" s="60"/>
+      <c r="B61" s="235"/>
+      <c r="C61" s="234" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="232" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="149"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="61">
+        <v>2</v>
+      </c>
+      <c r="B62" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="102"/>
+      <c r="E62" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="132"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="62"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="134"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="145"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="146"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="55">
+        <v>1</v>
+      </c>
+      <c r="B65" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="105"/>
+      <c r="E65" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="55">
+        <v>2</v>
+      </c>
+      <c r="B66" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="99"/>
+      <c r="E66" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="149"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="55">
+        <v>3</v>
+      </c>
+      <c r="B67" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="99"/>
+      <c r="E67" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="149"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="55">
+        <v>4</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="99"/>
+      <c r="E68" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="206" t="s">
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="149"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="229">
+        <v>1</v>
+      </c>
+      <c r="B69" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
-    </row>
-    <row r="41" spans="1:12" s="52" customFormat="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="156"/>
-    </row>
-    <row r="42" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="192" t="s">
+      <c r="C69" s="101" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="102"/>
+      <c r="E69" s="130" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="132"/>
+    </row>
+    <row r="70" spans="1:10" ht="66">
+      <c r="A70" s="236"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="237" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="238" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="131"/>
+      <c r="G70" s="131"/>
+      <c r="H70" s="131"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="132"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="63"/>
+      <c r="B71" s="239"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="240"/>
+      <c r="E71" s="240"/>
+      <c r="F71" s="240"/>
+      <c r="G71" s="240"/>
+      <c r="H71" s="240"/>
+      <c r="I71" s="240"/>
+      <c r="J71" s="241"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="141"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="141"/>
+      <c r="J72" s="142"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="139"/>
+      <c r="D73" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="112"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="135"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="137"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="61"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="132"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="61"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="131"/>
+      <c r="G76" s="131"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="132"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="135"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="137"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="61"/>
+      <c r="B78" s="133"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="131"/>
+      <c r="F78" s="131"/>
+      <c r="G78" s="131"/>
+      <c r="H78" s="131"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="132"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="213"/>
-      <c r="C42" s="213"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="213"/>
-      <c r="G42" s="213"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="214"/>
-    </row>
-    <row r="43" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="56" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="67"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="61">
+        <v>1</v>
+      </c>
+      <c r="B80" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="215" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="216"/>
-      <c r="G43" s="216"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-    </row>
-    <row r="44" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A44" s="59">
-        <v>1</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="165" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-    </row>
-    <row r="45" spans="1:12" s="52" customFormat="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="156"/>
-    </row>
-    <row r="46" spans="1:12" s="52" customFormat="1">
-      <c r="A46" s="176" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="178"/>
-    </row>
-    <row r="47" spans="1:12" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="55">
-        <v>1</v>
-      </c>
-      <c r="B47" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
-    </row>
-    <row r="48" spans="1:12" s="54" customFormat="1" ht="39" customHeight="1">
-      <c r="A48" s="63">
+      <c r="C80" s="133"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="111"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="112"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="61">
         <v>2</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="154"/>
-    </row>
-    <row r="49" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A49" s="65">
-        <v>3</v>
-      </c>
-      <c r="B49" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="152" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="154"/>
-    </row>
-    <row r="50" spans="1:10" s="52" customFormat="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="156"/>
-    </row>
-    <row r="51" spans="1:10" s="52" customFormat="1">
-      <c r="A51" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="168"/>
-    </row>
-    <row r="52" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A52" s="55">
-        <v>1</v>
-      </c>
-      <c r="B52" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="165" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-    </row>
-    <row r="53" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A53" s="55">
-        <v>2</v>
-      </c>
-      <c r="B53" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="171"/>
-    </row>
-    <row r="54" spans="1:10" s="52" customFormat="1" hidden="1">
-      <c r="A54" s="55">
-        <v>3</v>
-      </c>
-      <c r="B54" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="171"/>
-    </row>
-    <row r="55" spans="1:10" s="52" customFormat="1" ht="17.25" hidden="1" customHeight="1">
-      <c r="A55" s="55">
-        <v>4</v>
-      </c>
-      <c r="B55" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="171"/>
-    </row>
-    <row r="56" spans="1:10" s="52" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A56" s="55">
-        <v>1</v>
-      </c>
-      <c r="B56" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="101"/>
-      <c r="E56" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="131"/>
-    </row>
-    <row r="57" spans="1:10" s="52" customFormat="1" ht="35.25" hidden="1" customHeight="1">
-      <c r="A57" s="55">
-        <v>2</v>
-      </c>
-      <c r="B57" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="169" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="171"/>
-    </row>
-    <row r="58" spans="1:10" s="52" customFormat="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="172"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="156"/>
-    </row>
-    <row r="59" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="164"/>
-    </row>
-    <row r="60" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="161"/>
-      <c r="D60" s="152" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="131"/>
-    </row>
-    <row r="61" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="157"/>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="159"/>
-    </row>
-    <row r="62" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="65"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="154"/>
-    </row>
-    <row r="63" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="154"/>
-    </row>
-    <row r="64" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="157"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="159"/>
-    </row>
-    <row r="65" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="65"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="154"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="71"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="65">
-        <v>1</v>
-      </c>
-      <c r="B67" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="155"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="131"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="65">
-        <v>2</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
-      <c r="J68" s="173"/>
+      <c r="B81" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="151"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="151"/>
+      <c r="G81" s="151"/>
+      <c r="H81" s="151"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="151"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="E57:J57"/>
+  <mergeCells count="79">
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
     <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="C38:J38"/>
@@ -9351,9 +9893,8 @@
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
     <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="C31:J33"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
@@ -9363,11 +9904,9 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C80:J80"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A12:J12"/>
@@ -9377,29 +9916,17 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9452,8 +9979,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="152" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -9479,7 +10006,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -9497,7 +10024,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -9541,18 +10068,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="217" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="219"/>
+      <c r="A6" s="198" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -9562,19 +10089,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -9583,10 +10110,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -9597,56 +10124,56 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="96"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="217" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="A10" s="198" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -9655,10 +10182,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -9669,26 +10196,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -9697,26 +10224,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -9725,60 +10252,60 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="98" t="s">
-        <v>243</v>
+        <v>145</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="217" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="219"/>
+      <c r="A16" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="199"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -9787,10 +10314,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -9800,25 +10327,25 @@
       <c r="A18" s="45">
         <v>1</v>
       </c>
-      <c r="B18" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>170</v>
+      <c r="B18" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>147</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -9826,25 +10353,25 @@
       <c r="A19" s="45">
         <v>2</v>
       </c>
-      <c r="B19" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>172</v>
+      <c r="B19" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -9852,28 +10379,28 @@
       <c r="A20" s="45">
         <v>3</v>
       </c>
-      <c r="B20" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>175</v>
+      <c r="B20" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>152</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9881,27 +10408,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="98" t="s">
-        <v>243</v>
+        <v>148</v>
+      </c>
+      <c r="J21" s="82" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9941,10 +10468,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9973,8 +10500,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="152" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -9994,7 +10521,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10007,7 +10534,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10022,849 +10549,1201 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="183"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="121"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="191" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="A11" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="195" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+      <c r="A15" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="198" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="201" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
-    </row>
-    <row r="18" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
+        <v>69</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="181"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
-      <c r="B18" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="201" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+      <c r="B18" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="181"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="195" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+      <c r="A19" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="198" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="222" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+        <v>191</v>
+      </c>
+      <c r="C21" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+        <v>192</v>
+      </c>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="228"/>
-      <c r="B23" s="229"/>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="230"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="214"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="195"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="195" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+      <c r="A25" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="198" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
+        <v>62</v>
+      </c>
+      <c r="C26" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
       <c r="A27" s="45">
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="203"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1">
       <c r="A28" s="45">
         <v>2</v>
       </c>
-      <c r="B28" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+      <c r="B28" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="179" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="181"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="196"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="A29" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="198" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1">
       <c r="A31" s="55">
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="201" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="227"/>
+        <v>191</v>
+      </c>
+      <c r="C31" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
         <v>2</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="201" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="227"/>
-    </row>
-    <row r="33" spans="1:12" s="52" customFormat="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
-    </row>
-    <row r="34" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="192" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
+    </row>
+    <row r="33" spans="1:10" s="52" customFormat="1">
+      <c r="A33" s="157"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
+    </row>
+    <row r="34" spans="1:10" s="52" customFormat="1">
+      <c r="A34" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="216"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1">
+      <c r="A35" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
+    </row>
+    <row r="36" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="217" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="55">
+        <v>1</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="221" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="221" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="221" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="223"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="224"/>
+    </row>
+    <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="104"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="227"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="214" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="173" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
+    </row>
+    <row r="41" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="217" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="217" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="217" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="220"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="55">
+        <v>1</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="221" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="221" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="221" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="222" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="224"/>
+    </row>
+    <row r="43" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="157"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="212"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="212"/>
+      <c r="J43" s="213"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-    </row>
-    <row r="35" spans="1:12" s="73" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="172"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B45" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C45" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="215" t="s">
+      <c r="E45" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-    </row>
-    <row r="36" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A36" s="59">
+      <c r="F45" s="197"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="197"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="229">
         <v>1</v>
       </c>
-      <c r="B36" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="165" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-    </row>
-    <row r="37" spans="1:12" s="52" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="176" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="224"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="224"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="225"/>
-    </row>
-    <row r="38" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A38" s="118">
+      <c r="B46" s="229" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
+    </row>
+    <row r="47" spans="1:10" ht="49.5">
+      <c r="A47" s="230"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="205"/>
+      <c r="C48" s="205"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="206"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="242">
         <v>1</v>
       </c>
-      <c r="B38" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="191" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
-    </row>
-    <row r="39" spans="1:12" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A39" s="65">
+      <c r="B49" s="231" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="243" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="244"/>
+      <c r="J49" s="245"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="246"/>
+      <c r="B50" s="247"/>
+      <c r="C50" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="130" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="132"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="248">
         <v>2</v>
       </c>
-      <c r="B39" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="165" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-    </row>
-    <row r="40" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A40" s="65">
+      <c r="B51" s="249" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="234" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="99"/>
+      <c r="E51" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="132"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="250"/>
+      <c r="B52" s="251"/>
+      <c r="C52" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="252"/>
+      <c r="E52" s="253" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="254"/>
+      <c r="J52" s="255"/>
+    </row>
+    <row r="53" spans="1:10" ht="49.5">
+      <c r="A53" s="236"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="256" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="252" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="257" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="258"/>
+      <c r="G53" s="258"/>
+      <c r="H53" s="258"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="259"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="61">
         <v>3</v>
       </c>
-      <c r="B40" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="165" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-    </row>
-    <row r="41" spans="1:12" s="52" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
-    </row>
-    <row r="42" spans="1:12" s="54" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="176" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-    </row>
-    <row r="43" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A43" s="55">
+      <c r="B54" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="105"/>
+      <c r="E54" s="143" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="75"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="155"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="156"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="260">
         <v>1</v>
       </c>
-      <c r="B43" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="165" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-    </row>
-    <row r="44" spans="1:12" s="52" customFormat="1" ht="145.5" customHeight="1">
-      <c r="A44" s="63">
+      <c r="B57" s="261" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="105"/>
+      <c r="E57" s="243" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" s="262"/>
+      <c r="G57" s="262"/>
+      <c r="H57" s="262"/>
+      <c r="I57" s="262"/>
+      <c r="J57" s="263"/>
+    </row>
+    <row r="58" spans="1:10" ht="66">
+      <c r="A58" s="264"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="234" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="265" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="130" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="266"/>
+      <c r="G58" s="266"/>
+      <c r="H58" s="266"/>
+      <c r="I58" s="266"/>
+      <c r="J58" s="267"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="242">
         <v>2</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="171"/>
-    </row>
-    <row r="45" spans="1:12" s="52" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A45" s="65">
+      <c r="B59" s="231" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="234" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="99"/>
+      <c r="E59" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="250"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="99"/>
+      <c r="E60" s="147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="149"/>
+    </row>
+    <row r="61" spans="1:10" ht="49.5">
+      <c r="A61" s="236"/>
+      <c r="B61" s="235"/>
+      <c r="C61" s="234" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="149"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="268">
         <v>3</v>
       </c>
-      <c r="B45" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="152" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="131"/>
-    </row>
-    <row r="46" spans="1:12" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="162" t="s">
+      <c r="B62" s="231" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="256" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="269"/>
+      <c r="E62" s="270" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="271"/>
+      <c r="G62" s="271"/>
+      <c r="H62" s="271"/>
+      <c r="I62" s="271"/>
+      <c r="J62" s="272"/>
+    </row>
+    <row r="63" spans="1:10" ht="66">
+      <c r="A63" s="273"/>
+      <c r="B63" s="274"/>
+      <c r="C63" s="234" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="275" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="270" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="271"/>
+      <c r="G63" s="271"/>
+      <c r="H63" s="271"/>
+      <c r="I63" s="271"/>
+      <c r="J63" s="272"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="276"/>
+      <c r="B64" s="277"/>
+      <c r="C64" s="278"/>
+      <c r="D64" s="279"/>
+      <c r="E64" s="280"/>
+      <c r="F64" s="281"/>
+      <c r="G64" s="281"/>
+      <c r="H64" s="281"/>
+      <c r="I64" s="281"/>
+      <c r="J64" s="282"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="163"/>
-      <c r="J46" s="164"/>
-    </row>
-    <row r="47" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="65" t="s">
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="141"/>
+      <c r="J65" s="142"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="160" t="s">
+      <c r="B66" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="161"/>
-      <c r="D47" s="152" t="s">
+      <c r="C66" s="139"/>
+      <c r="D66" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="131"/>
-    </row>
-    <row r="48" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="157"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="220"/>
-      <c r="G48" s="220"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="221"/>
-    </row>
-    <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="131"/>
-    </row>
-    <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="65"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="131"/>
-    </row>
-    <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="157"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="220"/>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="220"/>
-      <c r="G51" s="220"/>
-      <c r="H51" s="220"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="221"/>
-    </row>
-    <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="65"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="131"/>
-    </row>
-    <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="68" t="s">
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="112"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="135"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
+      <c r="F67" s="201"/>
+      <c r="G67" s="201"/>
+      <c r="H67" s="201"/>
+      <c r="I67" s="201"/>
+      <c r="J67" s="202"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="61"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="112"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="61"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="112"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="135"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="201"/>
+      <c r="D70" s="201"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201"/>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="202"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="61"/>
+      <c r="B71" s="133"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="112"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="65">
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="67"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="61">
         <v>1</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B73" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="155"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="131"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="65">
+      <c r="C73" s="133"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="112"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="61">
         <v>2</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B74" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="173"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="50"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="50"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="50"/>
+      <c r="C74" s="151"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="50"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="50"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="80">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E45:J45"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="A65:J65"/>
     <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E45:J45"/>
     <mergeCell ref="C21:J22"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E35:J35"/>
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:J71"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A10:J10"/>
@@ -10899,10 +11778,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10932,8 +11811,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="174" t="s">
-        <v>45</v>
+      <c r="K1" s="152" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10959,7 +11838,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="175"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10977,7 +11856,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="175"/>
+      <c r="K3" s="153"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11021,18 +11900,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="219"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -11042,19 +11921,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -11063,10 +11942,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -11099,34 +11978,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="217" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="A10" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -11135,264 +12014,408 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="33">
-      <c r="A12" s="45">
+    <row r="12" spans="1:23">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>187</v>
+      <c r="B12" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="88"/>
+      <c r="I12" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="40">
+        <v>2</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="42" t="s">
+      <c r="B14" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="105" t="s">
+      <c r="D14" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="92" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" hidden="1" customHeight="1">
-      <c r="A14" s="107">
+      <c r="H14" s="88"/>
+      <c r="I14" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="40">
+        <v>4</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="88"/>
+      <c r="I15" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" spans="1:23" ht="33">
+      <c r="A16" s="40">
+        <v>5</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="84"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="199"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33" customHeight="1">
+      <c r="A21" s="40">
+        <v>1</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="96"/>
+    </row>
+    <row r="22" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A22" s="45">
+        <v>2</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="96"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="199"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="40">
+        <v>1</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="74"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="45">
+        <v>2</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="74"/>
+    </row>
+    <row r="28" spans="1:10" ht="33">
+      <c r="A28" s="45">
         <v>3</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:23" ht="49.5">
-      <c r="A15" s="106"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="217" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="219"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="40">
-        <v>1</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="122" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="124" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="123" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="105" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="45">
-        <v>2</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="122" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="105" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="235" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="33" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="236"/>
-    </row>
-    <row r="23" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="237"/>
+      <c r="B28" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="93"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="74" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
   </mergeCells>

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0203MA1!$A$1:$J$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0203MA1!$A$1:$J$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0203MM1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0203MA1!$A$1:$J$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0203MM1!$A$1:$J$14</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="303">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -792,14 +792,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DEPT_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPT_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -836,10 +828,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0203MA1_Tree</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色可查詢組織設定</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -861,6 +849,514 @@
   </si>
   <si>
     <t>varchar2(10)</t>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0203MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0203MA1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『確認』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
+  </si>
+  <si>
+    <t>單位代號</t>
+  </si>
+  <si>
+    <t>單位名稱</t>
+  </si>
+  <si>
+    <t>1.勾選上層單位則下層所有單位均全數選取。EX:勾選北一營業所，則下一層南港營業所及其所有子單位將一併被勾選。
+2.如將任一下層組織勾選取消，則上層組織同樣會自動取消勾選。</t>
+  </si>
+  <si>
+    <t>3.10 查詢「單位代號/單位名稱」開窗選取功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號-單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id + '-' + vw_org_unique.org_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtRID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtGROUP_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_role_profile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由APF0203MM1帶過來</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此欄位為跳窗選擇後帶回，或輸入單位代號時自動帶回</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.前畫面:APF0202MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能修改權限 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:數字
+最大長度限制:數字10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Attribute名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Base Class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIPermissionHelper</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUDA3G.APF.WEB.Utils</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ActionFilterAttribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OnActionExecuting()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI按鈕權限檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0202_Button</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogAction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _Load</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.QueryScopeController.RoleQuery()</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.RoleQuery()</t>
+  </si>
+  <si>
+    <t>[LogAction]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.記錄使用者執行功能Log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.GetRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.GetRole()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0203MM1_Grid，並回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於APF0203MM1_Grid中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0203MM1_Query畫面所有欄位
+1.txtINPUT_GROUP_ID=""
+  txtINPUT_NAME=""
+  rbtINPUT_SOURCE_TYPE =(value="2" checked)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[QueryScopeController.Setting()]</t>
+  </si>
+  <si>
+    <t>A.1 
+QueryScopeController.Setting()[HttpGet]</t>
+  </si>
+  <si>
+    <t>1.以導頁方式開啟APF0203MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0203MA_Grid 右半部(角色帳號區)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Form Attribute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫QueryScopeController.Setting()</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Setting()</t>
+  </si>
+  <si>
+    <t>apfModel</t>
+  </si>
+  <si>
+    <t>A. _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫ShowDialog() Javascrip
+查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
+呼叫 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 ShowDialog()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>btnID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>傳入buttonID，依buttonID跳出查詢視窗</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫QueryScopeController.GetQueryScope()
+</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.GetQueryScope()</t>
+  </si>
+  <si>
+    <t>txtINPUT_DEPT_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0203MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0203MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選清除重填按鈕，則清除所有欄位。
+1.txtINPUT_DEPT_ID=""</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 47") JavaScript
+2.呼叫 APFRoleRelationController.RoleQuery()
+如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+QueryScopeController.Setting()[HttpPost]</t>
+  </si>
+  <si>
+    <t>1.點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 14") JavaScript
+2.呼叫 QueryScopeController.Save()
+點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Save()</t>
+  </si>
+  <si>
+    <t>Rid, List&lt;string&gt; SelectDepid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫QueryScopeControllerr.Setting()
+</t>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Setting()[HttpPost]</t>
+  </si>
+  <si>
+    <t>apfModel,Depid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.載入APF0203MA1_Query畫面原始資料並執行APF0203MA1_Query的查詢條件
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0203MA1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『確認』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -879,49 +1375,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0203MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">預定角色，職稱角色，自訂角色，三者必需選其一。(控制項控制)
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">APF0203MA1_Query
+      <t xml:space="preserve">APF0203MA1_Grid
 </t>
     </r>
     <r>
@@ -931,448 +1386,37 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
+      <t>檢查時機：當 Checkbox 被點選時</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自訂角色</t>
-  </si>
-  <si>
-    <t>單位代號</t>
-  </si>
-  <si>
-    <t>單位名稱</t>
-  </si>
-  <si>
-    <t>1.勾選上層單位則下層所有單位均全數選取。EX:勾選北一營業所，則下一層南港營業所及其所有子單位將一併被勾選。
-2.如將任一下層組織勾選取消，則上層組織同樣會自動取消勾選。</t>
-  </si>
-  <si>
-    <t>3.10 查詢「單位代號/單位名稱」開窗選取功能</t>
+    <t>顯示用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0203MA1_Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0203MA1_Grid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>單位代號</t>
+    <t>ORG_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>txtINPUT_ORG_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_ORG_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號-單位名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORG_ID_NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id + '-' + vw_org_unique.org_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtRID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不顯示</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtNAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtGROUP_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_role_profile</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由APF0203MM1帶過來</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_DEPT_ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>此欄位為跳窗選擇後帶回，或輸入單位代號時自動帶回</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_name</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.前畫面:APF0202MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能修改權限 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:數字
-最大長度限制:數字10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Form Attribute</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0202_Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Attribute名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>namespace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Base Class</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UIPermissionHelper</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SUDA3G.APF.WEB.Utils</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ActionFilterAttribute</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OnActionExecuting()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UI按鈕權限檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button Attribute</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0202_Button</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LogAction</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>記錄使用者執行功能Log</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A. _Load</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.QueryScopeController.RoleQuery()</t>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.RoleQuery()</t>
-  </si>
-  <si>
-    <t>[LogAction]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.記錄使用者執行功能Log</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A._CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[APFRoleController.GetRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A.1
-APFRoleController.GetRole()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>apfModel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.開啟APF0203MM1_Grid，並回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於APF0203MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0203MM1_Query畫面所有欄位
-1.txtINPUT_GROUP_ID=""
-  txtINPUT_NAME=""
-  rbtINPUT_SOURCE_TYPE =(value="2" checked)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[QueryScopeController.Setting()]</t>
-  </si>
-  <si>
-    <t>A.1 
-QueryScopeController.Setting()[HttpGet]</t>
-  </si>
-  <si>
-    <t>1.以導頁方式開啟APF0203MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0203MA_Grid 右半部(角色帳號區)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Form Attribute</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫QueryScopeController.Setting()</t>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.Setting()</t>
-  </si>
-  <si>
-    <t>apfModel</t>
-  </si>
-  <si>
-    <t>A. _CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.呼叫ShowDialog() Javascrip
-查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
-呼叫 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A.1 ShowDialog()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>btnID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>傳入buttonID，依buttonID跳出查詢視窗</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.呼叫QueryScopeController.GetQueryScope()
-</t>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.GetQueryScope()</t>
-  </si>
-  <si>
-    <t>txtINPUT_DEPT_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0203MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0203MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>點選清除重填按鈕，則清除所有欄位。
-1.txtINPUT_DEPT_ID=""</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫WinConfirm( "APF_NO 47") JavaScript
-2.呼叫 APFRoleRelationController.RoleQuery()
-如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A.1
-QueryScopeController.Setting()[HttpPost]</t>
-  </si>
-  <si>
-    <t>1.點選回上一頁按鈕則以導頁方式開啟APF0203MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A _CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫WinConfirm( "APF_NO 14") JavaScript
-2.呼叫 QueryScopeController.Save()
-點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.Save()</t>
-  </si>
-  <si>
-    <t>Rid, List&lt;string&gt; SelectDepid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重新載入</t>
-  </si>
-  <si>
-    <t>A._CLICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.呼叫QueryScopeControllerr.Setting()
-</t>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.Setting()[HttpPost]</t>
-  </si>
-  <si>
-    <t>apfModel,Depid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.載入APF0203MA1_Query畫面原始資料並執行APF0203MA1_Query的查詢條件
-</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1928,7 +1972,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2217,6 +2261,118 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2229,6 +2385,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2238,6 +2415,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2250,21 +2436,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2274,20 +2445,71 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2298,10 +2520,163 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2327,420 +2702,135 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3773,7 +3863,7 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>58</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3819,13 +3909,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6644,25 +6734,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523051</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="圖片 9"/>
+        <xdr:cNvPr id="11" name="圖片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6675,8 +6765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="1057275"/>
-          <a:ext cx="4723576" cy="3562350"/>
+          <a:off x="0" y="1057275"/>
+          <a:ext cx="4791075" cy="3593306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6688,25 +6778,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:colOff>1216025</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>17489</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="圖片 12"/>
+        <xdr:cNvPr id="12" name="圖片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6719,8 +6809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="1057275"/>
-          <a:ext cx="4772025" cy="3598889"/>
+          <a:off x="4876800" y="1057275"/>
+          <a:ext cx="4787900" cy="3590925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7696,12 +7786,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
@@ -7733,18 +7823,18 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="145" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -7755,7 +7845,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="107"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
@@ -7765,11 +7855,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="146" t="s">
         <v>160</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="78" t="s">
@@ -7777,9 +7867,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="109"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="79" t="s">
@@ -7787,7 +7877,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="145" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -7798,7 +7888,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" hidden="1" customHeight="1">
-      <c r="A10" s="107"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="31" t="s">
         <v>55</v>
       </c>
@@ -8104,10 +8194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8122,15 +8212,15 @@
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="148" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="126"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="126"/>
+      <c r="M3" s="149"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8147,194 +8237,194 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="164"/>
     </row>
     <row r="6" spans="1:13" s="69" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="A6" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
     </row>
     <row r="7" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="154"/>
     </row>
     <row r="8" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="111" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="157"/>
     </row>
     <row r="9" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="119" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="154"/>
     </row>
     <row r="10" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="111" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="129" t="s">
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="129" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="111" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="1:13" s="71" customFormat="1" ht="16.5">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:13" s="71" customFormat="1" ht="14.25"/>
     <row r="17" s="71" customFormat="1" ht="14.25"/>
@@ -8363,24 +8453,33 @@
     <row r="40" s="71" customFormat="1" ht="14.25"/>
     <row r="41" s="71" customFormat="1" ht="14.25"/>
     <row r="42" s="71" customFormat="1" ht="14.25"/>
-    <row r="59" spans="1:12" ht="16.5">
-      <c r="A59" s="110" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="112"/>
+    <row r="71" spans="1:12" ht="16.5">
+      <c r="A71" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -8393,15 +8492,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8428,7 +8518,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -8447,13 +8537,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>71</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -8472,22 +8562,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="125" t="s">
-        <v>182</v>
+      <c r="P1" s="148" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="126"/>
+      <c r="P2" s="149"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="126"/>
+      <c r="P3" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8537,7 +8627,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -8568,7 +8658,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="229" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="50"/>
@@ -8589,7 +8679,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="153"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8602,7 +8692,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="153"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8617,152 +8707,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="235"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="A7" s="236"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="234" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="234" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="226"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -8771,16 +8861,16 @@
       <c r="B16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -8789,16 +8879,16 @@
       <c r="B17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="181"/>
+      <c r="C17" s="227" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="215"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -8807,16 +8897,16 @@
       <c r="B18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="179" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="181"/>
+      <c r="C18" s="227" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="215"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -8825,42 +8915,42 @@
       <c r="B19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="179" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="181"/>
+      <c r="C19" s="227" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="215"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="134"/>
+      <c r="A20" s="204"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="226"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -8869,16 +8959,16 @@
       <c r="B22" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="212"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -8887,16 +8977,16 @@
       <c r="B23" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="215"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -8905,16 +8995,16 @@
       <c r="B24" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="184" t="s">
+      <c r="C24" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="181"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="215"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -8923,16 +9013,16 @@
       <c r="B25" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="181"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="215"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -8941,56 +9031,56 @@
       <c r="B26" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="184" t="s">
+      <c r="C26" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="181"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="215"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="233"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="226"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -8999,16 +9089,16 @@
       <c r="B30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="212"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="55">
@@ -9017,16 +9107,16 @@
       <c r="B31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="185" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="187"/>
+      <c r="C31" s="216" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -9035,14 +9125,14 @@
       <c r="B32" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="190"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="221"/>
     </row>
     <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -9051,40 +9141,40 @@
       <c r="B33" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="224"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="133"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="134"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -9093,16 +9183,16 @@
       <c r="B36" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="210" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="212"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -9111,16 +9201,16 @@
       <c r="B37" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="184" t="s">
+      <c r="C37" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="215"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -9129,16 +9219,16 @@
       <c r="B38" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="184" t="s">
+      <c r="C38" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="181"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -9147,16 +9237,16 @@
       <c r="B39" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="184" t="s">
+      <c r="C39" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="181"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="215"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -9165,214 +9255,214 @@
       <c r="B40" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="184" t="s">
+      <c r="C40" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="181"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="215"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="239"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="241"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1">
-      <c r="A42" s="214" t="s">
-        <v>270</v>
-      </c>
-      <c r="B42" s="215"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="216"/>
+      <c r="A42" s="180" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="43" spans="1:10" s="52" customFormat="1">
-      <c r="A43" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="183"/>
+      <c r="A43" s="168" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1">
       <c r="A44" s="55"/>
       <c r="B44" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="217" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="217" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="F44" s="218" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="220"/>
+        <v>237</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
     </row>
     <row r="45" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="55">
         <v>1</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="221" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="221" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" s="223"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="224"/>
+        <v>242</v>
+      </c>
+      <c r="C45" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="176"/>
     </row>
     <row r="46" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="104"/>
-      <c r="B46" s="225"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="226"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="226"/>
-      <c r="I46" s="226"/>
-      <c r="J46" s="227"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="179"/>
     </row>
     <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="214" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="216"/>
+      <c r="A47" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="173" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="183"/>
+      <c r="A48" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="170"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="55"/>
       <c r="B49" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="217" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49" s="217" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="218" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
-      <c r="I49" s="219"/>
-      <c r="J49" s="220"/>
+        <v>237</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="55">
         <v>1</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="221" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="221" t="s">
+      <c r="C50" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" s="174" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="222" t="s">
-        <v>255</v>
-      </c>
-      <c r="G50" s="223"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="224"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="176"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="134"/>
+      <c r="A51" s="204"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="194"/>
-      <c r="C52" s="194"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="194"/>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="195"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="207"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1">
       <c r="A53" s="56" t="s">
@@ -9381,82 +9471,82 @@
       <c r="B53" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="228" t="s">
+      <c r="C53" s="108" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="196" t="s">
+      <c r="E53" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="197"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="197"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="209"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="209"/>
+      <c r="J53" s="209"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A54" s="229">
+      <c r="A54" s="186">
         <v>1</v>
       </c>
-      <c r="B54" s="229" t="s">
+      <c r="B54" s="186" t="s">
         <v>157</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D54" s="61"/>
-      <c r="E54" s="130" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="132"/>
+      <c r="E54" s="190" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="192"/>
     </row>
     <row r="55" spans="1:10" ht="49.5">
-      <c r="A55" s="230"/>
-      <c r="B55" s="230"/>
+      <c r="A55" s="203"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="105" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D55" s="61"/>
-      <c r="E55" s="130" t="s">
+      <c r="E55" s="190" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="191"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="191"/>
+      <c r="J55" s="192"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="59"/>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="134"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="155"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="156"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
+      <c r="J57" s="201"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="55">
@@ -9469,68 +9559,68 @@
         <v>47</v>
       </c>
       <c r="D58" s="105"/>
-      <c r="E58" s="143" t="s">
+      <c r="E58" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="162"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="60">
         <v>1</v>
       </c>
-      <c r="B59" s="231" t="s">
+      <c r="B59" s="188" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="232"/>
-      <c r="E59" s="147" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="148"/>
-      <c r="G59" s="148"/>
-      <c r="H59" s="148"/>
-      <c r="I59" s="148"/>
-      <c r="J59" s="149"/>
+        <v>254</v>
+      </c>
+      <c r="D59" s="109"/>
+      <c r="E59" s="183" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="184"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="184"/>
+      <c r="J59" s="185"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="60"/>
-      <c r="B60" s="233"/>
-      <c r="C60" s="234" t="s">
-        <v>261</v>
-      </c>
-      <c r="D60" s="232"/>
-      <c r="E60" s="147" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="149"/>
+      <c r="B60" s="202"/>
+      <c r="C60" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="109"/>
+      <c r="E60" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="185"/>
     </row>
     <row r="61" spans="1:10" ht="49.5">
       <c r="A61" s="60"/>
-      <c r="B61" s="235"/>
-      <c r="C61" s="234" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="232" t="s">
-        <v>264</v>
-      </c>
-      <c r="E61" s="147" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="149"/>
+      <c r="B61" s="189"/>
+      <c r="C61" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" s="184"/>
+      <c r="G61" s="184"/>
+      <c r="H61" s="184"/>
+      <c r="I61" s="184"/>
+      <c r="J61" s="185"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="61">
@@ -9543,40 +9633,40 @@
         <v>47</v>
       </c>
       <c r="D62" s="102"/>
-      <c r="E62" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="132"/>
+      <c r="E62" s="190" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="191"/>
+      <c r="G62" s="191"/>
+      <c r="H62" s="191"/>
+      <c r="I62" s="191"/>
+      <c r="J62" s="192"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="62"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="134"/>
+      <c r="B63" s="193"/>
+      <c r="C63" s="193"/>
+      <c r="D63" s="193"/>
+      <c r="E63" s="193"/>
+      <c r="F63" s="193"/>
+      <c r="G63" s="193"/>
+      <c r="H63" s="193"/>
+      <c r="I63" s="193"/>
+      <c r="J63" s="194"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="144" t="s">
+      <c r="A64" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="146"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="196"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="196"/>
+      <c r="F64" s="196"/>
+      <c r="G64" s="196"/>
+      <c r="H64" s="196"/>
+      <c r="I64" s="196"/>
+      <c r="J64" s="197"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="55">
@@ -9589,14 +9679,14 @@
         <v>47</v>
       </c>
       <c r="D65" s="105"/>
-      <c r="E65" s="143" t="s">
+      <c r="E65" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
+      <c r="F65" s="162"/>
+      <c r="G65" s="162"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="162"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="55">
@@ -9609,14 +9699,14 @@
         <v>47</v>
       </c>
       <c r="D66" s="99"/>
-      <c r="E66" s="147" t="s">
+      <c r="E66" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="149"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="184"/>
+      <c r="H66" s="184"/>
+      <c r="I66" s="184"/>
+      <c r="J66" s="185"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="55">
@@ -9629,14 +9719,14 @@
         <v>47</v>
       </c>
       <c r="D67" s="99"/>
-      <c r="E67" s="147" t="s">
+      <c r="E67" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="149"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="184"/>
+      <c r="H67" s="184"/>
+      <c r="I67" s="184"/>
+      <c r="J67" s="185"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="55">
@@ -9649,156 +9739,156 @@
         <v>47</v>
       </c>
       <c r="D68" s="99"/>
-      <c r="E68" s="147" t="s">
+      <c r="E68" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="149"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="184"/>
+      <c r="I68" s="184"/>
+      <c r="J68" s="185"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="229">
+      <c r="A69" s="186">
         <v>1</v>
       </c>
-      <c r="B69" s="231" t="s">
+      <c r="B69" s="188" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D69" s="102"/>
-      <c r="E69" s="130" t="s">
-        <v>267</v>
-      </c>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="132"/>
+      <c r="E69" s="190" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="191"/>
+      <c r="G69" s="191"/>
+      <c r="H69" s="191"/>
+      <c r="I69" s="191"/>
+      <c r="J69" s="192"/>
     </row>
     <row r="70" spans="1:10" ht="66">
-      <c r="A70" s="236"/>
-      <c r="B70" s="235"/>
-      <c r="C70" s="237" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="238" t="s">
+      <c r="A70" s="187"/>
+      <c r="B70" s="189"/>
+      <c r="C70" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" s="190" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="130" t="s">
-        <v>269</v>
-      </c>
-      <c r="F70" s="131"/>
-      <c r="G70" s="131"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="132"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="191"/>
+      <c r="H70" s="191"/>
+      <c r="I70" s="191"/>
+      <c r="J70" s="192"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="63"/>
-      <c r="B71" s="239"/>
-      <c r="C71" s="240"/>
-      <c r="D71" s="240"/>
-      <c r="E71" s="240"/>
-      <c r="F71" s="240"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="240"/>
-      <c r="I71" s="240"/>
-      <c r="J71" s="241"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="115"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="140" t="s">
+      <c r="A72" s="251" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="141"/>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="142"/>
+      <c r="B72" s="252"/>
+      <c r="C72" s="252"/>
+      <c r="D72" s="252"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="252"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="252"/>
+      <c r="I72" s="252"/>
+      <c r="J72" s="253"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="138" t="s">
+      <c r="B73" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="139"/>
-      <c r="D73" s="130" t="s">
+      <c r="C73" s="250"/>
+      <c r="D73" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="112"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="156"/>
+      <c r="H73" s="156"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="157"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="135"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="136"/>
-      <c r="H74" s="136"/>
-      <c r="I74" s="136"/>
-      <c r="J74" s="137"/>
+      <c r="A74" s="246"/>
+      <c r="B74" s="247"/>
+      <c r="C74" s="247"/>
+      <c r="D74" s="247"/>
+      <c r="E74" s="247"/>
+      <c r="F74" s="247"/>
+      <c r="G74" s="247"/>
+      <c r="H74" s="247"/>
+      <c r="I74" s="247"/>
+      <c r="J74" s="248"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="61"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="132"/>
+      <c r="B75" s="204"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="190"/>
+      <c r="E75" s="191"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="191"/>
+      <c r="I75" s="191"/>
+      <c r="J75" s="192"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="61"/>
-      <c r="B76" s="133"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="131"/>
-      <c r="G76" s="131"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="132"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="194"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="191"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="191"/>
+      <c r="H76" s="191"/>
+      <c r="I76" s="191"/>
+      <c r="J76" s="192"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="135"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="136"/>
-      <c r="J77" s="137"/>
+      <c r="A77" s="246"/>
+      <c r="B77" s="247"/>
+      <c r="C77" s="247"/>
+      <c r="D77" s="247"/>
+      <c r="E77" s="247"/>
+      <c r="F77" s="247"/>
+      <c r="G77" s="247"/>
+      <c r="H77" s="247"/>
+      <c r="I77" s="247"/>
+      <c r="J77" s="248"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="61"/>
-      <c r="B78" s="133"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="131"/>
-      <c r="G78" s="131"/>
-      <c r="H78" s="131"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="132"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="191"/>
+      <c r="F78" s="191"/>
+      <c r="G78" s="191"/>
+      <c r="H78" s="191"/>
+      <c r="I78" s="191"/>
+      <c r="J78" s="192"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="64" t="s">
@@ -9821,14 +9911,14 @@
       <c r="B80" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="133"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="111"/>
-      <c r="G80" s="111"/>
-      <c r="H80" s="111"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="112"/>
+      <c r="C80" s="204"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="156"/>
+      <c r="I80" s="156"/>
+      <c r="J80" s="157"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="61">
@@ -9837,73 +9927,24 @@
       <c r="B81" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="151"/>
-      <c r="D81" s="151"/>
-      <c r="E81" s="151"/>
-      <c r="F81" s="151"/>
-      <c r="G81" s="151"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="151"/>
-      <c r="J81" s="151"/>
+      <c r="C81" s="228"/>
+      <c r="D81" s="228"/>
+      <c r="E81" s="228"/>
+      <c r="F81" s="228"/>
+      <c r="G81" s="228"/>
+      <c r="H81" s="228"/>
+      <c r="I81" s="228"/>
+      <c r="J81" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J33"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="C81:J81"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="K1:K3"/>
@@ -9920,13 +9961,62 @@
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="A47:J47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -9979,7 +10069,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="229" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="36"/>
@@ -10006,7 +10096,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="153"/>
+      <c r="K2" s="230"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10024,7 +10114,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="153"/>
+      <c r="K3" s="230"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10068,18 +10158,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="256"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -10146,18 +10236,18 @@
       <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="256"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10274,22 +10364,22 @@
         <v>145</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="255"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="255"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="256"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
@@ -10428,7 +10518,7 @@
         <v>148</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10468,10 +10558,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:C68"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10500,7 +10590,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="229" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="50"/>
@@ -10521,7 +10611,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="153"/>
+      <c r="K2" s="230"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10534,7 +10624,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="153"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10549,152 +10639,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="121"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="235"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="A7" s="236"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="169" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="243" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="173" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
+      <c r="A15" s="168" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="226"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -10703,16 +10793,16 @@
       <c r="B16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -10721,48 +10811,48 @@
       <c r="B17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="181"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="215"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="179" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="181"/>
+        <v>187</v>
+      </c>
+      <c r="C18" s="227" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="215"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="A19" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="226"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -10771,994 +10861,1162 @@
       <c r="B20" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="210" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="178"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="212"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="203" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
+        <v>187</v>
+      </c>
+      <c r="C21" s="293" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="271"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="271"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
+        <v>188</v>
+      </c>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="271"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="209"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="211"/>
-    </row>
-    <row r="24" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="170" t="s">
+      <c r="A23" s="294"/>
+      <c r="B23" s="295"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="295"/>
+      <c r="E23" s="295"/>
+      <c r="F23" s="295"/>
+      <c r="G23" s="295"/>
+      <c r="H23" s="295"/>
+      <c r="I23" s="295"/>
+      <c r="J23" s="296"/>
+    </row>
+    <row r="24" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A24" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="226"/>
+    </row>
+    <row r="25" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="210" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="212"/>
+    </row>
+    <row r="26" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="131">
+        <v>1</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="257"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="258"/>
+    </row>
+    <row r="27" spans="1:10" s="52" customFormat="1">
+      <c r="A27" s="131">
+        <v>2</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="257"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="258"/>
+    </row>
+    <row r="28" spans="1:10" s="52" customFormat="1">
+      <c r="A28" s="130"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+    </row>
+    <row r="29" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="195"/>
-    </row>
-    <row r="25" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A25" s="173" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
-    </row>
-    <row r="26" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
+    </row>
+    <row r="30" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A30" s="168" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="226"/>
+    </row>
+    <row r="31" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C31" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="45">
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="212"/>
+    </row>
+    <row r="32" spans="1:10" s="52" customFormat="1">
+      <c r="A32" s="45">
         <v>1</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="179" t="s">
+      <c r="C32" s="227" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1">
-      <c r="A28" s="45">
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="215"/>
+    </row>
+    <row r="33" spans="1:10" s="52" customFormat="1">
+      <c r="A33" s="45">
         <v>2</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="179" t="s">
+      <c r="B33" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="227" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="215"/>
+    </row>
+    <row r="34" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A34" s="168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="226"/>
+    </row>
+    <row r="35" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A35" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="210" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="212"/>
+    </row>
+    <row r="36" spans="1:10" s="52" customFormat="1">
+      <c r="A36" s="55">
+        <v>1</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="227" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="257"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="257"/>
+      <c r="G36" s="257"/>
+      <c r="H36" s="257"/>
+      <c r="I36" s="257"/>
+      <c r="J36" s="258"/>
+    </row>
+    <row r="37" spans="1:10" s="52" customFormat="1">
+      <c r="A37" s="55">
+        <v>2</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="227" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="257"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="257"/>
+      <c r="I37" s="257"/>
+      <c r="J37" s="258"/>
+    </row>
+    <row r="38" spans="1:10" s="52" customFormat="1">
+      <c r="A38" s="231"/>
+      <c r="B38" s="291"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="291"/>
+      <c r="G38" s="291"/>
+      <c r="H38" s="291"/>
+      <c r="I38" s="291"/>
+      <c r="J38" s="292"/>
+    </row>
+    <row r="39" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A39" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="225"/>
+      <c r="H39" s="225"/>
+      <c r="I39" s="225"/>
+      <c r="J39" s="226"/>
+    </row>
+    <row r="40" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="210" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="212"/>
+    </row>
+    <row r="41" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="131">
+        <v>1</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="257"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="258"/>
+    </row>
+    <row r="42" spans="1:10" s="52" customFormat="1">
+      <c r="A42" s="131">
+        <v>2</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="257"/>
+      <c r="E42" s="257"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
+      <c r="H42" s="257"/>
+      <c r="I42" s="257"/>
+      <c r="J42" s="258"/>
+    </row>
+    <row r="43" spans="1:10" s="52" customFormat="1">
+      <c r="A43" s="130"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="135"/>
+    </row>
+    <row r="44" spans="1:10" s="52" customFormat="1">
+      <c r="A44" s="180" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="181"/>
+      <c r="J44" s="182"/>
+    </row>
+    <row r="45" spans="1:10" s="52" customFormat="1">
+      <c r="A45" s="168" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="170"/>
+    </row>
+    <row r="46" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
-    </row>
-    <row r="29" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A29" s="173" t="s">
+      <c r="C46" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="173"/>
+    </row>
+    <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="55">
+        <v>1</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="174" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="176"/>
+    </row>
+    <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="104"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
+    </row>
+    <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
+    </row>
+    <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="170"/>
+    </row>
+    <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" s="172"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="173"/>
+    </row>
+    <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="55">
+        <v>1</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" s="174" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="176"/>
+    </row>
+    <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A53" s="231"/>
+      <c r="B53" s="291"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="291"/>
+      <c r="E53" s="291"/>
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="291"/>
+      <c r="I53" s="291"/>
+      <c r="J53" s="292"/>
+    </row>
+    <row r="54" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="205" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="244"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="244"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="244"/>
+      <c r="G54" s="244"/>
+      <c r="H54" s="244"/>
+      <c r="I54" s="244"/>
+      <c r="J54" s="245"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="209"/>
+      <c r="G55" s="209"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="209"/>
+      <c r="J55" s="209"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="186">
+        <v>1</v>
+      </c>
+      <c r="B56" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="190" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="192"/>
+    </row>
+    <row r="57" spans="1:10" ht="49.5">
+      <c r="A57" s="203"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
-    </row>
-    <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="55" t="s">
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="199" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="285"/>
+      <c r="C58" s="285"/>
+      <c r="D58" s="285"/>
+      <c r="E58" s="285"/>
+      <c r="F58" s="285"/>
+      <c r="G58" s="285"/>
+      <c r="H58" s="285"/>
+      <c r="I58" s="285"/>
+      <c r="J58" s="286"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="265">
+        <v>1</v>
+      </c>
+      <c r="B59" s="188" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="99"/>
+      <c r="E59" s="272" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="289"/>
+      <c r="G59" s="289"/>
+      <c r="H59" s="289"/>
+      <c r="I59" s="289"/>
+      <c r="J59" s="290"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="287"/>
+      <c r="B60" s="288"/>
+      <c r="C60" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" s="190" t="s">
+        <v>273</v>
+      </c>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+      <c r="J60" s="192"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="277">
+        <v>2</v>
+      </c>
+      <c r="B61" s="278" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="99"/>
+      <c r="E61" s="190" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="191"/>
+      <c r="G61" s="191"/>
+      <c r="H61" s="191"/>
+      <c r="I61" s="191"/>
+      <c r="J61" s="192"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="266"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="116"/>
+      <c r="E62" s="279" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="280"/>
+      <c r="G62" s="280"/>
+      <c r="H62" s="280"/>
+      <c r="I62" s="280"/>
+      <c r="J62" s="281"/>
+    </row>
+    <row r="63" spans="1:10" ht="49.5">
+      <c r="A63" s="187"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="282" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="283"/>
+      <c r="G63" s="283"/>
+      <c r="H63" s="283"/>
+      <c r="I63" s="283"/>
+      <c r="J63" s="284"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="61">
+        <v>3</v>
+      </c>
+      <c r="B64" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="105"/>
+      <c r="E64" s="198" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" s="162"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="162"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="75"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="98"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="199" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="200"/>
+      <c r="C66" s="200"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="201"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="268">
+        <v>1</v>
+      </c>
+      <c r="B67" s="270" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="105"/>
+      <c r="E67" s="272" t="s">
+        <v>279</v>
+      </c>
+      <c r="F67" s="273"/>
+      <c r="G67" s="273"/>
+      <c r="H67" s="273"/>
+      <c r="I67" s="273"/>
+      <c r="J67" s="274"/>
+    </row>
+    <row r="68" spans="1:10" ht="66">
+      <c r="A68" s="269"/>
+      <c r="B68" s="271"/>
+      <c r="C68" s="110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="190" t="s">
+        <v>281</v>
+      </c>
+      <c r="F68" s="275"/>
+      <c r="G68" s="275"/>
+      <c r="H68" s="275"/>
+      <c r="I68" s="275"/>
+      <c r="J68" s="276"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="265">
+        <v>2</v>
+      </c>
+      <c r="B69" s="188" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="99"/>
+      <c r="E69" s="190" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="191"/>
+      <c r="G69" s="191"/>
+      <c r="H69" s="191"/>
+      <c r="I69" s="191"/>
+      <c r="J69" s="192"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="266"/>
+      <c r="B70" s="267"/>
+      <c r="C70" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="99"/>
+      <c r="E70" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="184"/>
+      <c r="G70" s="184"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
+      <c r="J70" s="185"/>
+    </row>
+    <row r="71" spans="1:10" ht="49.5">
+      <c r="A71" s="187"/>
+      <c r="B71" s="189"/>
+      <c r="C71" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="183" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" s="184"/>
+      <c r="G71" s="184"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="184"/>
+      <c r="J71" s="185"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="259">
+        <v>3</v>
+      </c>
+      <c r="B72" s="188" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="119"/>
+      <c r="E72" s="262" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="263"/>
+      <c r="G72" s="263"/>
+      <c r="H72" s="263"/>
+      <c r="I72" s="263"/>
+      <c r="J72" s="264"/>
+    </row>
+    <row r="73" spans="1:10" ht="66">
+      <c r="A73" s="260"/>
+      <c r="B73" s="261"/>
+      <c r="C73" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="120" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="262" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="263"/>
+      <c r="G73" s="263"/>
+      <c r="H73" s="263"/>
+      <c r="I73" s="263"/>
+      <c r="J73" s="264"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="121"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="127"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="252"/>
+      <c r="C75" s="252"/>
+      <c r="D75" s="252"/>
+      <c r="E75" s="252"/>
+      <c r="F75" s="252"/>
+      <c r="G75" s="252"/>
+      <c r="H75" s="252"/>
+      <c r="I75" s="252"/>
+      <c r="J75" s="253"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
-    </row>
-    <row r="31" spans="1:10" s="52" customFormat="1">
-      <c r="A31" s="55">
+      <c r="B76" s="249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="250"/>
+      <c r="D76" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="156"/>
+      <c r="I76" s="156"/>
+      <c r="J76" s="157"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="246"/>
+      <c r="B77" s="297"/>
+      <c r="C77" s="297"/>
+      <c r="D77" s="297"/>
+      <c r="E77" s="297"/>
+      <c r="F77" s="297"/>
+      <c r="G77" s="297"/>
+      <c r="H77" s="297"/>
+      <c r="I77" s="297"/>
+      <c r="J77" s="298"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="61"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="194"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="157"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="61"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="194"/>
+      <c r="D79" s="190"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="157"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="246"/>
+      <c r="B80" s="297"/>
+      <c r="C80" s="297"/>
+      <c r="D80" s="297"/>
+      <c r="E80" s="297"/>
+      <c r="F80" s="297"/>
+      <c r="G80" s="297"/>
+      <c r="H80" s="297"/>
+      <c r="I80" s="297"/>
+      <c r="J80" s="298"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="61"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="194"/>
+      <c r="D81" s="190"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
+      <c r="G81" s="156"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="157"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="67"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="61">
         <v>1</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="179" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
-    </row>
-    <row r="32" spans="1:10" s="52" customFormat="1">
-      <c r="A32" s="55">
+      <c r="B83" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="204"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="156"/>
+      <c r="H83" s="156"/>
+      <c r="I83" s="156"/>
+      <c r="J83" s="157"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="61">
         <v>2</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="179" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
-    </row>
-    <row r="33" spans="1:10" s="52" customFormat="1">
-      <c r="A33" s="157"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="213"/>
-    </row>
-    <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="214" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="216"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="173" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
-    </row>
-    <row r="36" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="217" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="217" t="s">
-        <v>244</v>
-      </c>
-      <c r="E36" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="218" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="55">
-        <v>1</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="221" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="221" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="222" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="224"/>
-    </row>
-    <row r="38" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="225"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="226"/>
-      <c r="G38" s="226"/>
-      <c r="H38" s="226"/>
-      <c r="I38" s="226"/>
-      <c r="J38" s="227"/>
-    </row>
-    <row r="39" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="214" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="215"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="173" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
-    </row>
-    <row r="41" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="217" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="217" t="s">
-        <v>244</v>
-      </c>
-      <c r="E41" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="218" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="220"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="55">
-        <v>1</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" s="221" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="221" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="221" t="s">
-        <v>250</v>
-      </c>
-      <c r="F42" s="222" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" s="223"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="224"/>
-    </row>
-    <row r="43" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
-      <c r="D43" s="212"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="212"/>
-      <c r="G43" s="212"/>
-      <c r="H43" s="212"/>
-      <c r="I43" s="212"/>
-      <c r="J43" s="213"/>
-    </row>
-    <row r="44" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="170" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="172"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="197"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="229">
-        <v>1</v>
-      </c>
-      <c r="B46" s="229" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="130" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="132"/>
-    </row>
-    <row r="47" spans="1:10" ht="49.5">
-      <c r="A47" s="230"/>
-      <c r="B47" s="230"/>
-      <c r="C47" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="154" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="205"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="206"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="242">
-        <v>1</v>
-      </c>
-      <c r="B49" s="231" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="243" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="244"/>
-      <c r="J49" s="245"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="246"/>
-      <c r="B50" s="247"/>
-      <c r="C50" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="132"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="248">
-        <v>2</v>
-      </c>
-      <c r="B51" s="249" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="234" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="132"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="250"/>
-      <c r="B52" s="251"/>
-      <c r="C52" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" s="252"/>
-      <c r="E52" s="253" t="s">
-        <v>279</v>
-      </c>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="254"/>
-      <c r="J52" s="255"/>
-    </row>
-    <row r="53" spans="1:10" ht="49.5">
-      <c r="A53" s="236"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="256" t="s">
-        <v>280</v>
-      </c>
-      <c r="D53" s="252" t="s">
-        <v>281</v>
-      </c>
-      <c r="E53" s="257" t="s">
-        <v>282</v>
-      </c>
-      <c r="F53" s="258"/>
-      <c r="G53" s="258"/>
-      <c r="H53" s="258"/>
-      <c r="I53" s="258"/>
-      <c r="J53" s="259"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="61">
+      <c r="B84" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="143" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="75"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="98"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="154" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="156"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="260">
-        <v>1</v>
-      </c>
-      <c r="B57" s="261" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="243" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-    </row>
-    <row r="58" spans="1:10" ht="66">
-      <c r="A58" s="264"/>
-      <c r="B58" s="204"/>
-      <c r="C58" s="234" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58" s="265" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" s="130" t="s">
-        <v>286</v>
-      </c>
-      <c r="F58" s="266"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="266"/>
-      <c r="J58" s="267"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="242">
-        <v>2</v>
-      </c>
-      <c r="B59" s="231" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="234" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="250"/>
-      <c r="B60" s="251"/>
-      <c r="C60" s="101" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="147" t="s">
-        <v>288</v>
-      </c>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="149"/>
-    </row>
-    <row r="61" spans="1:10" ht="49.5">
-      <c r="A61" s="236"/>
-      <c r="B61" s="235"/>
-      <c r="C61" s="234" t="s">
-        <v>289</v>
-      </c>
-      <c r="D61" s="99" t="s">
-        <v>290</v>
-      </c>
-      <c r="E61" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="149"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="268">
-        <v>3</v>
-      </c>
-      <c r="B62" s="231" t="s">
-        <v>292</v>
-      </c>
-      <c r="C62" s="256" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" s="269"/>
-      <c r="E62" s="270" t="s">
-        <v>294</v>
-      </c>
-      <c r="F62" s="271"/>
-      <c r="G62" s="271"/>
-      <c r="H62" s="271"/>
-      <c r="I62" s="271"/>
-      <c r="J62" s="272"/>
-    </row>
-    <row r="63" spans="1:10" ht="66">
-      <c r="A63" s="273"/>
-      <c r="B63" s="274"/>
-      <c r="C63" s="234" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" s="275" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="270" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="271"/>
-      <c r="G63" s="271"/>
-      <c r="H63" s="271"/>
-      <c r="I63" s="271"/>
-      <c r="J63" s="272"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="276"/>
-      <c r="B64" s="277"/>
-      <c r="C64" s="278"/>
-      <c r="D64" s="279"/>
-      <c r="E64" s="280"/>
-      <c r="F64" s="281"/>
-      <c r="G64" s="281"/>
-      <c r="H64" s="281"/>
-      <c r="I64" s="281"/>
-      <c r="J64" s="282"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="141"/>
-      <c r="J65" s="142"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="112"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="135"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
-      <c r="F67" s="201"/>
-      <c r="G67" s="201"/>
-      <c r="H67" s="201"/>
-      <c r="I67" s="201"/>
-      <c r="J67" s="202"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="61"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="134"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="112"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="61"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="112"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="135"/>
-      <c r="B70" s="201"/>
-      <c r="C70" s="201"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="202"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="61"/>
-      <c r="B71" s="133"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="112"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="67"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="61">
-        <v>1</v>
-      </c>
-      <c r="B73" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="133"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="112"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="61">
-        <v>2</v>
-      </c>
-      <c r="B74" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="151"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="151"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="50"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="50"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="50"/>
+      <c r="C84" s="228"/>
+      <c r="D84" s="228"/>
+      <c r="E84" s="228"/>
+      <c r="F84" s="228"/>
+      <c r="G84" s="228"/>
+      <c r="H84" s="228"/>
+      <c r="I84" s="228"/>
+      <c r="J84" s="228"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="50"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="50"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
+  <mergeCells count="88">
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:J81"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="C21:J22"/>
-    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C37:J37"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C35:J35"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11778,10 +12036,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11811,7 +12069,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="152" t="s">
+      <c r="K1" s="229" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="36"/>
@@ -11838,7 +12096,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="153"/>
+      <c r="K2" s="230"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -11856,7 +12114,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="153"/>
+      <c r="K3" s="230"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -11900,18 +12158,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="256"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -11978,18 +12236,18 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="254" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="256"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -12028,29 +12286,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>210</v>
-      </c>
       <c r="G12" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H12" s="88"/>
       <c r="I12" s="40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -12058,29 +12316,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="G13" s="92" t="s">
         <v>216</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>220</v>
       </c>
       <c r="H13" s="88"/>
       <c r="I13" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -12091,7 +12349,7 @@
         <v>135</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>137</v>
@@ -12103,14 +12361,14 @@
         <v>139</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H14" s="88"/>
       <c r="I14" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -12118,26 +12376,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G15" s="92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H15" s="88"/>
       <c r="I15" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J15" s="74"/>
     </row>
@@ -12146,29 +12404,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E16" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="92" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="92" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12184,18 +12442,18 @@
       <c r="J17" s="74"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="255"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="256"/>
     </row>
     <row r="20" spans="1:10" ht="29.25" customHeight="1">
       <c r="A20" s="39" t="s">
@@ -12234,26 +12492,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F21" s="94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J21" s="96"/>
     </row>
@@ -12262,44 +12520,44 @@
         <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>164</v>
+        <v>228</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>300</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E22" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="92" t="s">
         <v>197</v>
-      </c>
-      <c r="F22" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>201</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J22" s="96"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="198" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="A24" s="254" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="256"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.25" customHeight="1">
       <c r="A25" s="39" t="s">
         <v>64</v>
       </c>
@@ -12331,93 +12589,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="33" customHeight="1">
       <c r="A26" s="40">
         <v>1</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>196</v>
+      <c r="B26" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>299</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="91" t="s">
         <v>176</v>
       </c>
+      <c r="E26" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="G26" s="92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="74"/>
-    </row>
-    <row r="27" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="J26" s="96"/>
+    </row>
+    <row r="27" spans="1:10" ht="33.75" customHeight="1">
       <c r="A27" s="45">
         <v>2</v>
       </c>
-      <c r="B27" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>199</v>
+      <c r="B27" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>300</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="92" t="s">
         <v>197</v>
-      </c>
-      <c r="F27" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="92" t="s">
-        <v>201</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="96"/>
+    </row>
+    <row r="28" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A28" s="137"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="143"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="255"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="256"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="74"/>
-    </row>
-    <row r="28" spans="1:10" ht="33">
-      <c r="A28" s="45">
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="45">
+        <v>2</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="74"/>
+    </row>
+    <row r="33" spans="1:10" ht="33">
+      <c r="A33" s="45">
         <v>3</v>
       </c>
-      <c r="B28" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="40" t="s">
+      <c r="B33" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="74" t="s">
-        <v>205</v>
+      <c r="J33" s="74" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A24:J24"/>
+  <mergeCells count="6">
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -8196,7 +8196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD59"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="302">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -840,10 +840,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>org_id</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1093,10 +1089,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>輸入型態:string
 格式:英數字
 最大長度限制:英文10(控制項控制)</t>
@@ -1285,13 +1277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫WinConfirm( "APF_NO 47") JavaScript
-2.呼叫 APFRoleRelationController.RoleQuery()
-如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
-如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>A.1
 QueryScopeController.Setting()[HttpPost]</t>
   </si>
@@ -1304,20 +1289,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫WinConfirm( "APF_NO 14") JavaScript
-2.呼叫 QueryScopeController.Save()
-點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14 或 15，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
-  </si>
-  <si>
     <t>A.1 QueryScopeController.Save()</t>
   </si>
   <si>
     <t>Rid, List&lt;string&gt; SelectDepid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 12
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1417,6 +1392,28 @@
   <si>
     <t>txtINPUT_ORG_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 15002") JavaScript
+2.呼叫 APFRoleRelationController.RoleQuery()
+如已點選角色帳號設定但尚未儲存，此時則點選回上一頁按鈕，系統提示確認訊息，以免不慎放棄之前所做設定，訊息內容請參考APF訊息表 APF_NO 47，若選擇是，則取消在儲存之前的點選，含加入角色的帳號或自角色中移除的帳號，再以導頁方式開啟APF0102MM1，並帶回原先的查詢條件，若選擇否，則不做任何動作。
+如已點選角色帳號設定且已儲存，點選回上一頁按鈕，則以導頁方式開啟APF0102MM1，並帶回原先的查詢條件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫WinConfirm( "APF_NO 04004") JavaScript
+2.呼叫 QueryScopeController.Save()
+點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 04004 或 04005，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 04001
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04002。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2385,6 +2382,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,62 +2440,179 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2472,6 +2631,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2480,228 +2699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2712,6 +2709,102 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2730,107 +2823,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7823,14 +7820,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>180</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -7859,7 +7856,7 @@
         <v>160</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="78" t="s">
@@ -7869,7 +7866,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="147"/>
       <c r="B8" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="79" t="s">
@@ -8196,7 +8193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD59"/>
     </sheetView>
   </sheetViews>
@@ -8212,15 +8209,15 @@
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="163" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="149"/>
+      <c r="M2" s="164"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="149"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8237,194 +8234,194 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="164"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
     </row>
     <row r="6" spans="1:13" s="69" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
     </row>
     <row r="7" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="152" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="159"/>
     </row>
     <row r="8" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="156" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="150"/>
     </row>
     <row r="9" spans="1:13" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="1:13" s="70" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="156" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="157"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
     </row>
     <row r="11" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="159"/>
     </row>
     <row r="12" spans="1:13" s="54" customFormat="1" ht="16.5">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="150"/>
     </row>
     <row r="13" spans="1:13" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159"/>
     </row>
     <row r="14" spans="1:13" s="54" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="156" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:13" s="71" customFormat="1" ht="16.5">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="150"/>
     </row>
     <row r="16" spans="1:13" s="71" customFormat="1" ht="14.25"/>
     <row r="17" s="71" customFormat="1" ht="14.25"/>
@@ -8454,32 +8451,23 @@
     <row r="41" s="71" customFormat="1" ht="14.25"/>
     <row r="42" s="71" customFormat="1" ht="14.25"/>
     <row r="71" spans="1:12" ht="16.5">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="157"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -8492,6 +8480,15 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -8569,15 +8566,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="148" t="s">
-        <v>178</v>
+      <c r="P1" s="163" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="149"/>
+      <c r="P2" s="164"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="149"/>
+      <c r="P3" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8627,8 +8624,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8658,7 +8655,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="229" t="s">
+      <c r="K1" s="180" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="50"/>
@@ -8679,7 +8676,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="230"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -8692,7 +8689,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="230"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -8707,152 +8704,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="235"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="236"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="240"/>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="226"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -8861,16 +8858,16 @@
       <c r="B16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="52.5" customHeight="1">
       <c r="A17" s="55">
@@ -8879,16 +8876,16 @@
       <c r="B17" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="227" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
+      <c r="C17" s="206" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="55">
@@ -8897,16 +8894,16 @@
       <c r="B18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="227" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
+      <c r="C18" s="206" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="55">
@@ -8915,42 +8912,42 @@
       <c r="B19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="227" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="215"/>
+      <c r="C19" s="206" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1">
-      <c r="A20" s="204"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="226"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="55" t="s">
@@ -8959,16 +8956,16 @@
       <c r="B22" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="210" t="s">
+      <c r="C22" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="205"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
       <c r="A23" s="55">
@@ -8977,16 +8974,16 @@
       <c r="B23" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="215"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -8995,16 +8992,16 @@
       <c r="B24" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="215"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1">
       <c r="A25" s="55">
@@ -9013,16 +9010,16 @@
       <c r="B25" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="215"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1">
       <c r="A26" s="55">
@@ -9031,56 +9028,56 @@
       <c r="B26" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="213" t="s">
+      <c r="C26" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" s="52" customFormat="1">
-      <c r="A27" s="231"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="233"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
     </row>
     <row r="28" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="205" t="s">
+      <c r="A28" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="244"/>
-      <c r="C28" s="244"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="226"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="55" t="s">
@@ -9089,16 +9086,16 @@
       <c r="B30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="210" t="s">
+      <c r="C30" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="212"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="55">
@@ -9107,16 +9104,16 @@
       <c r="B31" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="216" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="218"/>
+      <c r="C31" s="213" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="214"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="215"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="55">
@@ -9125,14 +9122,14 @@
       <c r="B32" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="219"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="221"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="218"/>
     </row>
     <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="55">
@@ -9141,40 +9138,40 @@
       <c r="B33" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="222"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="224"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1">
-      <c r="A34" s="204"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="175"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="170"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="55" t="s">
@@ -9183,16 +9180,16 @@
       <c r="B36" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="210" t="s">
+      <c r="C36" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="212"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="205"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="55">
@@ -9201,16 +9198,16 @@
       <c r="B37" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="213" t="s">
+      <c r="C37" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="214"/>
-      <c r="J37" s="215"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="55">
@@ -9219,16 +9216,16 @@
       <c r="B38" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="215"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="55">
@@ -9237,16 +9234,16 @@
       <c r="B39" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="215"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1">
       <c r="A40" s="55">
@@ -9255,16 +9252,16 @@
       <c r="B40" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="215"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1">
       <c r="A41" s="63"/>
@@ -9279,190 +9276,190 @@
       <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1">
-      <c r="A42" s="180" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
+      <c r="A42" s="222" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="223"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="224"/>
     </row>
     <row r="43" spans="1:10" s="52" customFormat="1">
-      <c r="A43" s="168" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="170"/>
+      <c r="A43" s="200" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="211"/>
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1">
       <c r="A44" s="55"/>
       <c r="B44" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="E44" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="D44" s="106" t="s">
+      <c r="F44" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="171" t="s">
-        <v>241</v>
-      </c>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="173"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="227"/>
     </row>
     <row r="45" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="55">
         <v>1</v>
       </c>
       <c r="B45" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="E45" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="107" t="s">
+      <c r="F45" s="228" t="s">
         <v>244</v>
       </c>
-      <c r="E45" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="174" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="176"/>
+      <c r="G45" s="229"/>
+      <c r="H45" s="229"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="230"/>
     </row>
     <row r="46" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="104"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="179"/>
+      <c r="B46" s="251"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="252"/>
+      <c r="E46" s="252"/>
+      <c r="F46" s="252"/>
+      <c r="G46" s="252"/>
+      <c r="H46" s="252"/>
+      <c r="I46" s="252"/>
+      <c r="J46" s="253"/>
     </row>
     <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="180" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="182"/>
+      <c r="A47" s="222" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="223"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="223"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="224"/>
     </row>
     <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="168" t="s">
-        <v>248</v>
-      </c>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170"/>
+      <c r="A48" s="200" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="55"/>
       <c r="B49" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="E49" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="F49" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="E49" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="171" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="172"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
+      <c r="I49" s="226"/>
+      <c r="J49" s="227"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="55">
         <v>1</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C50" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D50" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="F50" s="174" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="176"/>
+      <c r="F50" s="228" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="229"/>
+      <c r="J50" s="230"/>
     </row>
     <row r="51" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="204"/>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="209"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="175"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A52" s="205" t="s">
+      <c r="A52" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="206"/>
-      <c r="C52" s="206"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="206"/>
-      <c r="J52" s="207"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="231"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="232"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1">
       <c r="A53" s="56" t="s">
@@ -9477,76 +9474,76 @@
       <c r="D53" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="208" t="s">
+      <c r="E53" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="209"/>
-      <c r="G53" s="209"/>
-      <c r="H53" s="209"/>
-      <c r="I53" s="209"/>
-      <c r="J53" s="209"/>
+      <c r="F53" s="234"/>
+      <c r="G53" s="234"/>
+      <c r="H53" s="234"/>
+      <c r="I53" s="234"/>
+      <c r="J53" s="234"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A54" s="186">
+      <c r="A54" s="235">
         <v>1</v>
       </c>
-      <c r="B54" s="186" t="s">
+      <c r="B54" s="235" t="s">
         <v>157</v>
       </c>
       <c r="C54" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="172"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="173"/>
+    </row>
+    <row r="55" spans="1:10" ht="49.5">
+      <c r="A55" s="236"/>
+      <c r="B55" s="236"/>
+      <c r="C55" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="190" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="192"/>
-    </row>
-    <row r="55" spans="1:10" ht="49.5">
-      <c r="A55" s="203"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="105" t="s">
-        <v>253</v>
-      </c>
       <c r="D55" s="61"/>
-      <c r="E55" s="190" t="s">
+      <c r="E55" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="191"/>
-      <c r="G55" s="191"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="192"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="172"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="173"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="59"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
+      <c r="B56" s="209"/>
+      <c r="C56" s="209"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="209"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="209"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="209"/>
+      <c r="J56" s="175"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="199" t="s">
+      <c r="A57" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="200"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="201"/>
+      <c r="B57" s="238"/>
+      <c r="C57" s="238"/>
+      <c r="D57" s="238"/>
+      <c r="E57" s="238"/>
+      <c r="F57" s="238"/>
+      <c r="G57" s="238"/>
+      <c r="H57" s="238"/>
+      <c r="I57" s="238"/>
+      <c r="J57" s="239"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="55">
@@ -9559,68 +9556,68 @@
         <v>47</v>
       </c>
       <c r="D58" s="105"/>
-      <c r="E58" s="198" t="s">
+      <c r="E58" s="240" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="162"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="162"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="60">
         <v>1</v>
       </c>
-      <c r="B59" s="188" t="s">
+      <c r="B59" s="241" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D59" s="109"/>
-      <c r="E59" s="183" t="s">
-        <v>255</v>
-      </c>
-      <c r="F59" s="184"/>
-      <c r="G59" s="184"/>
-      <c r="H59" s="184"/>
-      <c r="I59" s="184"/>
-      <c r="J59" s="185"/>
+      <c r="E59" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="F59" s="245"/>
+      <c r="G59" s="245"/>
+      <c r="H59" s="245"/>
+      <c r="I59" s="245"/>
+      <c r="J59" s="246"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="60"/>
-      <c r="B60" s="202"/>
+      <c r="B60" s="242"/>
       <c r="C60" s="110" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D60" s="109"/>
-      <c r="E60" s="183" t="s">
-        <v>257</v>
-      </c>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="E60" s="244" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="245"/>
+      <c r="G60" s="245"/>
+      <c r="H60" s="245"/>
+      <c r="I60" s="245"/>
+      <c r="J60" s="246"/>
     </row>
     <row r="61" spans="1:10" ht="49.5">
       <c r="A61" s="60"/>
-      <c r="B61" s="189"/>
+      <c r="B61" s="243"/>
       <c r="C61" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="109" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" s="183" t="s">
-        <v>260</v>
-      </c>
-      <c r="F61" s="184"/>
-      <c r="G61" s="184"/>
-      <c r="H61" s="184"/>
-      <c r="I61" s="184"/>
-      <c r="J61" s="185"/>
+      <c r="F61" s="245"/>
+      <c r="G61" s="245"/>
+      <c r="H61" s="245"/>
+      <c r="I61" s="245"/>
+      <c r="J61" s="246"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="61">
@@ -9633,40 +9630,40 @@
         <v>47</v>
       </c>
       <c r="D62" s="102"/>
-      <c r="E62" s="190" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="191"/>
-      <c r="G62" s="191"/>
-      <c r="H62" s="191"/>
-      <c r="I62" s="191"/>
-      <c r="J62" s="192"/>
+      <c r="E62" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="62"/>
-      <c r="B63" s="193"/>
-      <c r="C63" s="193"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="193"/>
-      <c r="F63" s="193"/>
-      <c r="G63" s="193"/>
-      <c r="H63" s="193"/>
-      <c r="I63" s="193"/>
-      <c r="J63" s="194"/>
+      <c r="B63" s="209"/>
+      <c r="C63" s="209"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="209"/>
+      <c r="I63" s="209"/>
+      <c r="J63" s="175"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="195" t="s">
+      <c r="A64" s="247" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="196"/>
-      <c r="C64" s="196"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="196"/>
-      <c r="F64" s="196"/>
-      <c r="G64" s="196"/>
-      <c r="H64" s="196"/>
-      <c r="I64" s="196"/>
-      <c r="J64" s="197"/>
+      <c r="B64" s="248"/>
+      <c r="C64" s="248"/>
+      <c r="D64" s="248"/>
+      <c r="E64" s="248"/>
+      <c r="F64" s="248"/>
+      <c r="G64" s="248"/>
+      <c r="H64" s="248"/>
+      <c r="I64" s="248"/>
+      <c r="J64" s="249"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="55">
@@ -9679,14 +9676,14 @@
         <v>47</v>
       </c>
       <c r="D65" s="105"/>
-      <c r="E65" s="198" t="s">
+      <c r="E65" s="240" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="162"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="162"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="162"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="55">
@@ -9699,14 +9696,14 @@
         <v>47</v>
       </c>
       <c r="D66" s="99"/>
-      <c r="E66" s="183" t="s">
+      <c r="E66" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="184"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="184"/>
-      <c r="I66" s="184"/>
-      <c r="J66" s="185"/>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
+      <c r="J66" s="246"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="55">
@@ -9719,14 +9716,14 @@
         <v>47</v>
       </c>
       <c r="D67" s="99"/>
-      <c r="E67" s="183" t="s">
+      <c r="E67" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="184"/>
-      <c r="G67" s="184"/>
-      <c r="H67" s="184"/>
-      <c r="I67" s="184"/>
-      <c r="J67" s="185"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="245"/>
+      <c r="H67" s="245"/>
+      <c r="I67" s="245"/>
+      <c r="J67" s="246"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="55">
@@ -9739,52 +9736,52 @@
         <v>47</v>
       </c>
       <c r="D68" s="99"/>
-      <c r="E68" s="183" t="s">
+      <c r="E68" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="184"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="184"/>
-      <c r="I68" s="184"/>
-      <c r="J68" s="185"/>
+      <c r="F68" s="245"/>
+      <c r="G68" s="245"/>
+      <c r="H68" s="245"/>
+      <c r="I68" s="245"/>
+      <c r="J68" s="246"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="186">
+      <c r="A69" s="235">
         <v>1</v>
       </c>
-      <c r="B69" s="188" t="s">
+      <c r="B69" s="241" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D69" s="102"/>
-      <c r="E69" s="190" t="s">
+      <c r="E69" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="173"/>
+    </row>
+    <row r="70" spans="1:10" ht="66">
+      <c r="A70" s="250"/>
+      <c r="B70" s="243"/>
+      <c r="C70" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="F69" s="191"/>
-      <c r="G69" s="191"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="192"/>
-    </row>
-    <row r="70" spans="1:10" ht="66">
-      <c r="A70" s="187"/>
-      <c r="B70" s="189"/>
-      <c r="C70" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="E70" s="190" t="s">
-        <v>264</v>
-      </c>
-      <c r="F70" s="191"/>
-      <c r="G70" s="191"/>
-      <c r="H70" s="191"/>
-      <c r="I70" s="191"/>
-      <c r="J70" s="192"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="173"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="63"/>
@@ -9799,96 +9796,96 @@
       <c r="J71" s="115"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="251" t="s">
+      <c r="A72" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="252"/>
-      <c r="C72" s="252"/>
-      <c r="D72" s="252"/>
-      <c r="E72" s="252"/>
-      <c r="F72" s="252"/>
-      <c r="G72" s="252"/>
-      <c r="H72" s="252"/>
-      <c r="I72" s="252"/>
-      <c r="J72" s="253"/>
+      <c r="B72" s="169"/>
+      <c r="C72" s="169"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
+      <c r="F72" s="169"/>
+      <c r="G72" s="169"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="170"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="249" t="s">
+      <c r="B73" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="250"/>
-      <c r="D73" s="190" t="s">
+      <c r="C73" s="199"/>
+      <c r="D73" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="157"/>
+      <c r="E73" s="149"/>
+      <c r="F73" s="149"/>
+      <c r="G73" s="149"/>
+      <c r="H73" s="149"/>
+      <c r="I73" s="149"/>
+      <c r="J73" s="150"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="246"/>
-      <c r="B74" s="247"/>
-      <c r="C74" s="247"/>
-      <c r="D74" s="247"/>
-      <c r="E74" s="247"/>
-      <c r="F74" s="247"/>
-      <c r="G74" s="247"/>
-      <c r="H74" s="247"/>
-      <c r="I74" s="247"/>
-      <c r="J74" s="248"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="177"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="178"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="61"/>
-      <c r="B75" s="204"/>
-      <c r="C75" s="194"/>
-      <c r="D75" s="190"/>
-      <c r="E75" s="191"/>
-      <c r="F75" s="191"/>
-      <c r="G75" s="191"/>
-      <c r="H75" s="191"/>
-      <c r="I75" s="191"/>
-      <c r="J75" s="192"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="173"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="61"/>
-      <c r="B76" s="204"/>
-      <c r="C76" s="194"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="191"/>
-      <c r="F76" s="191"/>
-      <c r="G76" s="191"/>
-      <c r="H76" s="191"/>
-      <c r="I76" s="191"/>
-      <c r="J76" s="192"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="173"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="246"/>
-      <c r="B77" s="247"/>
-      <c r="C77" s="247"/>
-      <c r="D77" s="247"/>
-      <c r="E77" s="247"/>
-      <c r="F77" s="247"/>
-      <c r="G77" s="247"/>
-      <c r="H77" s="247"/>
-      <c r="I77" s="247"/>
-      <c r="J77" s="248"/>
+      <c r="A77" s="176"/>
+      <c r="B77" s="177"/>
+      <c r="C77" s="177"/>
+      <c r="D77" s="177"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="177"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="177"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="178"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="61"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="194"/>
-      <c r="D78" s="190"/>
-      <c r="E78" s="191"/>
-      <c r="F78" s="191"/>
-      <c r="G78" s="191"/>
-      <c r="H78" s="191"/>
-      <c r="I78" s="191"/>
-      <c r="J78" s="192"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="172"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="173"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="64" t="s">
@@ -9911,14 +9908,14 @@
       <c r="B80" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="204"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="157"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="149"/>
+      <c r="I80" s="149"/>
+      <c r="J80" s="150"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="61">
@@ -9927,24 +9924,73 @@
       <c r="B81" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="228"/>
-      <c r="D81" s="228"/>
-      <c r="E81" s="228"/>
-      <c r="F81" s="228"/>
-      <c r="G81" s="228"/>
-      <c r="H81" s="228"/>
-      <c r="I81" s="228"/>
-      <c r="J81" s="228"/>
+      <c r="C81" s="179"/>
+      <c r="D81" s="179"/>
+      <c r="E81" s="179"/>
+      <c r="F81" s="179"/>
+      <c r="G81" s="179"/>
+      <c r="H81" s="179"/>
+      <c r="I81" s="179"/>
+      <c r="J81" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C31:J33"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="C81:J81"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="K1:K3"/>
@@ -9961,62 +10007,13 @@
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C31:J33"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10069,7 +10066,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="229" t="s">
+      <c r="K1" s="180" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="36"/>
@@ -10096,7 +10093,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="230"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10114,7 +10111,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="230"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10364,7 +10361,7 @@
         <v>145</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10518,7 +10515,7 @@
         <v>148</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10560,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10590,7 +10587,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="229" t="s">
+      <c r="K1" s="180" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="50"/>
@@ -10611,7 +10608,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="230"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="44"/>
@@ -10624,7 +10621,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="230"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="44"/>
@@ -10639,152 +10636,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="235"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="236"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="240"/>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
-      <c r="A11" s="243" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
+      <c r="A11" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="234" t="s">
+      <c r="A12" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="226"/>
+      <c r="A15" s="200" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -10793,16 +10790,16 @@
       <c r="B16" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="45">
@@ -10811,48 +10808,48 @@
       <c r="B17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="227" t="s">
+      <c r="C17" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="45">
         <v>2</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="227" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
+        <v>186</v>
+      </c>
+      <c r="C18" s="206" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A19" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="225"/>
-      <c r="J19" s="226"/>
+      <c r="A19" s="200" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="55" t="s">
@@ -10861,76 +10858,76 @@
       <c r="B20" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="205"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="293" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="271"/>
-      <c r="E21" s="271"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="271"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="271"/>
-      <c r="J21" s="271"/>
+        <v>186</v>
+      </c>
+      <c r="C21" s="261" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1">
       <c r="A22" s="55">
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
-      <c r="H22" s="271"/>
-      <c r="I22" s="271"/>
-      <c r="J22" s="271"/>
+        <v>187</v>
+      </c>
+      <c r="C22" s="262"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="262"/>
     </row>
     <row r="23" spans="1:10" s="52" customFormat="1">
-      <c r="A23" s="294"/>
-      <c r="B23" s="295"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="295"/>
-      <c r="G23" s="295"/>
-      <c r="H23" s="295"/>
-      <c r="I23" s="295"/>
-      <c r="J23" s="296"/>
+      <c r="A23" s="263"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="264"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="265"/>
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A24" s="168" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="226"/>
+      <c r="A24" s="200" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="201"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
     </row>
     <row r="25" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="131" t="s">
@@ -10939,26 +10936,26 @@
       <c r="B25" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="210" t="s">
+      <c r="C25" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="212"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="205"/>
     </row>
     <row r="26" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="131">
         <v>1</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="227" t="s">
-        <v>296</v>
+        <v>186</v>
+      </c>
+      <c r="C26" s="206" t="s">
+        <v>291</v>
       </c>
       <c r="D26" s="257"/>
       <c r="E26" s="257"/>
@@ -10973,10 +10970,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="227" t="s">
-        <v>296</v>
+        <v>187</v>
+      </c>
+      <c r="C27" s="206" t="s">
+        <v>291</v>
       </c>
       <c r="D27" s="257"/>
       <c r="E27" s="257"/>
@@ -10999,32 +10996,32 @@
       <c r="J28" s="133"/>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="205" t="s">
+      <c r="A29" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="207"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A30" s="168" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="226"/>
+      <c r="A30" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="201"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
     </row>
     <row r="31" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="55" t="s">
@@ -11033,16 +11030,16 @@
       <c r="B31" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
     </row>
     <row r="32" spans="1:10" s="52" customFormat="1">
       <c r="A32" s="45">
@@ -11051,48 +11048,48 @@
       <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="227" t="s">
+      <c r="C32" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="45">
         <v>2</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="227" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215"/>
+        <v>186</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="226"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="55" t="s">
@@ -11101,25 +11098,25 @@
       <c r="B35" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="210" t="s">
+      <c r="C35" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="212"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:10" s="52" customFormat="1">
       <c r="A36" s="55">
         <v>1</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="206" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="257"/>
@@ -11135,9 +11132,9 @@
         <v>2</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="227" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="206" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="257"/>
@@ -11149,30 +11146,30 @@
       <c r="J37" s="258"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1">
-      <c r="A38" s="231"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="291"/>
-      <c r="F38" s="291"/>
-      <c r="G38" s="291"/>
-      <c r="H38" s="291"/>
-      <c r="I38" s="291"/>
-      <c r="J38" s="292"/>
+      <c r="A38" s="182"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="266"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="267"/>
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A39" s="168" t="s">
-        <v>295</v>
-      </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
-      <c r="G39" s="225"/>
-      <c r="H39" s="225"/>
-      <c r="I39" s="225"/>
-      <c r="J39" s="226"/>
+      <c r="A39" s="200" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="202"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A40" s="131" t="s">
@@ -11181,26 +11178,26 @@
       <c r="B40" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="210" t="s">
+      <c r="C40" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="212"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="205"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="131">
         <v>1</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="227" t="s">
-        <v>296</v>
+        <v>186</v>
+      </c>
+      <c r="C41" s="206" t="s">
+        <v>291</v>
       </c>
       <c r="D41" s="257"/>
       <c r="E41" s="257"/>
@@ -11215,10 +11212,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="227" t="s">
-        <v>296</v>
+        <v>187</v>
+      </c>
+      <c r="C42" s="206" t="s">
+        <v>291</v>
       </c>
       <c r="D42" s="257"/>
       <c r="E42" s="257"/>
@@ -11241,190 +11238,190 @@
       <c r="J43" s="135"/>
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1">
-      <c r="A44" s="180" t="s">
-        <v>235</v>
-      </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="181"/>
-      <c r="J44" s="182"/>
+      <c r="A44" s="222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="223"/>
+      <c r="C44" s="223"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="223"/>
+      <c r="G44" s="223"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="224"/>
     </row>
     <row r="45" spans="1:10" s="52" customFormat="1">
-      <c r="A45" s="168" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
-      <c r="I45" s="169"/>
-      <c r="J45" s="170"/>
+      <c r="A45" s="200" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46" s="55"/>
       <c r="B46" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="E46" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="F46" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" s="171" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" s="172"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="173"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="227"/>
     </row>
     <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="55">
         <v>1</v>
       </c>
       <c r="B47" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="107" t="s">
+      <c r="E47" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="F47" s="228" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="174" t="s">
-        <v>246</v>
-      </c>
-      <c r="G47" s="175"/>
-      <c r="H47" s="175"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="176"/>
+      <c r="G47" s="229"/>
+      <c r="H47" s="229"/>
+      <c r="I47" s="229"/>
+      <c r="J47" s="230"/>
     </row>
     <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="104"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179"/>
+      <c r="B48" s="251"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="252"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="252"/>
+      <c r="H48" s="252"/>
+      <c r="I48" s="252"/>
+      <c r="J48" s="253"/>
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="180" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="181"/>
-      <c r="C49" s="181"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="182"/>
+      <c r="A49" s="222" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="223"/>
+      <c r="C49" s="223"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="223"/>
+      <c r="G49" s="223"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="224"/>
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="168" t="s">
-        <v>248</v>
-      </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="170"/>
+      <c r="A50" s="200" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="210"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="210"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="210"/>
+      <c r="I50" s="210"/>
+      <c r="J50" s="211"/>
     </row>
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="106" t="s">
+      <c r="E51" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="F51" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="171" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" s="172"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="173"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
+      <c r="I51" s="226"/>
+      <c r="J51" s="227"/>
     </row>
     <row r="52" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="55">
         <v>1</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C52" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="107" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="174" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" s="175"/>
-      <c r="H52" s="175"/>
-      <c r="I52" s="175"/>
-      <c r="J52" s="176"/>
+      <c r="F52" s="228" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="230"/>
     </row>
     <row r="53" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="231"/>
-      <c r="B53" s="291"/>
-      <c r="C53" s="291"/>
-      <c r="D53" s="291"/>
-      <c r="E53" s="291"/>
-      <c r="F53" s="291"/>
-      <c r="G53" s="291"/>
-      <c r="H53" s="291"/>
-      <c r="I53" s="291"/>
-      <c r="J53" s="292"/>
+      <c r="A53" s="182"/>
+      <c r="B53" s="266"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="266"/>
+      <c r="H53" s="266"/>
+      <c r="I53" s="266"/>
+      <c r="J53" s="267"/>
     </row>
     <row r="54" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="205" t="s">
+      <c r="A54" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="244"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="244"/>
-      <c r="E54" s="244"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="244"/>
-      <c r="H54" s="244"/>
-      <c r="I54" s="244"/>
-      <c r="J54" s="245"/>
+      <c r="B54" s="196"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="56" t="s">
@@ -11439,158 +11436,158 @@
       <c r="D55" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="208" t="s">
+      <c r="E55" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="209"/>
-      <c r="G55" s="209"/>
-      <c r="H55" s="209"/>
-      <c r="I55" s="209"/>
-      <c r="J55" s="209"/>
+      <c r="F55" s="234"/>
+      <c r="G55" s="234"/>
+      <c r="H55" s="234"/>
+      <c r="I55" s="234"/>
+      <c r="J55" s="234"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="186">
+      <c r="A56" s="235">
         <v>1</v>
       </c>
-      <c r="B56" s="186" t="s">
+      <c r="B56" s="235" t="s">
         <v>166</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D56" s="61"/>
-      <c r="E56" s="190" t="s">
+      <c r="E56" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="173"/>
+    </row>
+    <row r="57" spans="1:10" ht="49.5">
+      <c r="A57" s="236"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="192"/>
-    </row>
-    <row r="57" spans="1:10" ht="49.5">
-      <c r="A57" s="203"/>
-      <c r="B57" s="203"/>
-      <c r="C57" s="105" t="s">
+      <c r="E57" s="240" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="237" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="268"/>
+      <c r="C58" s="268"/>
+      <c r="D58" s="268"/>
+      <c r="E58" s="268"/>
+      <c r="F58" s="268"/>
+      <c r="G58" s="268"/>
+      <c r="H58" s="268"/>
+      <c r="I58" s="268"/>
+      <c r="J58" s="269"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="270">
+        <v>1</v>
+      </c>
+      <c r="B59" s="241" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D59" s="99"/>
+      <c r="E59" s="273" t="s">
         <v>268</v>
       </c>
-      <c r="E57" s="198" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="162"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="199" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="285"/>
-      <c r="C58" s="285"/>
-      <c r="D58" s="285"/>
-      <c r="E58" s="285"/>
-      <c r="F58" s="285"/>
-      <c r="G58" s="285"/>
-      <c r="H58" s="285"/>
-      <c r="I58" s="285"/>
-      <c r="J58" s="286"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="265">
-        <v>1</v>
-      </c>
-      <c r="B59" s="188" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="101" t="s">
+      <c r="F59" s="274"/>
+      <c r="G59" s="274"/>
+      <c r="H59" s="274"/>
+      <c r="I59" s="274"/>
+      <c r="J59" s="275"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="271"/>
+      <c r="B60" s="272"/>
+      <c r="C60" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="272" t="s">
+      <c r="D60" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="289"/>
-      <c r="J59" s="290"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="287"/>
-      <c r="B60" s="288"/>
-      <c r="C60" s="101" t="s">
+      <c r="E60" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="F60" s="172"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="173"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="281">
+        <v>2</v>
+      </c>
+      <c r="B61" s="283" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="99"/>
+      <c r="E61" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="173"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="282"/>
+      <c r="B62" s="284"/>
+      <c r="C62" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="116"/>
+      <c r="E62" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="190" t="s">
+      <c r="F62" s="286"/>
+      <c r="G62" s="286"/>
+      <c r="H62" s="286"/>
+      <c r="I62" s="286"/>
+      <c r="J62" s="287"/>
+    </row>
+    <row r="63" spans="1:10" ht="49.5">
+      <c r="A63" s="250"/>
+      <c r="B63" s="243"/>
+      <c r="C63" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="F60" s="191"/>
-      <c r="G60" s="191"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
-      <c r="J60" s="192"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="277">
-        <v>2</v>
-      </c>
-      <c r="B61" s="278" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="190" t="s">
-        <v>255</v>
-      </c>
-      <c r="F61" s="191"/>
-      <c r="G61" s="191"/>
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-      <c r="J61" s="192"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="266"/>
-      <c r="B62" s="267"/>
-      <c r="C62" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="279" t="s">
+      <c r="D63" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="280"/>
-      <c r="G62" s="280"/>
-      <c r="H62" s="280"/>
-      <c r="I62" s="280"/>
-      <c r="J62" s="281"/>
-    </row>
-    <row r="63" spans="1:10" ht="49.5">
-      <c r="A63" s="187"/>
-      <c r="B63" s="189"/>
-      <c r="C63" s="117" t="s">
+      <c r="E63" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="D63" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="E63" s="282" t="s">
-        <v>277</v>
-      </c>
-      <c r="F63" s="283"/>
-      <c r="G63" s="283"/>
-      <c r="H63" s="283"/>
-      <c r="I63" s="283"/>
-      <c r="J63" s="284"/>
+      <c r="F63" s="289"/>
+      <c r="G63" s="289"/>
+      <c r="H63" s="289"/>
+      <c r="I63" s="289"/>
+      <c r="J63" s="290"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="61">
@@ -11603,14 +11600,14 @@
         <v>47</v>
       </c>
       <c r="D64" s="105"/>
-      <c r="E64" s="198" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="162"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="162"/>
-      <c r="I64" s="162"/>
-      <c r="J64" s="162"/>
+      <c r="E64" s="240" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="152"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="152"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="75"/>
@@ -11625,148 +11622,148 @@
       <c r="J65" s="98"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="199" t="s">
-        <v>297</v>
-      </c>
-      <c r="B66" s="200"/>
-      <c r="C66" s="200"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="201"/>
+      <c r="A66" s="237" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="238"/>
+      <c r="C66" s="238"/>
+      <c r="D66" s="238"/>
+      <c r="E66" s="238"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="238"/>
+      <c r="H66" s="238"/>
+      <c r="I66" s="238"/>
+      <c r="J66" s="239"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="268">
+      <c r="A67" s="297">
         <v>1</v>
       </c>
-      <c r="B67" s="270" t="s">
+      <c r="B67" s="276" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D67" s="105"/>
-      <c r="E67" s="272" t="s">
+      <c r="E67" s="273" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" s="277"/>
+      <c r="G67" s="277"/>
+      <c r="H67" s="277"/>
+      <c r="I67" s="277"/>
+      <c r="J67" s="278"/>
+    </row>
+    <row r="68" spans="1:10" ht="66">
+      <c r="A68" s="298"/>
+      <c r="B68" s="262"/>
+      <c r="C68" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="171" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" s="279"/>
+      <c r="G68" s="279"/>
+      <c r="H68" s="279"/>
+      <c r="I68" s="279"/>
+      <c r="J68" s="280"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="270">
+        <v>2</v>
+      </c>
+      <c r="B69" s="241" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="99"/>
+      <c r="E69" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="173"/>
+    </row>
+    <row r="70" spans="1:10" ht="77.25" customHeight="1">
+      <c r="A70" s="282"/>
+      <c r="B70" s="284"/>
+      <c r="C70" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="F67" s="273"/>
-      <c r="G67" s="273"/>
-      <c r="H67" s="273"/>
-      <c r="I67" s="273"/>
-      <c r="J67" s="274"/>
-    </row>
-    <row r="68" spans="1:10" ht="66">
-      <c r="A68" s="269"/>
-      <c r="B68" s="271"/>
-      <c r="C68" s="110" t="s">
+      <c r="D70" s="99"/>
+      <c r="E70" s="244" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" s="245"/>
+      <c r="G70" s="245"/>
+      <c r="H70" s="245"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="246"/>
+    </row>
+    <row r="71" spans="1:10" ht="49.5">
+      <c r="A71" s="250"/>
+      <c r="B71" s="243"/>
+      <c r="C71" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="E68" s="190" t="s">
+      <c r="D71" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="F68" s="275"/>
-      <c r="G68" s="275"/>
-      <c r="H68" s="275"/>
-      <c r="I68" s="275"/>
-      <c r="J68" s="276"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="265">
-        <v>2</v>
-      </c>
-      <c r="B69" s="188" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="190" t="s">
-        <v>255</v>
-      </c>
-      <c r="F69" s="191"/>
-      <c r="G69" s="191"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="192"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="266"/>
-      <c r="B70" s="267"/>
-      <c r="C70" s="101" t="s">
+      <c r="E71" s="244" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" s="245"/>
+      <c r="G71" s="245"/>
+      <c r="H71" s="245"/>
+      <c r="I71" s="245"/>
+      <c r="J71" s="246"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="291">
+        <v>3</v>
+      </c>
+      <c r="B72" s="241" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="183" t="s">
+      <c r="C72" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="F70" s="184"/>
-      <c r="G70" s="184"/>
-      <c r="H70" s="184"/>
-      <c r="I70" s="184"/>
-      <c r="J70" s="185"/>
-    </row>
-    <row r="71" spans="1:10" ht="49.5">
-      <c r="A71" s="187"/>
-      <c r="B71" s="189"/>
-      <c r="C71" s="110" t="s">
+      <c r="D72" s="119"/>
+      <c r="E72" s="294" t="s">
         <v>284</v>
       </c>
-      <c r="D71" s="99" t="s">
+      <c r="F72" s="295"/>
+      <c r="G72" s="295"/>
+      <c r="H72" s="295"/>
+      <c r="I72" s="295"/>
+      <c r="J72" s="296"/>
+    </row>
+    <row r="73" spans="1:10" ht="66">
+      <c r="A73" s="292"/>
+      <c r="B73" s="293"/>
+      <c r="C73" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="183" t="s">
+      <c r="D73" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="F71" s="184"/>
-      <c r="G71" s="184"/>
-      <c r="H71" s="184"/>
-      <c r="I71" s="184"/>
-      <c r="J71" s="185"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="259">
-        <v>3</v>
-      </c>
-      <c r="B72" s="188" t="s">
+      <c r="E73" s="294" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="262" t="s">
-        <v>289</v>
-      </c>
-      <c r="F72" s="263"/>
-      <c r="G72" s="263"/>
-      <c r="H72" s="263"/>
-      <c r="I72" s="263"/>
-      <c r="J72" s="264"/>
-    </row>
-    <row r="73" spans="1:10" ht="66">
-      <c r="A73" s="260"/>
-      <c r="B73" s="261"/>
-      <c r="C73" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="D73" s="120" t="s">
-        <v>291</v>
-      </c>
-      <c r="E73" s="262" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="263"/>
-      <c r="G73" s="263"/>
-      <c r="H73" s="263"/>
-      <c r="I73" s="263"/>
-      <c r="J73" s="264"/>
+      <c r="F73" s="295"/>
+      <c r="G73" s="295"/>
+      <c r="H73" s="295"/>
+      <c r="I73" s="295"/>
+      <c r="J73" s="296"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="121"/>
@@ -11781,96 +11778,96 @@
       <c r="J74" s="127"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="251" t="s">
+      <c r="A75" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="252"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="252"/>
-      <c r="E75" s="252"/>
-      <c r="F75" s="252"/>
-      <c r="G75" s="252"/>
-      <c r="H75" s="252"/>
-      <c r="I75" s="252"/>
-      <c r="J75" s="253"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="170"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="249" t="s">
+      <c r="B76" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="250"/>
-      <c r="D76" s="190" t="s">
+      <c r="C76" s="199"/>
+      <c r="D76" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="156"/>
-      <c r="F76" s="156"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="156"/>
-      <c r="J76" s="157"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="246"/>
-      <c r="B77" s="297"/>
-      <c r="C77" s="297"/>
-      <c r="D77" s="297"/>
-      <c r="E77" s="297"/>
-      <c r="F77" s="297"/>
-      <c r="G77" s="297"/>
-      <c r="H77" s="297"/>
-      <c r="I77" s="297"/>
-      <c r="J77" s="298"/>
+      <c r="A77" s="176"/>
+      <c r="B77" s="259"/>
+      <c r="C77" s="259"/>
+      <c r="D77" s="259"/>
+      <c r="E77" s="259"/>
+      <c r="F77" s="259"/>
+      <c r="G77" s="259"/>
+      <c r="H77" s="259"/>
+      <c r="I77" s="259"/>
+      <c r="J77" s="260"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="61"/>
-      <c r="B78" s="204"/>
-      <c r="C78" s="194"/>
-      <c r="D78" s="190"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="157"/>
+      <c r="B78" s="174"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="149"/>
+      <c r="F78" s="149"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="149"/>
+      <c r="I78" s="149"/>
+      <c r="J78" s="150"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="61"/>
-      <c r="B79" s="204"/>
-      <c r="C79" s="194"/>
-      <c r="D79" s="190"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="157"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="149"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="149"/>
+      <c r="I79" s="149"/>
+      <c r="J79" s="150"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="246"/>
-      <c r="B80" s="297"/>
-      <c r="C80" s="297"/>
-      <c r="D80" s="297"/>
-      <c r="E80" s="297"/>
-      <c r="F80" s="297"/>
-      <c r="G80" s="297"/>
-      <c r="H80" s="297"/>
-      <c r="I80" s="297"/>
-      <c r="J80" s="298"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="259"/>
+      <c r="C80" s="259"/>
+      <c r="D80" s="259"/>
+      <c r="E80" s="259"/>
+      <c r="F80" s="259"/>
+      <c r="G80" s="259"/>
+      <c r="H80" s="259"/>
+      <c r="I80" s="259"/>
+      <c r="J80" s="260"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="61"/>
-      <c r="B81" s="204"/>
-      <c r="C81" s="194"/>
-      <c r="D81" s="190"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="156"/>
-      <c r="I81" s="156"/>
-      <c r="J81" s="157"/>
+      <c r="B81" s="174"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="149"/>
+      <c r="I81" s="149"/>
+      <c r="J81" s="150"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="64" t="s">
@@ -11893,14 +11890,14 @@
       <c r="B83" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="204"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="157"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="149"/>
+      <c r="E83" s="149"/>
+      <c r="F83" s="149"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="149"/>
+      <c r="I83" s="149"/>
+      <c r="J83" s="150"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="61">
@@ -11909,14 +11906,14 @@
       <c r="B84" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="228"/>
-      <c r="D84" s="228"/>
-      <c r="E84" s="228"/>
-      <c r="F84" s="228"/>
-      <c r="G84" s="228"/>
-      <c r="H84" s="228"/>
-      <c r="I84" s="228"/>
-      <c r="J84" s="228"/>
+      <c r="C84" s="179"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="179"/>
+      <c r="F84" s="179"/>
+      <c r="G84" s="179"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="179"/>
+      <c r="J84" s="179"/>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="50"/>
@@ -11929,26 +11926,58 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="C21:J22"/>
@@ -11965,58 +11994,26 @@
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12069,7 +12066,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="229" t="s">
+      <c r="K1" s="180" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="36"/>
@@ -12096,7 +12093,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="230"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12114,7 +12111,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="230"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12286,29 +12283,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="D12" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="F12" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="94" t="s">
-        <v>206</v>
-      </c>
       <c r="G12" s="92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="88"/>
       <c r="I12" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="43" t="s">
         <v>207</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -12316,29 +12313,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="D13" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="F13" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="G13" s="92" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="88"/>
       <c r="I13" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -12349,7 +12346,7 @@
         <v>135</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>137</v>
@@ -12361,14 +12358,14 @@
         <v>139</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="88"/>
       <c r="I14" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="74" t="s">
         <v>218</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -12376,26 +12373,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="F15" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="94" t="s">
-        <v>223</v>
-      </c>
       <c r="G15" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="88"/>
       <c r="I15" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J15" s="74"/>
     </row>
@@ -12404,29 +12401,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="92" t="s">
         <v>196</v>
-      </c>
-      <c r="G16" s="92" t="s">
-        <v>197</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12492,22 +12489,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="92" t="s">
         <v>173</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>174</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
@@ -12520,22 +12517,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="128" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="94" t="s">
-        <v>229</v>
-      </c>
       <c r="G22" s="92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
@@ -12545,7 +12542,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="254" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B24" s="255"/>
       <c r="C24" s="255"/>
@@ -12594,22 +12591,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="92" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="92" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="40" t="s">
@@ -12622,22 +12619,22 @@
         <v>2</v>
       </c>
       <c r="B27" s="128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="40" t="s">
@@ -12659,7 +12656,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="254" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="255"/>
       <c r="C29" s="255"/>
@@ -12708,22 +12705,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="46" t="s">
         <v>191</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>192</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>130</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="92" t="s">
         <v>173</v>
-      </c>
-      <c r="G31" s="92" t="s">
-        <v>174</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="40" t="s">
@@ -12736,22 +12733,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>194</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>195</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>137</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="92" t="s">
         <v>196</v>
-      </c>
-      <c r="G32" s="92" t="s">
-        <v>197</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="40" t="s">
@@ -12764,13 +12761,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="D33" s="42" t="s">
         <v>199</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>200</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="95"/>
@@ -12780,7 +12777,7 @@
         <v>70</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/RA006/RA006_APF0203_角色可查詢組織設定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="8475" windowHeight="4680" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="295">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -540,38 +540,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目取消勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將所有查詢結果匯出Excel檔案</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>明細</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1218,10 +1186,6 @@
 QueryScopeController.Setting()[HttpGet]</t>
   </si>
   <si>
-    <t>1.以導頁方式開啟APF0203MA1，被選取角色內所有的帳號資訊顯示在開啟的APF0203MA_Grid 右半部(角色帳號區)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Form Attribute</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1268,10 +1232,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開啟APF0203MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0203MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>點選清除重填按鈕，則清除所有欄位。
 1.txtINPUT_DEPT_ID=""</t>
     <phoneticPr fontId="2"/>
@@ -1287,9 +1247,6 @@
   <si>
     <t>A _CLICK</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A.1 QueryScopeController.Save()</t>
   </si>
   <si>
     <t>Rid, List&lt;string&gt; SelectDepid</t>
@@ -1405,14 +1362,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 04001
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04002。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.呼叫WinConfirm( "APF_NO 04004") JavaScript
 2.呼叫 QueryScopeController.Save()
 點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 04004 或 04005，若選擇是，則進行儲存，若選擇否，則不做任何動作。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>儲存成功:以導頁方式開啟APF0203MM1，並帶回原先的查詢條件，及示儲存資料成功訊息，訊息內容請參考APF訊息表APF_NO 04001
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04002。</t>
+    <t>開啟APF0203MA1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0203MA1_Grid中，資料依查詢類別，顯示於非角色帳號或角色帳號區塊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 QueryScopeController.Save()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formcollection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.以導頁方式開啟APF0203MA1，被選取角色內所有的可查詢單位資訊顯示在開啟的APF0203MA1_Grid</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7820,14 +7793,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -7853,10 +7826,10 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="146" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="78" t="s">
@@ -7866,7 +7839,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="147"/>
       <c r="B8" s="34" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="79" t="s">
@@ -8251,7 +8224,7 @@
     </row>
     <row r="6" spans="1:13" s="69" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="160" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="161"/>
@@ -8452,7 +8425,7 @@
     <row r="42" s="71" customFormat="1" ht="14.25"/>
     <row r="71" spans="1:12" ht="16.5">
       <c r="A71" s="148" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B71" s="149"/>
       <c r="C71" s="149"/>
@@ -8559,15 +8532,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="163" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -8602,10 +8575,10 @@
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8622,10 +8595,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8839,7 +8812,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="200" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B15" s="201"/>
       <c r="C15" s="201"/>
@@ -8877,7 +8850,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="206" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D17" s="207"/>
       <c r="E17" s="207"/>
@@ -8895,7 +8868,7 @@
         <v>96</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
@@ -8913,7 +8886,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="206" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D19" s="207"/>
       <c r="E19" s="207"/>
@@ -8937,7 +8910,7 @@
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1">
       <c r="A21" s="200" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B21" s="201"/>
       <c r="C21" s="201"/>
@@ -9067,7 +9040,7 @@
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="200" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B29" s="201"/>
       <c r="C29" s="201"/>
@@ -9105,7 +9078,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="213" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D31" s="214"/>
       <c r="E31" s="214"/>
@@ -9161,7 +9134,7 @@
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
       <c r="A35" s="200" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B35" s="210"/>
       <c r="C35" s="210"/>
@@ -9277,7 +9250,7 @@
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1">
       <c r="A42" s="222" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B42" s="223"/>
       <c r="C42" s="223"/>
@@ -9291,7 +9264,7 @@
     </row>
     <row r="43" spans="1:10" s="52" customFormat="1">
       <c r="A43" s="200" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B43" s="210"/>
       <c r="C43" s="210"/>
@@ -9306,19 +9279,19 @@
     <row r="44" spans="1:10" s="52" customFormat="1">
       <c r="A44" s="55"/>
       <c r="B44" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E44" s="106" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F44" s="225" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G44" s="226"/>
       <c r="H44" s="226"/>
@@ -9330,19 +9303,19 @@
         <v>1</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C45" s="107" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D45" s="107" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E45" s="107" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F45" s="228" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G45" s="229"/>
       <c r="H45" s="229"/>
@@ -9363,7 +9336,7 @@
     </row>
     <row r="47" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="222" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B47" s="223"/>
       <c r="C47" s="223"/>
@@ -9377,7 +9350,7 @@
     </row>
     <row r="48" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="200" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B48" s="210"/>
       <c r="C48" s="210"/>
@@ -9392,19 +9365,19 @@
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="55"/>
       <c r="B49" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C49" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D49" s="106" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E49" s="106" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F49" s="225" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G49" s="226"/>
       <c r="H49" s="226"/>
@@ -9416,19 +9389,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D50" s="107" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E50" s="107" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F50" s="228" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G50" s="229"/>
       <c r="H50" s="229"/>
@@ -9488,14 +9461,14 @@
         <v>1</v>
       </c>
       <c r="B54" s="235" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D54" s="61"/>
       <c r="E54" s="171" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F54" s="172"/>
       <c r="G54" s="172"/>
@@ -9507,11 +9480,11 @@
       <c r="A55" s="236"/>
       <c r="B55" s="236"/>
       <c r="C55" s="105" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D55" s="61"/>
       <c r="E55" s="171" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F55" s="172"/>
       <c r="G55" s="172"/>
@@ -9533,7 +9506,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="237" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B57" s="238"/>
       <c r="C57" s="238"/>
@@ -9573,11 +9546,11 @@
         <v>74</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D59" s="109"/>
       <c r="E59" s="244" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F59" s="245"/>
       <c r="G59" s="245"/>
@@ -9589,11 +9562,11 @@
       <c r="A60" s="60"/>
       <c r="B60" s="242"/>
       <c r="C60" s="110" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D60" s="109"/>
       <c r="E60" s="244" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F60" s="245"/>
       <c r="G60" s="245"/>
@@ -9605,13 +9578,13 @@
       <c r="A61" s="60"/>
       <c r="B61" s="243"/>
       <c r="C61" s="110" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D61" s="109" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E61" s="244" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F61" s="245"/>
       <c r="G61" s="245"/>
@@ -9631,7 +9604,7 @@
       </c>
       <c r="D62" s="102"/>
       <c r="E62" s="171" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F62" s="172"/>
       <c r="G62" s="172"/>
@@ -9653,7 +9626,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="247" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B64" s="248"/>
       <c r="C64" s="248"/>
@@ -9666,290 +9639,206 @@
       <c r="J64" s="249"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="55">
+      <c r="A65" s="235">
         <v>1</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="241" t="s">
         <v>103</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="105"/>
-      <c r="E65" s="240" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="102"/>
+      <c r="E65" s="171" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
+    </row>
+    <row r="66" spans="1:10" ht="66">
+      <c r="A66" s="250"/>
+      <c r="B66" s="243"/>
+      <c r="C66" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="172"/>
+      <c r="G66" s="172"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="173"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="63"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="115"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="152"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="55">
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="170"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="199"/>
+      <c r="D69" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="150"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="176"/>
+      <c r="B70" s="177"/>
+      <c r="C70" s="177"/>
+      <c r="D70" s="177"/>
+      <c r="E70" s="177"/>
+      <c r="F70" s="177"/>
+      <c r="G70" s="177"/>
+      <c r="H70" s="177"/>
+      <c r="I70" s="177"/>
+      <c r="J70" s="178"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="61"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="173"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="61"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="175"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="172"/>
+      <c r="F72" s="172"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="173"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="176"/>
+      <c r="B73" s="177"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="178"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="61"/>
+      <c r="B74" s="174"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="67"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="61">
+        <v>1</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="174"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="61">
         <v>2</v>
       </c>
-      <c r="B66" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="244" t="s">
-        <v>106</v>
-      </c>
-      <c r="F66" s="245"/>
-      <c r="G66" s="245"/>
-      <c r="H66" s="245"/>
-      <c r="I66" s="245"/>
-      <c r="J66" s="246"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="55">
-        <v>3</v>
-      </c>
-      <c r="B67" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="244" t="s">
+      <c r="B77" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="245"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="245"/>
-      <c r="I67" s="245"/>
-      <c r="J67" s="246"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="55">
-        <v>4</v>
-      </c>
-      <c r="B68" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="245"/>
-      <c r="G68" s="245"/>
-      <c r="H68" s="245"/>
-      <c r="I68" s="245"/>
-      <c r="J68" s="246"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="235">
-        <v>1</v>
-      </c>
-      <c r="B69" s="241" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="101" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="102"/>
-      <c r="E69" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="F69" s="172"/>
-      <c r="G69" s="172"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="173"/>
-    </row>
-    <row r="70" spans="1:10" ht="66">
-      <c r="A70" s="250"/>
-      <c r="B70" s="243"/>
-      <c r="C70" s="111" t="s">
-        <v>261</v>
-      </c>
-      <c r="D70" s="112" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="171" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="172"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="172"/>
-      <c r="J70" s="173"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="63"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="115"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="169"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="169"/>
-      <c r="F72" s="169"/>
-      <c r="G72" s="169"/>
-      <c r="H72" s="169"/>
-      <c r="I72" s="169"/>
-      <c r="J72" s="170"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="198" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="199"/>
-      <c r="D73" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="149"/>
-      <c r="F73" s="149"/>
-      <c r="G73" s="149"/>
-      <c r="H73" s="149"/>
-      <c r="I73" s="149"/>
-      <c r="J73" s="150"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="176"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="177"/>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="178"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="61"/>
-      <c r="B75" s="174"/>
-      <c r="C75" s="175"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="172"/>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="173"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="61"/>
-      <c r="B76" s="174"/>
-      <c r="C76" s="175"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="172"/>
-      <c r="G76" s="172"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="172"/>
-      <c r="J76" s="173"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="176"/>
-      <c r="B77" s="177"/>
-      <c r="C77" s="177"/>
-      <c r="D77" s="177"/>
-      <c r="E77" s="177"/>
-      <c r="F77" s="177"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="177"/>
-      <c r="I77" s="177"/>
-      <c r="J77" s="178"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="61"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="171"/>
-      <c r="E78" s="172"/>
-      <c r="F78" s="172"/>
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="172"/>
-      <c r="J78" s="173"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="61">
-        <v>1</v>
-      </c>
-      <c r="B80" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="174"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="149"/>
-      <c r="H80" s="149"/>
-      <c r="I80" s="149"/>
-      <c r="J80" s="150"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="61">
-        <v>2</v>
-      </c>
-      <c r="B81" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="179"/>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179"/>
-      <c r="F81" s="179"/>
-      <c r="G81" s="179"/>
-      <c r="H81" s="179"/>
-      <c r="I81" s="179"/>
-      <c r="J81" s="179"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="179"/>
+      <c r="E77" s="179"/>
+      <c r="F77" s="179"/>
+      <c r="G77" s="179"/>
+      <c r="H77" s="179"/>
+      <c r="I77" s="179"/>
+      <c r="J77" s="179"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="75">
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F45:J45"/>
     <mergeCell ref="B46:J46"/>
     <mergeCell ref="A47:J47"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="E70:J70"/>
     <mergeCell ref="E62:J62"/>
     <mergeCell ref="B63:J63"/>
     <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
     <mergeCell ref="E65:J65"/>
     <mergeCell ref="E66:J66"/>
     <mergeCell ref="A57:J57"/>
@@ -9991,8 +9880,8 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C76:J76"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A10:J10"/>
@@ -10003,17 +9892,17 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="D78:J78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="B72:C72"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10156,7 +10045,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="254" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B6" s="255"/>
       <c r="C6" s="255"/>
@@ -10176,19 +10065,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>17</v>
@@ -10197,10 +10086,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10234,7 +10123,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="254" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B10" s="255"/>
       <c r="C10" s="255"/>
@@ -10248,19 +10137,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>17</v>
@@ -10269,10 +10158,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10283,26 +10172,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -10311,26 +10200,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -10339,34 +10228,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H14" s="47">
         <v>2</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="254" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B16" s="255"/>
       <c r="C16" s="255"/>
@@ -10380,19 +10269,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>17</v>
@@ -10401,10 +10290,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>0</v>
@@ -10415,24 +10304,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -10441,24 +10330,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -10467,24 +10356,24 @@
         <v>3</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>53</v>
@@ -10495,27 +10384,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10557,8 +10446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:J67"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10715,7 +10604,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="90" customHeight="1">
       <c r="A11" s="194" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
@@ -10771,7 +10660,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="200" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B15" s="201"/>
       <c r="C15" s="201"/>
@@ -10824,10 +10713,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D18" s="207"/>
       <c r="E18" s="207"/>
@@ -10839,7 +10728,7 @@
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="200" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B19" s="201"/>
       <c r="C19" s="201"/>
@@ -10874,10 +10763,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C21" s="261" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D21" s="262"/>
       <c r="E21" s="262"/>
@@ -10892,7 +10781,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C22" s="262"/>
       <c r="D22" s="262"/>
@@ -10917,7 +10806,7 @@
     </row>
     <row r="24" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A24" s="200" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B24" s="201"/>
       <c r="C24" s="201"/>
@@ -10952,10 +10841,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C26" s="206" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D26" s="257"/>
       <c r="E26" s="257"/>
@@ -10970,10 +10859,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C27" s="206" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D27" s="257"/>
       <c r="E27" s="257"/>
@@ -11011,7 +10900,7 @@
     </row>
     <row r="30" spans="1:10" s="52" customFormat="1" ht="33.75" customHeight="1">
       <c r="A30" s="200" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B30" s="201"/>
       <c r="C30" s="201"/>
@@ -11064,10 +10953,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C33" s="206" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D33" s="207"/>
       <c r="E33" s="207"/>
@@ -11079,7 +10968,7 @@
     </row>
     <row r="34" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A34" s="200" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B34" s="201"/>
       <c r="C34" s="201"/>
@@ -11114,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C36" s="206" t="s">
         <v>73</v>
@@ -11132,7 +11021,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C37" s="206" t="s">
         <v>73</v>
@@ -11159,7 +11048,7 @@
     </row>
     <row r="39" spans="1:10" s="52" customFormat="1" ht="35.25" customHeight="1">
       <c r="A39" s="200" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B39" s="201"/>
       <c r="C39" s="201"/>
@@ -11194,10 +11083,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C41" s="206" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D41" s="257"/>
       <c r="E41" s="257"/>
@@ -11212,10 +11101,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C42" s="206" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D42" s="257"/>
       <c r="E42" s="257"/>
@@ -11239,7 +11128,7 @@
     </row>
     <row r="44" spans="1:10" s="52" customFormat="1">
       <c r="A44" s="222" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B44" s="223"/>
       <c r="C44" s="223"/>
@@ -11253,7 +11142,7 @@
     </row>
     <row r="45" spans="1:10" s="52" customFormat="1">
       <c r="A45" s="200" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B45" s="210"/>
       <c r="C45" s="210"/>
@@ -11268,19 +11157,19 @@
     <row r="46" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46" s="55"/>
       <c r="B46" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C46" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E46" s="106" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F46" s="225" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G46" s="226"/>
       <c r="H46" s="226"/>
@@ -11292,19 +11181,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C47" s="107" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D47" s="107" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F47" s="228" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G47" s="229"/>
       <c r="H47" s="229"/>
@@ -11325,7 +11214,7 @@
     </row>
     <row r="49" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="222" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B49" s="223"/>
       <c r="C49" s="223"/>
@@ -11339,7 +11228,7 @@
     </row>
     <row r="50" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="200" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B50" s="210"/>
       <c r="C50" s="210"/>
@@ -11354,19 +11243,19 @@
     <row r="51" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="55"/>
       <c r="B51" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C51" s="106" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D51" s="106" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E51" s="106" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F51" s="225" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G51" s="226"/>
       <c r="H51" s="226"/>
@@ -11378,19 +11267,19 @@
         <v>1</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D52" s="107" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E52" s="107" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F52" s="228" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G52" s="229"/>
       <c r="H52" s="229"/>
@@ -11450,14 +11339,14 @@
         <v>1</v>
       </c>
       <c r="B56" s="235" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C56" s="105" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D56" s="61"/>
       <c r="E56" s="171" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F56" s="172"/>
       <c r="G56" s="172"/>
@@ -11469,13 +11358,13 @@
       <c r="A57" s="236"/>
       <c r="B57" s="236"/>
       <c r="C57" s="105" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E57" s="240" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F57" s="152"/>
       <c r="G57" s="152"/>
@@ -11485,7 +11374,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="237" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B58" s="268"/>
       <c r="C58" s="268"/>
@@ -11502,14 +11391,14 @@
         <v>1</v>
       </c>
       <c r="B59" s="241" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C59" s="101" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="273" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F59" s="274"/>
       <c r="G59" s="274"/>
@@ -11521,13 +11410,13 @@
       <c r="A60" s="271"/>
       <c r="B60" s="272"/>
       <c r="C60" s="101" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D60" s="99" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E60" s="171" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F60" s="172"/>
       <c r="G60" s="172"/>
@@ -11543,11 +11432,11 @@
         <v>74</v>
       </c>
       <c r="C61" s="110" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="171" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F61" s="172"/>
       <c r="G61" s="172"/>
@@ -11559,11 +11448,11 @@
       <c r="A62" s="282"/>
       <c r="B62" s="284"/>
       <c r="C62" s="87" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="285" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
@@ -11575,13 +11464,13 @@
       <c r="A63" s="250"/>
       <c r="B63" s="243"/>
       <c r="C63" s="117" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D63" s="116" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E63" s="288" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F63" s="289"/>
       <c r="G63" s="289"/>
@@ -11601,7 +11490,7 @@
       </c>
       <c r="D64" s="105"/>
       <c r="E64" s="240" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F64" s="152"/>
       <c r="G64" s="152"/>
@@ -11623,7 +11512,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="237" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B66" s="238"/>
       <c r="C66" s="238"/>
@@ -11643,11 +11532,11 @@
         <v>75</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D67" s="105"/>
       <c r="E67" s="273" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F67" s="277"/>
       <c r="G67" s="277"/>
@@ -11659,13 +11548,13 @@
       <c r="A68" s="298"/>
       <c r="B68" s="262"/>
       <c r="C68" s="110" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E68" s="171" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F68" s="279"/>
       <c r="G68" s="279"/>
@@ -11678,14 +11567,14 @@
         <v>2</v>
       </c>
       <c r="B69" s="241" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C69" s="110" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="171" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F69" s="172"/>
       <c r="G69" s="172"/>
@@ -11697,11 +11586,11 @@
       <c r="A70" s="282"/>
       <c r="B70" s="284"/>
       <c r="C70" s="101" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="244" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F70" s="245"/>
       <c r="G70" s="245"/>
@@ -11713,13 +11602,13 @@
       <c r="A71" s="250"/>
       <c r="B71" s="243"/>
       <c r="C71" s="110" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D71" s="99" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E71" s="244" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F71" s="245"/>
       <c r="G71" s="245"/>
@@ -11732,14 +11621,14 @@
         <v>3</v>
       </c>
       <c r="B72" s="241" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D72" s="119"/>
       <c r="E72" s="294" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F72" s="295"/>
       <c r="G72" s="295"/>
@@ -11751,13 +11640,13 @@
       <c r="A73" s="292"/>
       <c r="B73" s="293"/>
       <c r="C73" s="110" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D73" s="120" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E73" s="294" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F73" s="295"/>
       <c r="G73" s="295"/>
@@ -12035,8 +11924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12234,7 +12123,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="254" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B10" s="255"/>
       <c r="C10" s="255"/>
@@ -12283,29 +12172,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G12" s="92" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H12" s="88"/>
       <c r="I12" s="40" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -12313,29 +12202,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G13" s="92" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H13" s="88"/>
       <c r="I13" s="40" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -12343,29 +12232,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H14" s="88"/>
       <c r="I14" s="40" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -12373,26 +12262,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G15" s="92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H15" s="88"/>
       <c r="I15" s="40" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J15" s="74"/>
     </row>
@@ -12401,29 +12290,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G16" s="92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12440,7 +12329,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="254" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B19" s="255"/>
       <c r="C19" s="255"/>
@@ -12489,26 +12378,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F21" s="94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="40" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J21" s="96"/>
     </row>
@@ -12517,32 +12406,32 @@
         <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F22" s="94" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G22" s="92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J22" s="96"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="254" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B24" s="255"/>
       <c r="C24" s="255"/>
@@ -12591,26 +12480,26 @@
         <v>1</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="40" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J26" s="96"/>
     </row>
@@ -12619,26 +12508,26 @@
         <v>2</v>
       </c>
       <c r="B27" s="128" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F27" s="94" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="40" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J27" s="96"/>
     </row>
@@ -12656,7 +12545,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="254" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B29" s="255"/>
       <c r="C29" s="255"/>
@@ -12705,22 +12594,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F31" s="91" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G31" s="92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="40" t="s">
@@ -12733,22 +12622,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F32" s="94" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="40" t="s">
@@ -12761,13 +12650,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="95"/>
@@ -12777,7 +12666,7 @@
         <v>70</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
